--- a/trim/scaling.xlsx
+++ b/trim/scaling.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74561757-22B2-40CD-A7EC-770B9BA0FBBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="100k" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="LiveJ" sheetId="7" r:id="rId9"/>
     <sheet name="Performance" sheetId="5" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -204,7 +203,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -254,9 +253,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -293,6 +292,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -426,7 +426,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-94F3-4888-BD58-8047AF6E3E76}"/>
             </c:ext>
@@ -530,7 +530,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-94F3-4888-BD58-8047AF6E3E76}"/>
             </c:ext>
@@ -634,7 +634,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-94F3-4888-BD58-8047AF6E3E76}"/>
             </c:ext>
@@ -650,11 +650,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1286811648"/>
-        <c:axId val="1288566032"/>
+        <c:axId val="381804640"/>
+        <c:axId val="381805424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1286811648"/>
+        <c:axId val="381804640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -697,7 +697,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1288566032"/>
+        <c:crossAx val="381805424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -705,7 +705,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1288566032"/>
+        <c:axId val="381805424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -756,7 +756,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1286811648"/>
+        <c:crossAx val="381804640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -770,6 +770,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -801,14 +802,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -844,9 +845,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -883,6 +884,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1016,7 +1018,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DBAF-4461-9AE2-7A1480D48E20}"/>
             </c:ext>
@@ -1120,7 +1122,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DBAF-4461-9AE2-7A1480D48E20}"/>
             </c:ext>
@@ -1224,7 +1226,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-DBAF-4461-9AE2-7A1480D48E20}"/>
             </c:ext>
@@ -1240,11 +1242,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1286811648"/>
-        <c:axId val="1288566032"/>
+        <c:axId val="381806208"/>
+        <c:axId val="381806600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1286811648"/>
+        <c:axId val="381806208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1287,7 +1289,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1288566032"/>
+        <c:crossAx val="381806600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1295,7 +1297,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1288566032"/>
+        <c:axId val="381806600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1346,7 +1348,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1286811648"/>
+        <c:crossAx val="381806208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1360,6 +1362,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1391,14 +1394,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1434,9 +1437,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1473,6 +1476,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1606,7 +1610,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-590B-4A1E-94B2-5A24D21DCFCB}"/>
             </c:ext>
@@ -1710,7 +1714,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-590B-4A1E-94B2-5A24D21DCFCB}"/>
             </c:ext>
@@ -1814,7 +1818,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-590B-4A1E-94B2-5A24D21DCFCB}"/>
             </c:ext>
@@ -1830,11 +1834,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1286811648"/>
-        <c:axId val="1288566032"/>
+        <c:axId val="383627240"/>
+        <c:axId val="383627632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1286811648"/>
+        <c:axId val="383627240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1877,7 +1881,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1288566032"/>
+        <c:crossAx val="383627632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1885,7 +1889,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1288566032"/>
+        <c:axId val="383627632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1936,7 +1940,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1286811648"/>
+        <c:crossAx val="383627240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1950,6 +1954,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1981,14 +1986,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2024,9 +2029,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2063,6 +2068,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2164,7 +2170,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-EC5A-47D8-90EE-3D69E2C27AB5}"/>
             </c:ext>
@@ -2235,7 +2241,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-EC5A-47D8-90EE-3D69E2C27AB5}"/>
             </c:ext>
@@ -2306,7 +2312,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-EC5A-47D8-90EE-3D69E2C27AB5}"/>
             </c:ext>
@@ -2322,11 +2328,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="329091247"/>
-        <c:axId val="325004095"/>
+        <c:axId val="383630376"/>
+        <c:axId val="384793104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329091247"/>
+        <c:axId val="383630376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2369,7 +2375,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325004095"/>
+        <c:crossAx val="384793104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2377,7 +2383,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="325004095"/>
+        <c:axId val="384793104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2428,7 +2434,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329091247"/>
+        <c:crossAx val="383630376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2442,6 +2448,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2473,14 +2480,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2516,9 +2523,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2555,6 +2562,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2656,7 +2664,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DD4B-4CB7-AD03-35CE703AA74D}"/>
             </c:ext>
@@ -2727,7 +2735,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DD4B-4CB7-AD03-35CE703AA74D}"/>
             </c:ext>
@@ -2798,7 +2806,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-DD4B-4CB7-AD03-35CE703AA74D}"/>
             </c:ext>
@@ -2814,11 +2822,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="329091247"/>
-        <c:axId val="325004095"/>
+        <c:axId val="384793888"/>
+        <c:axId val="384794280"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329091247"/>
+        <c:axId val="384793888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2861,7 +2869,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325004095"/>
+        <c:crossAx val="384794280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2869,7 +2877,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="325004095"/>
+        <c:axId val="384794280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2920,7 +2928,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329091247"/>
+        <c:crossAx val="384793888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2934,6 +2942,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2965,14 +2974,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3008,9 +3017,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3047,6 +3056,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3142,7 +3152,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3468-4E3A-8F65-E80BC8ADB56D}"/>
             </c:ext>
@@ -3207,7 +3217,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-3468-4E3A-8F65-E80BC8ADB56D}"/>
             </c:ext>
@@ -3272,7 +3282,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-3468-4E3A-8F65-E80BC8ADB56D}"/>
             </c:ext>
@@ -3288,11 +3298,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="329091247"/>
-        <c:axId val="325004095"/>
+        <c:axId val="384369440"/>
+        <c:axId val="384369832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329091247"/>
+        <c:axId val="384369440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3335,7 +3345,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325004095"/>
+        <c:crossAx val="384369832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3343,7 +3353,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="325004095"/>
+        <c:axId val="384369832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3394,7 +3404,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329091247"/>
+        <c:crossAx val="384369440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3408,6 +3418,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3439,14 +3450,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3482,9 +3493,9 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3521,6 +3532,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3605,18 +3617,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>10508</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2833</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>2507.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C8F8-4439-BCF7-BBBA0FA2AE17}"/>
             </c:ext>
@@ -3670,18 +3682,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>5827</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>1682.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>1499.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C8F8-4439-BCF7-BBBA0FA2AE17}"/>
             </c:ext>
@@ -3735,18 +3747,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>3354</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>989.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>913.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C8F8-4439-BCF7-BBBA0FA2AE17}"/>
             </c:ext>
@@ -3762,11 +3774,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="329091247"/>
-        <c:axId val="325004095"/>
+        <c:axId val="384370616"/>
+        <c:axId val="384371008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329091247"/>
+        <c:axId val="384370616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3809,7 +3821,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325004095"/>
+        <c:crossAx val="384371008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3817,7 +3829,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="325004095"/>
+        <c:axId val="384371008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3868,7 +3880,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329091247"/>
+        <c:crossAx val="384370616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3882,6 +3894,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3913,14 +3926,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3956,9 +3969,9 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="da-DK"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3995,6 +4008,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4079,18 +4093,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>317366.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>146771</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>142265.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F09A-4293-9C32-4BE92299F449}"/>
             </c:ext>
@@ -4144,18 +4158,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>180673.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>80480.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>75410.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F09A-4293-9C32-4BE92299F449}"/>
             </c:ext>
@@ -4209,18 +4223,18 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>108521.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>48979.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>46626</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F09A-4293-9C32-4BE92299F449}"/>
             </c:ext>
@@ -4236,11 +4250,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="329091247"/>
-        <c:axId val="325004095"/>
+        <c:axId val="384796632"/>
+        <c:axId val="384796240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="329091247"/>
+        <c:axId val="384796632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4283,7 +4297,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325004095"/>
+        <c:crossAx val="384796240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4291,7 +4305,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="325004095"/>
+        <c:axId val="384796240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4342,7 +4356,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329091247"/>
+        <c:crossAx val="384796632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4356,6 +4370,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4387,14 +4402,14 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8793,7 +8808,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEDE3A8D-C7C7-4D9F-9C25-679ED225B3B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEDE3A8D-C7C7-4D9F-9C25-679ED225B3B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8829,7 +8844,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35EB3EBF-4C04-40BF-8E50-0133D4A275B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{35EB3EBF-4C04-40BF-8E50-0133D4A275B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8867,7 +8882,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83A3B5C3-5257-411F-A2F7-DA1DC10798FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83A3B5C3-5257-411F-A2F7-DA1DC10798FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8910,7 +8925,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95FE8CA5-B481-4DFD-949F-4DE2B32B5EBB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95FE8CA5-B481-4DFD-949F-4DE2B32B5EBB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8946,7 +8961,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AED9833-EE27-464F-8F0E-4A7A5B8AC131}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7AED9833-EE27-464F-8F0E-4A7A5B8AC131}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8984,7 +8999,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CE99168-969F-488F-B46C-12861414FEB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1CE99168-969F-488F-B46C-12861414FEB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9022,7 +9037,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2CEBFD2-E8BF-46B5-A41F-41453D2CF9FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2CEBFD2-E8BF-46B5-A41F-41453D2CF9FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9060,7 +9075,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E334DA48-AEB9-4729-86FD-60A3FF7F167A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E334DA48-AEB9-4729-86FD-60A3FF7F167A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9345,7 +9360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12097,11 +12112,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFABC462-A284-4C8C-ADF7-37DDB93B64DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R28" sqref="R28"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12351,15 +12366,15 @@
       </c>
       <c r="C17">
         <f>MEDIAN(Pokec!O$2:O$11)</f>
-        <v>3</v>
+        <v>10508</v>
       </c>
       <c r="D17">
         <f>MEDIAN(Pokec!AA$2:AA$11)</f>
-        <v>3</v>
+        <v>2833</v>
       </c>
       <c r="E17">
         <f>MEDIAN(Pokec!AM$2:AM$11)</f>
-        <v>3</v>
+        <v>2507.5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -12368,15 +12383,15 @@
       </c>
       <c r="C18">
         <f>MEDIAN(Pokec!O$14:O$23)</f>
-        <v>3</v>
+        <v>5827</v>
       </c>
       <c r="D18">
         <f>MEDIAN(Pokec!AA$14:AA$23)</f>
-        <v>3</v>
+        <v>1682.5</v>
       </c>
       <c r="E18">
         <f>MEDIAN(Pokec!AM$14:AM$23)</f>
-        <v>3</v>
+        <v>1499.5</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -12385,15 +12400,15 @@
       </c>
       <c r="C19">
         <f>MEDIAN(Pokec!O$26:O$35)</f>
-        <v>3</v>
+        <v>3354</v>
       </c>
       <c r="D19">
         <f>MEDIAN(Pokec!AA$26:AA$35)</f>
-        <v>3</v>
+        <v>989.5</v>
       </c>
       <c r="E19">
         <f>MEDIAN(Pokec!AM$26:AM$35)</f>
-        <v>3</v>
+        <v>913.5</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -12416,15 +12431,15 @@
       </c>
       <c r="C22">
         <f>MEDIAN(LiveJ!O$2:O$11)</f>
-        <v>3</v>
+        <v>317366.5</v>
       </c>
       <c r="D22">
         <f>MEDIAN(LiveJ!AA$2:AA$11)</f>
-        <v>3</v>
+        <v>146771</v>
       </c>
       <c r="E22">
         <f>MEDIAN(LiveJ!AM$2:AM$11)</f>
-        <v>3</v>
+        <v>142265.5</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -12433,15 +12448,15 @@
       </c>
       <c r="C23">
         <f>MEDIAN(LiveJ!O$14:O$23)</f>
-        <v>3</v>
+        <v>180673.5</v>
       </c>
       <c r="D23">
         <f>MEDIAN(LiveJ!AA$14:AA$23)</f>
-        <v>3</v>
+        <v>80480.5</v>
       </c>
       <c r="E23">
         <f>MEDIAN(LiveJ!AM$14:AM$23)</f>
-        <v>3</v>
+        <v>75410.5</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -12450,15 +12465,15 @@
       </c>
       <c r="C24">
         <f>MEDIAN(LiveJ!O$26:O$35)</f>
-        <v>3</v>
+        <v>108521.5</v>
       </c>
       <c r="D24">
         <f>MEDIAN(LiveJ!AA$26:AA$35)</f>
-        <v>3</v>
+        <v>48979.5</v>
       </c>
       <c r="E24">
         <f>MEDIAN(LiveJ!AM$26:AM$35)</f>
-        <v>3</v>
+        <v>46626</v>
       </c>
     </row>
   </sheetData>
@@ -12468,7 +12483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD2A5989-F586-42FE-9BC0-9F4C719613B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N83"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -15220,7 +15235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D39A2B9-C56B-41F0-BB0B-E2877397A3A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N83"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
@@ -17972,10 +17987,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA2A58C-0278-4CB8-A7FD-A164B2136C32}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
@@ -18470,7 +18485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD01E6CA-8792-481B-B83C-F1ED53F731F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22574,7 +22589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D98EB5F7-A4A0-4759-BE47-C5EEC691570B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26684,7 +26699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1907CB-FAC9-4F94-90A1-0A794F07365B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29983,11 +29998,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719B6A2D-BF87-4881-B8E2-C471BD75F372}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AX11" sqref="AX11"/>
+      <selection activeCell="AW7" sqref="AW7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29995,15 +30010,24 @@
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="2" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="21" width="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="33" width="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="3" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="45" width="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5" bestFit="1" customWidth="1"/>
+    <col min="31" max="33" width="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="47" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.25">
@@ -30055,103 +30079,103 @@
         <v>11</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>19291</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>18242</v>
       </c>
       <c r="O2">
-        <v>3</v>
+        <v>10522</v>
       </c>
       <c r="P2">
-        <v>4</v>
+        <v>1509</v>
       </c>
       <c r="Q2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="R2">
-        <v>6</v>
+        <v>4555</v>
       </c>
       <c r="S2">
-        <v>7</v>
+        <v>4555</v>
       </c>
       <c r="T2">
-        <v>8</v>
+        <v>523</v>
       </c>
       <c r="U2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>11</v>
+        <v>4448</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>19045</v>
       </c>
       <c r="Z2">
-        <v>2</v>
+        <v>17998</v>
       </c>
       <c r="AA2">
-        <v>3</v>
+        <v>2812</v>
       </c>
       <c r="AB2">
-        <v>4</v>
+        <v>1480</v>
       </c>
       <c r="AC2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>6</v>
+        <v>998</v>
       </c>
       <c r="AE2">
-        <v>7</v>
+        <v>752</v>
       </c>
       <c r="AF2">
-        <v>8</v>
+        <v>506</v>
       </c>
       <c r="AG2">
-        <v>9</v>
+        <v>245</v>
       </c>
       <c r="AH2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>11</v>
+        <v>333</v>
       </c>
       <c r="AK2">
-        <v>1</v>
+        <v>22340</v>
       </c>
       <c r="AL2">
-        <v>2</v>
+        <v>19334</v>
       </c>
       <c r="AM2">
-        <v>3</v>
+        <v>2811</v>
       </c>
       <c r="AN2">
-        <v>4</v>
+        <v>1599</v>
       </c>
       <c r="AO2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>6</v>
+        <v>996</v>
       </c>
       <c r="AQ2">
-        <v>7</v>
+        <v>694</v>
       </c>
       <c r="AR2">
-        <v>8</v>
+        <v>543</v>
       </c>
       <c r="AS2">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="AT2">
-        <v>10</v>
+        <v>147</v>
       </c>
       <c r="AU2">
-        <v>11</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
@@ -30159,13 +30183,103 @@
         <v>2</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>19129</v>
+      </c>
+      <c r="N3">
+        <v>18151</v>
+      </c>
+      <c r="O3">
+        <v>10442</v>
+      </c>
+      <c r="P3">
+        <v>1481</v>
+      </c>
+      <c r="Q3">
+        <v>8</v>
+      </c>
+      <c r="R3">
+        <v>4520</v>
+      </c>
+      <c r="S3">
+        <v>4520</v>
+      </c>
+      <c r="T3">
+        <v>507</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>4431</v>
       </c>
       <c r="Y3">
-        <v>2</v>
+        <v>19249</v>
+      </c>
+      <c r="Z3">
+        <v>18225</v>
+      </c>
+      <c r="AA3">
+        <v>2841</v>
+      </c>
+      <c r="AB3">
+        <v>1507</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>1000</v>
+      </c>
+      <c r="AE3">
+        <v>754</v>
+      </c>
+      <c r="AF3">
+        <v>508</v>
+      </c>
+      <c r="AG3">
+        <v>245</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>334</v>
       </c>
       <c r="AK3">
-        <v>2</v>
+        <v>19290</v>
+      </c>
+      <c r="AL3">
+        <v>18224</v>
+      </c>
+      <c r="AM3">
+        <v>2503</v>
+      </c>
+      <c r="AN3">
+        <v>1478</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>860</v>
+      </c>
+      <c r="AQ3">
+        <v>631</v>
+      </c>
+      <c r="AR3">
+        <v>515</v>
+      </c>
+      <c r="AS3">
+        <v>114</v>
+      </c>
+      <c r="AT3">
+        <v>113</v>
+      </c>
+      <c r="AU3">
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.25">
@@ -30173,13 +30287,103 @@
         <v>3</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>19160</v>
+      </c>
+      <c r="N4">
+        <v>18061</v>
+      </c>
+      <c r="O4">
+        <v>10750</v>
+      </c>
+      <c r="P4">
+        <v>1491</v>
+      </c>
+      <c r="Q4">
+        <v>9</v>
+      </c>
+      <c r="R4">
+        <v>4664</v>
+      </c>
+      <c r="S4">
+        <v>4663</v>
+      </c>
+      <c r="T4">
+        <v>510</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>4584</v>
       </c>
       <c r="Y4">
-        <v>3</v>
+        <v>19254</v>
+      </c>
+      <c r="Z4">
+        <v>18142</v>
+      </c>
+      <c r="AA4">
+        <v>2835</v>
+      </c>
+      <c r="AB4">
+        <v>1497</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>1003</v>
+      </c>
+      <c r="AE4">
+        <v>757</v>
+      </c>
+      <c r="AF4">
+        <v>510</v>
+      </c>
+      <c r="AG4">
+        <v>246</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>334</v>
       </c>
       <c r="AK4">
-        <v>3</v>
+        <v>20947</v>
+      </c>
+      <c r="AL4">
+        <v>18149</v>
+      </c>
+      <c r="AM4">
+        <v>2438</v>
+      </c>
+      <c r="AN4">
+        <v>1427</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>846</v>
+      </c>
+      <c r="AQ4">
+        <v>619</v>
+      </c>
+      <c r="AR4">
+        <v>504</v>
+      </c>
+      <c r="AS4">
+        <v>114</v>
+      </c>
+      <c r="AT4">
+        <v>112</v>
+      </c>
+      <c r="AU4">
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.25">
@@ -30187,13 +30391,103 @@
         <v>4</v>
       </c>
       <c r="M5">
-        <v>4</v>
+        <v>19200</v>
+      </c>
+      <c r="N5">
+        <v>18068</v>
+      </c>
+      <c r="O5">
+        <v>10494</v>
+      </c>
+      <c r="P5">
+        <v>1486</v>
+      </c>
+      <c r="Q5">
+        <v>9</v>
+      </c>
+      <c r="R5">
+        <v>4542</v>
+      </c>
+      <c r="S5">
+        <v>4542</v>
+      </c>
+      <c r="T5">
+        <v>509</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>4456</v>
       </c>
       <c r="Y5">
-        <v>4</v>
+        <v>19550</v>
+      </c>
+      <c r="Z5">
+        <v>18145</v>
+      </c>
+      <c r="AA5">
+        <v>2837</v>
+      </c>
+      <c r="AB5">
+        <v>1494</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>1008</v>
+      </c>
+      <c r="AE5">
+        <v>763</v>
+      </c>
+      <c r="AF5">
+        <v>516</v>
+      </c>
+      <c r="AG5">
+        <v>245</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>333</v>
       </c>
       <c r="AK5">
-        <v>4</v>
+        <v>22812</v>
+      </c>
+      <c r="AL5">
+        <v>19303</v>
+      </c>
+      <c r="AM5">
+        <v>2861</v>
+      </c>
+      <c r="AN5">
+        <v>1654</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>991</v>
+      </c>
+      <c r="AQ5">
+        <v>694</v>
+      </c>
+      <c r="AR5">
+        <v>544</v>
+      </c>
+      <c r="AS5">
+        <v>149</v>
+      </c>
+      <c r="AT5">
+        <v>147</v>
+      </c>
+      <c r="AU5">
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.25">
@@ -30201,13 +30495,103 @@
         <v>5</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>21615</v>
+      </c>
+      <c r="N6">
+        <v>19321</v>
+      </c>
+      <c r="O6">
+        <v>10523</v>
+      </c>
+      <c r="P6">
+        <v>1482</v>
+      </c>
+      <c r="Q6">
+        <v>9</v>
+      </c>
+      <c r="R6">
+        <v>4585</v>
+      </c>
+      <c r="S6">
+        <v>4585</v>
+      </c>
+      <c r="T6">
+        <v>548</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>4445</v>
       </c>
       <c r="Y6">
-        <v>5</v>
+        <v>19118</v>
+      </c>
+      <c r="Z6">
+        <v>18132</v>
+      </c>
+      <c r="AA6">
+        <v>3261</v>
+      </c>
+      <c r="AB6">
+        <v>1664</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>1160</v>
+      </c>
+      <c r="AE6">
+        <v>840</v>
+      </c>
+      <c r="AF6">
+        <v>520</v>
+      </c>
+      <c r="AG6">
+        <v>319</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>434</v>
       </c>
       <c r="AK6">
-        <v>5</v>
+        <v>22810</v>
+      </c>
+      <c r="AL6">
+        <v>19267</v>
+      </c>
+      <c r="AM6">
+        <v>2842</v>
+      </c>
+      <c r="AN6">
+        <v>1646</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>981</v>
+      </c>
+      <c r="AQ6">
+        <v>684</v>
+      </c>
+      <c r="AR6">
+        <v>534</v>
+      </c>
+      <c r="AS6">
+        <v>149</v>
+      </c>
+      <c r="AT6">
+        <v>147</v>
+      </c>
+      <c r="AU6">
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.25">
@@ -30215,13 +30599,103 @@
         <v>6</v>
       </c>
       <c r="M7">
-        <v>6</v>
+        <v>19143</v>
+      </c>
+      <c r="N7">
+        <v>18140</v>
+      </c>
+      <c r="O7">
+        <v>10452</v>
+      </c>
+      <c r="P7">
+        <v>1489</v>
+      </c>
+      <c r="Q7">
+        <v>9</v>
+      </c>
+      <c r="R7">
+        <v>4522</v>
+      </c>
+      <c r="S7">
+        <v>4522</v>
+      </c>
+      <c r="T7">
+        <v>510</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>4430</v>
       </c>
       <c r="Y7">
-        <v>6</v>
+        <v>22531</v>
+      </c>
+      <c r="Z7">
+        <v>17988</v>
+      </c>
+      <c r="AA7">
+        <v>2750</v>
+      </c>
+      <c r="AB7">
+        <v>1417</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>998</v>
+      </c>
+      <c r="AE7">
+        <v>752</v>
+      </c>
+      <c r="AF7">
+        <v>501</v>
+      </c>
+      <c r="AG7">
+        <v>246</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>333</v>
       </c>
       <c r="AK7">
-        <v>6</v>
+        <v>20940</v>
+      </c>
+      <c r="AL7">
+        <v>18140</v>
+      </c>
+      <c r="AM7">
+        <v>2460</v>
+      </c>
+      <c r="AN7">
+        <v>1438</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>856</v>
+      </c>
+      <c r="AQ7">
+        <v>627</v>
+      </c>
+      <c r="AR7">
+        <v>511</v>
+      </c>
+      <c r="AS7">
+        <v>115</v>
+      </c>
+      <c r="AT7">
+        <v>113</v>
+      </c>
+      <c r="AU7">
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.25">
@@ -30229,13 +30703,103 @@
         <v>7</v>
       </c>
       <c r="M8">
-        <v>7</v>
+        <v>19816</v>
+      </c>
+      <c r="N8">
+        <v>19219</v>
+      </c>
+      <c r="O8">
+        <v>13036</v>
+      </c>
+      <c r="P8">
+        <v>1612</v>
+      </c>
+      <c r="Q8">
+        <v>10</v>
+      </c>
+      <c r="R8">
+        <v>5681</v>
+      </c>
+      <c r="S8">
+        <v>5681</v>
+      </c>
+      <c r="T8">
+        <v>536</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>5731</v>
       </c>
       <c r="Y8">
-        <v>7</v>
+        <v>19149</v>
+      </c>
+      <c r="Z8">
+        <v>18092</v>
+      </c>
+      <c r="AA8">
+        <v>2831</v>
+      </c>
+      <c r="AB8">
+        <v>1500</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>996</v>
+      </c>
+      <c r="AE8">
+        <v>751</v>
+      </c>
+      <c r="AF8">
+        <v>504</v>
+      </c>
+      <c r="AG8">
+        <v>245</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>333</v>
       </c>
       <c r="AK8">
-        <v>7</v>
+        <v>19252</v>
+      </c>
+      <c r="AL8">
+        <v>18254</v>
+      </c>
+      <c r="AM8">
+        <v>2527</v>
+      </c>
+      <c r="AN8">
+        <v>1499</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>861</v>
+      </c>
+      <c r="AQ8">
+        <v>629</v>
+      </c>
+      <c r="AR8">
+        <v>511</v>
+      </c>
+      <c r="AS8">
+        <v>116</v>
+      </c>
+      <c r="AT8">
+        <v>115</v>
+      </c>
+      <c r="AU8">
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.25">
@@ -30243,13 +30807,103 @@
         <v>8</v>
       </c>
       <c r="M9">
-        <v>8</v>
+        <v>21667</v>
+      </c>
+      <c r="N9">
+        <v>19285</v>
+      </c>
+      <c r="O9">
+        <v>13112</v>
+      </c>
+      <c r="P9">
+        <v>1598</v>
+      </c>
+      <c r="Q9">
+        <v>10</v>
+      </c>
+      <c r="R9">
+        <v>5726</v>
+      </c>
+      <c r="S9">
+        <v>5726</v>
+      </c>
+      <c r="T9">
+        <v>542</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>5776</v>
       </c>
       <c r="Y9">
-        <v>8</v>
+        <v>19095</v>
+      </c>
+      <c r="Z9">
+        <v>18079</v>
+      </c>
+      <c r="AA9">
+        <v>2911</v>
+      </c>
+      <c r="AB9">
+        <v>1520</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>1035</v>
+      </c>
+      <c r="AE9">
+        <v>772</v>
+      </c>
+      <c r="AF9">
+        <v>506</v>
+      </c>
+      <c r="AG9">
+        <v>263</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>354</v>
       </c>
       <c r="AK9">
-        <v>8</v>
+        <v>21862</v>
+      </c>
+      <c r="AL9">
+        <v>18255</v>
+      </c>
+      <c r="AM9">
+        <v>2451</v>
+      </c>
+      <c r="AN9">
+        <v>1435</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>851</v>
+      </c>
+      <c r="AQ9">
+        <v>623</v>
+      </c>
+      <c r="AR9">
+        <v>508</v>
+      </c>
+      <c r="AS9">
+        <v>114</v>
+      </c>
+      <c r="AT9">
+        <v>113</v>
+      </c>
+      <c r="AU9">
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.25">
@@ -30257,13 +30911,103 @@
         <v>9</v>
       </c>
       <c r="M10">
-        <v>9</v>
+        <v>19307</v>
+      </c>
+      <c r="N10">
+        <v>18157</v>
+      </c>
+      <c r="O10">
+        <v>10476</v>
+      </c>
+      <c r="P10">
+        <v>1493</v>
+      </c>
+      <c r="Q10">
+        <v>8</v>
+      </c>
+      <c r="R10">
+        <v>4524</v>
+      </c>
+      <c r="S10">
+        <v>4524</v>
+      </c>
+      <c r="T10">
+        <v>507</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>4448</v>
       </c>
       <c r="Y10">
-        <v>9</v>
+        <v>19133</v>
+      </c>
+      <c r="Z10">
+        <v>18213</v>
+      </c>
+      <c r="AA10">
+        <v>2809</v>
+      </c>
+      <c r="AB10">
+        <v>1478</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>997</v>
+      </c>
+      <c r="AE10">
+        <v>751</v>
+      </c>
+      <c r="AF10">
+        <v>505</v>
+      </c>
+      <c r="AG10">
+        <v>245</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>333</v>
       </c>
       <c r="AK10">
-        <v>9</v>
+        <v>19131</v>
+      </c>
+      <c r="AL10">
+        <v>18090</v>
+      </c>
+      <c r="AM10">
+        <v>2499</v>
+      </c>
+      <c r="AN10">
+        <v>1482</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>851</v>
+      </c>
+      <c r="AQ10">
+        <v>622</v>
+      </c>
+      <c r="AR10">
+        <v>507</v>
+      </c>
+      <c r="AS10">
+        <v>115</v>
+      </c>
+      <c r="AT10">
+        <v>113</v>
+      </c>
+      <c r="AU10">
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.25">
@@ -30271,13 +31015,103 @@
         <v>10</v>
       </c>
       <c r="M11">
-        <v>10</v>
+        <v>19070</v>
+      </c>
+      <c r="N11">
+        <v>18194</v>
+      </c>
+      <c r="O11">
+        <v>10475</v>
+      </c>
+      <c r="P11">
+        <v>1487</v>
+      </c>
+      <c r="Q11">
+        <v>8</v>
+      </c>
+      <c r="R11">
+        <v>4532</v>
+      </c>
+      <c r="S11">
+        <v>4531</v>
+      </c>
+      <c r="T11">
+        <v>510</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>4446</v>
       </c>
       <c r="Y11">
-        <v>10</v>
+        <v>19089</v>
+      </c>
+      <c r="Z11">
+        <v>17997</v>
+      </c>
+      <c r="AA11">
+        <v>2811</v>
+      </c>
+      <c r="AB11">
+        <v>1480</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>996</v>
+      </c>
+      <c r="AE11">
+        <v>750</v>
+      </c>
+      <c r="AF11">
+        <v>504</v>
+      </c>
+      <c r="AG11">
+        <v>245</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>333</v>
       </c>
       <c r="AK11">
-        <v>10</v>
+        <v>19054</v>
+      </c>
+      <c r="AL11">
+        <v>18175</v>
+      </c>
+      <c r="AM11">
+        <v>2512</v>
+      </c>
+      <c r="AN11">
+        <v>1482</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>861</v>
+      </c>
+      <c r="AQ11">
+        <v>625</v>
+      </c>
+      <c r="AR11">
+        <v>506</v>
+      </c>
+      <c r="AS11">
+        <v>118</v>
+      </c>
+      <c r="AT11">
+        <v>116</v>
+      </c>
+      <c r="AU11">
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.25">
@@ -30329,103 +31163,103 @@
         <v>11</v>
       </c>
       <c r="M14">
+        <v>19041</v>
+      </c>
+      <c r="N14">
+        <v>18066</v>
+      </c>
+      <c r="O14">
+        <v>5984</v>
+      </c>
+      <c r="P14">
+        <v>896</v>
+      </c>
+      <c r="Q14">
+        <v>6</v>
+      </c>
+      <c r="R14">
+        <v>2694</v>
+      </c>
+      <c r="S14">
+        <v>2694</v>
+      </c>
+      <c r="T14">
+        <v>354</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>2385</v>
+      </c>
+      <c r="Y14">
+        <v>19512</v>
+      </c>
+      <c r="Z14">
+        <v>18063</v>
+      </c>
+      <c r="AA14">
+        <v>1619</v>
+      </c>
+      <c r="AB14">
+        <v>809</v>
+      </c>
+      <c r="AC14">
         <v>1</v>
       </c>
-      <c r="N14">
-        <v>2</v>
-      </c>
-      <c r="O14">
-        <v>3</v>
-      </c>
-      <c r="P14">
-        <v>4</v>
-      </c>
-      <c r="Q14">
-        <v>5</v>
-      </c>
-      <c r="R14">
-        <v>6</v>
-      </c>
-      <c r="S14">
-        <v>7</v>
-      </c>
-      <c r="T14">
-        <v>8</v>
-      </c>
-      <c r="U14">
-        <v>9</v>
-      </c>
-      <c r="V14">
-        <v>10</v>
-      </c>
-      <c r="W14">
-        <v>11</v>
-      </c>
-      <c r="Y14">
-        <v>1</v>
-      </c>
-      <c r="Z14">
-        <v>2</v>
-      </c>
-      <c r="AA14">
-        <v>3</v>
-      </c>
-      <c r="AB14">
-        <v>4</v>
-      </c>
-      <c r="AC14">
-        <v>5</v>
-      </c>
       <c r="AD14">
-        <v>6</v>
+        <v>622</v>
       </c>
       <c r="AE14">
-        <v>7</v>
+        <v>486</v>
       </c>
       <c r="AF14">
-        <v>8</v>
+        <v>350</v>
       </c>
       <c r="AG14">
-        <v>9</v>
+        <v>135</v>
       </c>
       <c r="AH14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AI14">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="AK14">
-        <v>1</v>
+        <v>19385</v>
       </c>
       <c r="AL14">
-        <v>2</v>
+        <v>19386</v>
       </c>
       <c r="AM14">
-        <v>3</v>
+        <v>1545</v>
       </c>
       <c r="AN14">
-        <v>4</v>
+        <v>846</v>
       </c>
       <c r="AO14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>6</v>
+        <v>584</v>
       </c>
       <c r="AQ14">
-        <v>7</v>
+        <v>422</v>
       </c>
       <c r="AR14">
-        <v>8</v>
+        <v>342</v>
       </c>
       <c r="AS14">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="AT14">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="AU14">
-        <v>11</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.25">
@@ -30433,13 +31267,103 @@
         <v>2</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>19241</v>
+      </c>
+      <c r="N15">
+        <v>19471</v>
+      </c>
+      <c r="O15">
+        <v>6837</v>
+      </c>
+      <c r="P15">
+        <v>825</v>
+      </c>
+      <c r="Q15">
+        <v>7</v>
+      </c>
+      <c r="R15">
+        <v>3083</v>
+      </c>
+      <c r="S15">
+        <v>3083</v>
+      </c>
+      <c r="T15">
+        <v>344</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>2918</v>
       </c>
       <c r="Y15">
-        <v>2</v>
+        <v>22161</v>
+      </c>
+      <c r="Z15">
+        <v>19202</v>
+      </c>
+      <c r="AA15">
+        <v>1807</v>
+      </c>
+      <c r="AB15">
+        <v>898</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>680</v>
+      </c>
+      <c r="AE15">
+        <v>514</v>
+      </c>
+      <c r="AF15">
+        <v>347</v>
+      </c>
+      <c r="AG15">
+        <v>165</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>228</v>
       </c>
       <c r="AK15">
-        <v>2</v>
+        <v>19262</v>
+      </c>
+      <c r="AL15">
+        <v>18249</v>
+      </c>
+      <c r="AM15">
+        <v>1500</v>
+      </c>
+      <c r="AN15">
+        <v>870</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>539</v>
+      </c>
+      <c r="AQ15">
+        <v>412</v>
+      </c>
+      <c r="AR15">
+        <v>349</v>
+      </c>
+      <c r="AS15">
+        <v>66</v>
+      </c>
+      <c r="AT15">
+        <v>61</v>
+      </c>
+      <c r="AU15">
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.25">
@@ -30447,13 +31371,103 @@
         <v>3</v>
       </c>
       <c r="M16">
-        <v>3</v>
+        <v>19104</v>
+      </c>
+      <c r="N16">
+        <v>18187</v>
+      </c>
+      <c r="O16">
+        <v>5939</v>
+      </c>
+      <c r="P16">
+        <v>844</v>
+      </c>
+      <c r="Q16">
+        <v>6</v>
+      </c>
+      <c r="R16">
+        <v>2658</v>
+      </c>
+      <c r="S16">
+        <v>2658</v>
+      </c>
+      <c r="T16">
+        <v>352</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>2427</v>
       </c>
       <c r="Y16">
-        <v>3</v>
+        <v>19153</v>
+      </c>
+      <c r="Z16">
+        <v>18092</v>
+      </c>
+      <c r="AA16">
+        <v>1628</v>
+      </c>
+      <c r="AB16">
+        <v>817</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <v>630</v>
+      </c>
+      <c r="AE16">
+        <v>493</v>
+      </c>
+      <c r="AF16">
+        <v>360</v>
+      </c>
+      <c r="AG16">
+        <v>136</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>179</v>
       </c>
       <c r="AK16">
-        <v>3</v>
+        <v>22590</v>
+      </c>
+      <c r="AL16">
+        <v>19261</v>
+      </c>
+      <c r="AM16">
+        <v>1540</v>
+      </c>
+      <c r="AN16">
+        <v>832</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>597</v>
+      </c>
+      <c r="AQ16">
+        <v>446</v>
+      </c>
+      <c r="AR16">
+        <v>369</v>
+      </c>
+      <c r="AS16">
+        <v>75</v>
+      </c>
+      <c r="AT16">
+        <v>74</v>
+      </c>
+      <c r="AU16">
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.25">
@@ -30461,13 +31475,103 @@
         <v>4</v>
       </c>
       <c r="M17">
-        <v>4</v>
+        <v>19078</v>
+      </c>
+      <c r="N17">
+        <v>17998</v>
+      </c>
+      <c r="O17">
+        <v>5983</v>
+      </c>
+      <c r="P17">
+        <v>813</v>
+      </c>
+      <c r="Q17">
+        <v>6</v>
+      </c>
+      <c r="R17">
+        <v>2709</v>
+      </c>
+      <c r="S17">
+        <v>2709</v>
+      </c>
+      <c r="T17">
+        <v>365</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>2453</v>
       </c>
       <c r="Y17">
-        <v>4</v>
+        <v>19259</v>
+      </c>
+      <c r="Z17">
+        <v>18168</v>
+      </c>
+      <c r="AA17">
+        <v>1590</v>
+      </c>
+      <c r="AB17">
+        <v>777</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
+        <v>632</v>
+      </c>
+      <c r="AE17">
+        <v>495</v>
+      </c>
+      <c r="AF17">
+        <v>363</v>
+      </c>
+      <c r="AG17">
+        <v>136</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>179</v>
       </c>
       <c r="AK17">
-        <v>4</v>
+        <v>20410</v>
+      </c>
+      <c r="AL17">
+        <v>21754</v>
+      </c>
+      <c r="AM17">
+        <v>1421</v>
+      </c>
+      <c r="AN17">
+        <v>783</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>548</v>
+      </c>
+      <c r="AQ17">
+        <v>432</v>
+      </c>
+      <c r="AR17">
+        <v>372</v>
+      </c>
+      <c r="AS17">
+        <v>58</v>
+      </c>
+      <c r="AT17">
+        <v>58</v>
+      </c>
+      <c r="AU17">
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.25">
@@ -30475,13 +31579,103 @@
         <v>5</v>
       </c>
       <c r="M18">
-        <v>5</v>
+        <v>19515</v>
+      </c>
+      <c r="N18">
+        <v>18104</v>
+      </c>
+      <c r="O18">
+        <v>5641</v>
+      </c>
+      <c r="P18">
+        <v>745</v>
+      </c>
+      <c r="Q18">
+        <v>6</v>
+      </c>
+      <c r="R18">
+        <v>2556</v>
+      </c>
+      <c r="S18">
+        <v>2556</v>
+      </c>
+      <c r="T18">
+        <v>343</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>2331</v>
       </c>
       <c r="Y18">
-        <v>5</v>
+        <v>21208</v>
+      </c>
+      <c r="Z18">
+        <v>19246</v>
+      </c>
+      <c r="AA18">
+        <v>1889</v>
+      </c>
+      <c r="AB18">
+        <v>944</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
+        <v>721</v>
+      </c>
+      <c r="AE18">
+        <v>554</v>
+      </c>
+      <c r="AF18">
+        <v>382</v>
+      </c>
+      <c r="AG18">
+        <v>166</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>222</v>
       </c>
       <c r="AK18">
-        <v>5</v>
+        <v>19030</v>
+      </c>
+      <c r="AL18">
+        <v>18021</v>
+      </c>
+      <c r="AM18">
+        <v>1469</v>
+      </c>
+      <c r="AN18">
+        <v>841</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>536</v>
+      </c>
+      <c r="AQ18">
+        <v>408</v>
+      </c>
+      <c r="AR18">
+        <v>339</v>
+      </c>
+      <c r="AS18">
+        <v>64</v>
+      </c>
+      <c r="AT18">
+        <v>62</v>
+      </c>
+      <c r="AU18">
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.25">
@@ -30489,13 +31683,103 @@
         <v>6</v>
       </c>
       <c r="M19">
+        <v>19102</v>
+      </c>
+      <c r="N19">
+        <v>18034</v>
+      </c>
+      <c r="O19">
+        <v>5667</v>
+      </c>
+      <c r="P19">
+        <v>830</v>
+      </c>
+      <c r="Q19">
         <v>6</v>
       </c>
+      <c r="R19">
+        <v>2539</v>
+      </c>
+      <c r="S19">
+        <v>2539</v>
+      </c>
+      <c r="T19">
+        <v>355</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>2289</v>
+      </c>
       <c r="Y19">
-        <v>6</v>
+        <v>22115</v>
+      </c>
+      <c r="Z19">
+        <v>19384</v>
+      </c>
+      <c r="AA19">
+        <v>1892</v>
+      </c>
+      <c r="AB19">
+        <v>937</v>
+      </c>
+      <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <v>723</v>
+      </c>
+      <c r="AE19">
+        <v>555</v>
+      </c>
+      <c r="AF19">
+        <v>388</v>
+      </c>
+      <c r="AG19">
+        <v>168</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>229</v>
       </c>
       <c r="AK19">
-        <v>6</v>
+        <v>19315</v>
+      </c>
+      <c r="AL19">
+        <v>18256</v>
+      </c>
+      <c r="AM19">
+        <v>1499</v>
+      </c>
+      <c r="AN19">
+        <v>869</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>542</v>
+      </c>
+      <c r="AQ19">
+        <v>422</v>
+      </c>
+      <c r="AR19">
+        <v>356</v>
+      </c>
+      <c r="AS19">
+        <v>60</v>
+      </c>
+      <c r="AT19">
+        <v>59</v>
+      </c>
+      <c r="AU19">
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:47" x14ac:dyDescent="0.25">
@@ -30503,13 +31787,103 @@
         <v>7</v>
       </c>
       <c r="M20">
-        <v>7</v>
+        <v>19144</v>
+      </c>
+      <c r="N20">
+        <v>18076</v>
+      </c>
+      <c r="O20">
+        <v>5838</v>
+      </c>
+      <c r="P20">
+        <v>821</v>
+      </c>
+      <c r="Q20">
+        <v>6</v>
+      </c>
+      <c r="R20">
+        <v>2622</v>
+      </c>
+      <c r="S20">
+        <v>2622</v>
+      </c>
+      <c r="T20">
+        <v>362</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>2386</v>
       </c>
       <c r="Y20">
-        <v>7</v>
+        <v>22141</v>
+      </c>
+      <c r="Z20">
+        <v>18342</v>
+      </c>
+      <c r="AA20">
+        <v>1708</v>
+      </c>
+      <c r="AB20">
+        <v>874</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>641</v>
+      </c>
+      <c r="AE20">
+        <v>499</v>
+      </c>
+      <c r="AF20">
+        <v>358</v>
+      </c>
+      <c r="AG20">
+        <v>141</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>191</v>
       </c>
       <c r="AK20">
-        <v>7</v>
+        <v>19108</v>
+      </c>
+      <c r="AL20">
+        <v>18253</v>
+      </c>
+      <c r="AM20">
+        <v>1447</v>
+      </c>
+      <c r="AN20">
+        <v>819</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>535</v>
+      </c>
+      <c r="AQ20">
+        <v>414</v>
+      </c>
+      <c r="AR20">
+        <v>352</v>
+      </c>
+      <c r="AS20">
+        <v>60</v>
+      </c>
+      <c r="AT20">
+        <v>60</v>
+      </c>
+      <c r="AU20">
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.25">
@@ -30517,13 +31891,103 @@
         <v>8</v>
       </c>
       <c r="M21">
-        <v>8</v>
+        <v>19242</v>
+      </c>
+      <c r="N21">
+        <v>18251</v>
+      </c>
+      <c r="O21">
+        <v>5816</v>
+      </c>
+      <c r="P21">
+        <v>771</v>
+      </c>
+      <c r="Q21">
+        <v>6</v>
+      </c>
+      <c r="R21">
+        <v>2622</v>
+      </c>
+      <c r="S21">
+        <v>2622</v>
+      </c>
+      <c r="T21">
+        <v>335</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>2415</v>
       </c>
       <c r="Y21">
-        <v>8</v>
+        <v>19342</v>
+      </c>
+      <c r="Z21">
+        <v>18219</v>
+      </c>
+      <c r="AA21">
+        <v>1657</v>
+      </c>
+      <c r="AB21">
+        <v>852</v>
+      </c>
+      <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AD21">
+        <v>625</v>
+      </c>
+      <c r="AE21">
+        <v>492</v>
+      </c>
+      <c r="AF21">
+        <v>355</v>
+      </c>
+      <c r="AG21">
+        <v>132</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>178</v>
       </c>
       <c r="AK21">
-        <v>8</v>
+        <v>20670</v>
+      </c>
+      <c r="AL21">
+        <v>19387</v>
+      </c>
+      <c r="AM21">
+        <v>1562</v>
+      </c>
+      <c r="AN21">
+        <v>853</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>591</v>
+      </c>
+      <c r="AQ21">
+        <v>430</v>
+      </c>
+      <c r="AR21">
+        <v>347</v>
+      </c>
+      <c r="AS21">
+        <v>81</v>
+      </c>
+      <c r="AT21">
+        <v>80</v>
+      </c>
+      <c r="AU21">
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:47" x14ac:dyDescent="0.25">
@@ -30531,13 +31995,103 @@
         <v>9</v>
       </c>
       <c r="M22">
-        <v>9</v>
+        <v>19151</v>
+      </c>
+      <c r="N22">
+        <v>18062</v>
+      </c>
+      <c r="O22">
+        <v>5646</v>
+      </c>
+      <c r="P22">
+        <v>796</v>
+      </c>
+      <c r="Q22">
+        <v>6</v>
+      </c>
+      <c r="R22">
+        <v>2547</v>
+      </c>
+      <c r="S22">
+        <v>2547</v>
+      </c>
+      <c r="T22">
+        <v>353</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>2294</v>
       </c>
       <c r="Y22">
-        <v>9</v>
+        <v>20287</v>
+      </c>
+      <c r="Z22">
+        <v>19265</v>
+      </c>
+      <c r="AA22">
+        <v>1926</v>
+      </c>
+      <c r="AB22">
+        <v>997</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22">
+        <v>701</v>
+      </c>
+      <c r="AE22">
+        <v>535</v>
+      </c>
+      <c r="AF22">
+        <v>366</v>
+      </c>
+      <c r="AG22">
+        <v>165</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>225</v>
       </c>
       <c r="AK22">
-        <v>9</v>
+        <v>19853</v>
+      </c>
+      <c r="AL22">
+        <v>18300</v>
+      </c>
+      <c r="AM22">
+        <v>1472</v>
+      </c>
+      <c r="AN22">
+        <v>846</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>538</v>
+      </c>
+      <c r="AQ22">
+        <v>412</v>
+      </c>
+      <c r="AR22">
+        <v>351</v>
+      </c>
+      <c r="AS22">
+        <v>64</v>
+      </c>
+      <c r="AT22">
+        <v>61</v>
+      </c>
+      <c r="AU22">
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:47" x14ac:dyDescent="0.25">
@@ -30545,13 +32099,103 @@
         <v>10</v>
       </c>
       <c r="M23">
-        <v>10</v>
+        <v>19054</v>
+      </c>
+      <c r="N23">
+        <v>18378</v>
+      </c>
+      <c r="O23">
+        <v>5603</v>
+      </c>
+      <c r="P23">
+        <v>803</v>
+      </c>
+      <c r="Q23">
+        <v>6</v>
+      </c>
+      <c r="R23">
+        <v>2500</v>
+      </c>
+      <c r="S23">
+        <v>2500</v>
+      </c>
+      <c r="T23">
+        <v>311</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>2291</v>
       </c>
       <c r="Y23">
-        <v>10</v>
+        <v>22393</v>
+      </c>
+      <c r="Z23">
+        <v>18024</v>
+      </c>
+      <c r="AA23">
+        <v>1618</v>
+      </c>
+      <c r="AB23">
+        <v>840</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>604</v>
+      </c>
+      <c r="AE23">
+        <v>477</v>
+      </c>
+      <c r="AF23">
+        <v>349</v>
+      </c>
+      <c r="AG23">
+        <v>126</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>172</v>
       </c>
       <c r="AK23">
-        <v>10</v>
+        <v>19297</v>
+      </c>
+      <c r="AL23">
+        <v>18170</v>
+      </c>
+      <c r="AM23">
+        <v>1603</v>
+      </c>
+      <c r="AN23">
+        <v>964</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>551</v>
+      </c>
+      <c r="AQ23">
+        <v>424</v>
+      </c>
+      <c r="AR23">
+        <v>362</v>
+      </c>
+      <c r="AS23">
+        <v>66</v>
+      </c>
+      <c r="AT23">
+        <v>60</v>
+      </c>
+      <c r="AU23">
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:47" x14ac:dyDescent="0.25">
@@ -30603,103 +32247,103 @@
         <v>11</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>22887</v>
       </c>
       <c r="N26">
-        <v>2</v>
+        <v>19240</v>
       </c>
       <c r="O26">
-        <v>3</v>
+        <v>3715</v>
       </c>
       <c r="P26">
-        <v>4</v>
+        <v>417</v>
       </c>
       <c r="Q26">
         <v>5</v>
       </c>
       <c r="R26">
-        <v>6</v>
+        <v>1786</v>
       </c>
       <c r="S26">
-        <v>7</v>
+        <v>1786</v>
       </c>
       <c r="T26">
-        <v>8</v>
+        <v>313</v>
       </c>
       <c r="U26">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>11</v>
+        <v>1504</v>
       </c>
       <c r="Y26">
-        <v>1</v>
+        <v>22422</v>
       </c>
       <c r="Z26">
-        <v>2</v>
+        <v>18031</v>
       </c>
       <c r="AA26">
-        <v>3</v>
+        <v>982</v>
       </c>
       <c r="AB26">
-        <v>4</v>
+        <v>427</v>
       </c>
       <c r="AC26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AD26">
-        <v>6</v>
+        <v>455</v>
       </c>
       <c r="AE26">
-        <v>7</v>
+        <v>382</v>
       </c>
       <c r="AF26">
-        <v>8</v>
+        <v>309</v>
       </c>
       <c r="AG26">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="AH26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AI26">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="AK26">
-        <v>1</v>
+        <v>19943</v>
       </c>
       <c r="AL26">
-        <v>2</v>
+        <v>19487</v>
       </c>
       <c r="AM26">
-        <v>3</v>
+        <v>912</v>
       </c>
       <c r="AN26">
-        <v>4</v>
+        <v>449</v>
       </c>
       <c r="AO26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AP26">
-        <v>6</v>
+        <v>410</v>
       </c>
       <c r="AQ26">
-        <v>7</v>
+        <v>340</v>
       </c>
       <c r="AR26">
-        <v>8</v>
+        <v>304</v>
       </c>
       <c r="AS26">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="AT26">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="AU26">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.25">
@@ -30707,13 +32351,103 @@
         <v>2</v>
       </c>
       <c r="M27">
-        <v>2</v>
+        <v>19130</v>
+      </c>
+      <c r="N27">
+        <v>18146</v>
+      </c>
+      <c r="O27">
+        <v>3319</v>
+      </c>
+      <c r="P27">
+        <v>429</v>
+      </c>
+      <c r="Q27">
+        <v>5</v>
+      </c>
+      <c r="R27">
+        <v>1588</v>
+      </c>
+      <c r="S27">
+        <v>1588</v>
+      </c>
+      <c r="T27">
+        <v>280</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>1294</v>
       </c>
       <c r="Y27">
-        <v>2</v>
+        <v>19451</v>
+      </c>
+      <c r="Z27">
+        <v>19261</v>
+      </c>
+      <c r="AA27">
+        <v>1019</v>
+      </c>
+      <c r="AB27">
+        <v>417</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>483</v>
+      </c>
+      <c r="AE27">
+        <v>400</v>
+      </c>
+      <c r="AF27">
+        <v>316</v>
+      </c>
+      <c r="AG27">
+        <v>83</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>117</v>
       </c>
       <c r="AK27">
-        <v>2</v>
+        <v>20959</v>
+      </c>
+      <c r="AL27">
+        <v>19285</v>
+      </c>
+      <c r="AM27">
+        <v>917</v>
+      </c>
+      <c r="AN27">
+        <v>414</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>445</v>
+      </c>
+      <c r="AQ27">
+        <v>365</v>
+      </c>
+      <c r="AR27">
+        <v>325</v>
+      </c>
+      <c r="AS27">
+        <v>39</v>
+      </c>
+      <c r="AT27">
+        <v>39</v>
+      </c>
+      <c r="AU27">
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.25">
@@ -30721,13 +32455,103 @@
         <v>3</v>
       </c>
       <c r="M28">
-        <v>3</v>
+        <v>21774</v>
+      </c>
+      <c r="N28">
+        <v>18957</v>
+      </c>
+      <c r="O28">
+        <v>3605</v>
+      </c>
+      <c r="P28">
+        <v>458</v>
+      </c>
+      <c r="Q28">
+        <v>5</v>
+      </c>
+      <c r="R28">
+        <v>1704</v>
+      </c>
+      <c r="S28">
+        <v>1704</v>
+      </c>
+      <c r="T28">
+        <v>295</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>1435</v>
       </c>
       <c r="Y28">
-        <v>3</v>
+        <v>19220</v>
+      </c>
+      <c r="Z28">
+        <v>18255</v>
+      </c>
+      <c r="AA28">
+        <v>960</v>
+      </c>
+      <c r="AB28">
+        <v>437</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>426</v>
+      </c>
+      <c r="AE28">
+        <v>354</v>
+      </c>
+      <c r="AF28">
+        <v>282</v>
+      </c>
+      <c r="AG28">
+        <v>71</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>96</v>
       </c>
       <c r="AK28">
-        <v>3</v>
+        <v>23052</v>
+      </c>
+      <c r="AL28">
+        <v>18677</v>
+      </c>
+      <c r="AM28">
+        <v>894</v>
+      </c>
+      <c r="AN28">
+        <v>442</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>401</v>
+      </c>
+      <c r="AQ28">
+        <v>330</v>
+      </c>
+      <c r="AR28">
+        <v>294</v>
+      </c>
+      <c r="AS28">
+        <v>35</v>
+      </c>
+      <c r="AT28">
+        <v>35</v>
+      </c>
+      <c r="AU28">
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.25">
@@ -30735,13 +32559,103 @@
         <v>4</v>
       </c>
       <c r="M29">
-        <v>4</v>
+        <v>21299</v>
+      </c>
+      <c r="N29">
+        <v>17989</v>
+      </c>
+      <c r="O29">
+        <v>3572</v>
+      </c>
+      <c r="P29">
+        <v>459</v>
+      </c>
+      <c r="Q29">
+        <v>5</v>
+      </c>
+      <c r="R29">
+        <v>1728</v>
+      </c>
+      <c r="S29">
+        <v>1728</v>
+      </c>
+      <c r="T29">
+        <v>318</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>1378</v>
       </c>
       <c r="Y29">
-        <v>4</v>
+        <v>20785</v>
+      </c>
+      <c r="Z29">
+        <v>19237</v>
+      </c>
+      <c r="AA29">
+        <v>1046</v>
+      </c>
+      <c r="AB29">
+        <v>429</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>501</v>
+      </c>
+      <c r="AE29">
+        <v>415</v>
+      </c>
+      <c r="AF29">
+        <v>325</v>
+      </c>
+      <c r="AG29">
+        <v>85</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>114</v>
       </c>
       <c r="AK29">
-        <v>4</v>
+        <v>19278</v>
+      </c>
+      <c r="AL29">
+        <v>18132</v>
+      </c>
+      <c r="AM29">
+        <v>899</v>
+      </c>
+      <c r="AN29">
+        <v>409</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>438</v>
+      </c>
+      <c r="AQ29">
+        <v>368</v>
+      </c>
+      <c r="AR29">
+        <v>333</v>
+      </c>
+      <c r="AS29">
+        <v>35</v>
+      </c>
+      <c r="AT29">
+        <v>34</v>
+      </c>
+      <c r="AU29">
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.25">
@@ -30749,13 +32663,103 @@
         <v>5</v>
       </c>
       <c r="M30">
+        <v>19382</v>
+      </c>
+      <c r="N30">
+        <v>18113</v>
+      </c>
+      <c r="O30">
+        <v>3356</v>
+      </c>
+      <c r="P30">
+        <v>439</v>
+      </c>
+      <c r="Q30">
         <v>5</v>
       </c>
+      <c r="R30">
+        <v>1610</v>
+      </c>
+      <c r="S30">
+        <v>1610</v>
+      </c>
+      <c r="T30">
+        <v>284</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>1298</v>
+      </c>
       <c r="Y30">
-        <v>5</v>
+        <v>22117</v>
+      </c>
+      <c r="Z30">
+        <v>17998</v>
+      </c>
+      <c r="AA30">
+        <v>1031</v>
+      </c>
+      <c r="AB30">
+        <v>463</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>465</v>
+      </c>
+      <c r="AE30">
+        <v>384</v>
+      </c>
+      <c r="AF30">
+        <v>309</v>
+      </c>
+      <c r="AG30">
+        <v>80</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>101</v>
       </c>
       <c r="AK30">
-        <v>5</v>
+        <v>19529</v>
+      </c>
+      <c r="AL30">
+        <v>19365</v>
+      </c>
+      <c r="AM30">
+        <v>988</v>
+      </c>
+      <c r="AN30">
+        <v>438</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>491</v>
+      </c>
+      <c r="AQ30">
+        <v>410</v>
+      </c>
+      <c r="AR30">
+        <v>369</v>
+      </c>
+      <c r="AS30">
+        <v>40</v>
+      </c>
+      <c r="AT30">
+        <v>40</v>
+      </c>
+      <c r="AU30">
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:47" x14ac:dyDescent="0.25">
@@ -30763,13 +32767,103 @@
         <v>6</v>
       </c>
       <c r="M31">
-        <v>6</v>
+        <v>19118</v>
+      </c>
+      <c r="N31">
+        <v>18076</v>
+      </c>
+      <c r="O31">
+        <v>3328</v>
+      </c>
+      <c r="P31">
+        <v>440</v>
+      </c>
+      <c r="Q31">
+        <v>5</v>
+      </c>
+      <c r="R31">
+        <v>1606</v>
+      </c>
+      <c r="S31">
+        <v>1606</v>
+      </c>
+      <c r="T31">
+        <v>308</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>1275</v>
       </c>
       <c r="Y31">
-        <v>6</v>
+        <v>19170</v>
+      </c>
+      <c r="Z31">
+        <v>17994</v>
+      </c>
+      <c r="AA31">
+        <v>978</v>
+      </c>
+      <c r="AB31">
+        <v>422</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>458</v>
+      </c>
+      <c r="AE31">
+        <v>386</v>
+      </c>
+      <c r="AF31">
+        <v>315</v>
+      </c>
+      <c r="AG31">
+        <v>71</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>96</v>
       </c>
       <c r="AK31">
-        <v>6</v>
+        <v>23583</v>
+      </c>
+      <c r="AL31">
+        <v>19267</v>
+      </c>
+      <c r="AM31">
+        <v>915</v>
+      </c>
+      <c r="AN31">
+        <v>441</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>413</v>
+      </c>
+      <c r="AQ31">
+        <v>330</v>
+      </c>
+      <c r="AR31">
+        <v>289</v>
+      </c>
+      <c r="AS31">
+        <v>41</v>
+      </c>
+      <c r="AT31">
+        <v>40</v>
+      </c>
+      <c r="AU31">
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.25">
@@ -30777,55 +32871,415 @@
         <v>7</v>
       </c>
       <c r="M32">
-        <v>7</v>
+        <v>19137</v>
+      </c>
+      <c r="N32">
+        <v>18031</v>
+      </c>
+      <c r="O32">
+        <v>3351</v>
+      </c>
+      <c r="P32">
+        <v>458</v>
+      </c>
+      <c r="Q32">
+        <v>5</v>
+      </c>
+      <c r="R32">
+        <v>1600</v>
+      </c>
+      <c r="S32">
+        <v>1599</v>
+      </c>
+      <c r="T32">
+        <v>302</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>1286</v>
       </c>
       <c r="Y32">
-        <v>7</v>
+        <v>19068</v>
+      </c>
+      <c r="Z32">
+        <v>18064</v>
+      </c>
+      <c r="AA32">
+        <v>925</v>
+      </c>
+      <c r="AB32">
+        <v>392</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>436</v>
+      </c>
+      <c r="AE32">
+        <v>364</v>
+      </c>
+      <c r="AF32">
+        <v>292</v>
+      </c>
+      <c r="AG32">
+        <v>71</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>96</v>
       </c>
       <c r="AK32">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+        <v>20115</v>
+      </c>
+      <c r="AL32">
+        <v>18088</v>
+      </c>
+      <c r="AM32">
+        <v>947</v>
+      </c>
+      <c r="AN32">
+        <v>449</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>445</v>
+      </c>
+      <c r="AQ32">
+        <v>374</v>
+      </c>
+      <c r="AR32">
+        <v>338</v>
+      </c>
+      <c r="AS32">
+        <v>35</v>
+      </c>
+      <c r="AT32">
+        <v>35</v>
+      </c>
+      <c r="AU32">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8</v>
       </c>
       <c r="M33">
-        <v>8</v>
+        <v>18990</v>
+      </c>
+      <c r="N33">
+        <v>18044</v>
+      </c>
+      <c r="O33">
+        <v>3352</v>
+      </c>
+      <c r="P33">
+        <v>396</v>
+      </c>
+      <c r="Q33">
+        <v>5</v>
+      </c>
+      <c r="R33">
+        <v>1620</v>
+      </c>
+      <c r="S33">
+        <v>1619</v>
+      </c>
+      <c r="T33">
+        <v>299</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>1329</v>
       </c>
       <c r="Y33">
-        <v>8</v>
+        <v>21744</v>
+      </c>
+      <c r="Z33">
+        <v>18191</v>
+      </c>
+      <c r="AA33">
+        <v>1024</v>
+      </c>
+      <c r="AB33">
+        <v>479</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>446</v>
+      </c>
+      <c r="AE33">
+        <v>368</v>
+      </c>
+      <c r="AF33">
+        <v>294</v>
+      </c>
+      <c r="AG33">
+        <v>78</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>97</v>
       </c>
       <c r="AK33">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+        <v>19191</v>
+      </c>
+      <c r="AL33">
+        <v>18569</v>
+      </c>
+      <c r="AM33">
+        <v>856</v>
+      </c>
+      <c r="AN33">
+        <v>416</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>388</v>
+      </c>
+      <c r="AQ33">
+        <v>320</v>
+      </c>
+      <c r="AR33">
+        <v>285</v>
+      </c>
+      <c r="AS33">
+        <v>34</v>
+      </c>
+      <c r="AT33">
+        <v>34</v>
+      </c>
+      <c r="AU33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
       <c r="M34">
-        <v>9</v>
+        <v>19189</v>
+      </c>
+      <c r="N34">
+        <v>18116</v>
+      </c>
+      <c r="O34">
+        <v>3319</v>
+      </c>
+      <c r="P34">
+        <v>441</v>
+      </c>
+      <c r="Q34">
+        <v>5</v>
+      </c>
+      <c r="R34">
+        <v>1581</v>
+      </c>
+      <c r="S34">
+        <v>1581</v>
+      </c>
+      <c r="T34">
+        <v>282</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>1288</v>
       </c>
       <c r="Y34">
-        <v>9</v>
+        <v>19103</v>
+      </c>
+      <c r="Z34">
+        <v>18246</v>
+      </c>
+      <c r="AA34">
+        <v>997</v>
+      </c>
+      <c r="AB34">
+        <v>433</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>465</v>
+      </c>
+      <c r="AE34">
+        <v>391</v>
+      </c>
+      <c r="AF34">
+        <v>318</v>
+      </c>
+      <c r="AG34">
+        <v>73</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>97</v>
       </c>
       <c r="AK34">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+        <v>22519</v>
+      </c>
+      <c r="AL34">
+        <v>18196</v>
+      </c>
+      <c r="AM34">
+        <v>967</v>
+      </c>
+      <c r="AN34">
+        <v>471</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>442</v>
+      </c>
+      <c r="AQ34">
+        <v>370</v>
+      </c>
+      <c r="AR34">
+        <v>332</v>
+      </c>
+      <c r="AS34">
+        <v>36</v>
+      </c>
+      <c r="AT34">
+        <v>35</v>
+      </c>
+      <c r="AU34">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10</v>
       </c>
       <c r="M35">
-        <v>10</v>
+        <v>19339</v>
+      </c>
+      <c r="N35">
+        <v>18049</v>
+      </c>
+      <c r="O35">
+        <v>3511</v>
+      </c>
+      <c r="P35">
+        <v>436</v>
+      </c>
+      <c r="Q35">
+        <v>5</v>
+      </c>
+      <c r="R35">
+        <v>1672</v>
+      </c>
+      <c r="S35">
+        <v>1672</v>
+      </c>
+      <c r="T35">
+        <v>271</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>1395</v>
       </c>
       <c r="Y35">
-        <v>10</v>
+        <v>19332</v>
+      </c>
+      <c r="Z35">
+        <v>18217</v>
+      </c>
+      <c r="AA35">
+        <v>976</v>
+      </c>
+      <c r="AB35">
+        <v>423</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>455</v>
+      </c>
+      <c r="AE35">
+        <v>383</v>
+      </c>
+      <c r="AF35">
+        <v>312</v>
+      </c>
+      <c r="AG35">
+        <v>71</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>96</v>
       </c>
       <c r="AK35">
-        <v>10</v>
+        <v>19523</v>
+      </c>
+      <c r="AL35">
+        <v>18273</v>
+      </c>
+      <c r="AM35">
+        <v>881</v>
+      </c>
+      <c r="AN35">
+        <v>449</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>380</v>
+      </c>
+      <c r="AQ35">
+        <v>311</v>
+      </c>
+      <c r="AR35">
+        <v>276</v>
+      </c>
+      <c r="AS35">
+        <v>34</v>
+      </c>
+      <c r="AT35">
+        <v>34</v>
+      </c>
+      <c r="AU35">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -30834,11 +33288,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78358612-09AD-4222-9D68-6217F5643872}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AX6" sqref="AX6"/>
+      <selection activeCell="AJ14" sqref="AJ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30846,15 +33300,32 @@
     <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="2" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="21" width="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="33" width="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="3" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="45" width="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="6" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="7" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="6" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="7" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="3" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="7" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="6" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="5" bestFit="1" customWidth="1"/>
+    <col min="45" max="47" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" x14ac:dyDescent="0.25">
@@ -30906,103 +33377,103 @@
         <v>11</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>50707</v>
       </c>
       <c r="N2">
-        <v>2</v>
+        <v>46561</v>
       </c>
       <c r="O2">
-        <v>3</v>
+        <v>302883</v>
       </c>
       <c r="P2">
-        <v>4</v>
+        <v>3897</v>
       </c>
       <c r="Q2">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="R2">
-        <v>6</v>
+        <v>153992</v>
       </c>
       <c r="S2">
-        <v>7</v>
+        <v>153989</v>
       </c>
       <c r="T2">
-        <v>8</v>
+        <v>1345</v>
       </c>
       <c r="U2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>11</v>
+        <v>144831</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>52181</v>
       </c>
       <c r="Z2">
-        <v>2</v>
+        <v>49264</v>
       </c>
       <c r="AA2">
-        <v>3</v>
+        <v>144062</v>
       </c>
       <c r="AB2">
-        <v>4</v>
+        <v>4001</v>
       </c>
       <c r="AC2">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="AD2">
-        <v>6</v>
+        <v>92174</v>
       </c>
       <c r="AE2">
-        <v>7</v>
+        <v>45567</v>
       </c>
       <c r="AF2">
-        <v>8</v>
+        <v>1394</v>
       </c>
       <c r="AG2">
-        <v>9</v>
+        <v>46605</v>
       </c>
       <c r="AH2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>11</v>
+        <v>47837</v>
       </c>
       <c r="AK2">
-        <v>1</v>
+        <v>54565</v>
       </c>
       <c r="AL2">
-        <v>2</v>
+        <v>47250</v>
       </c>
       <c r="AM2">
-        <v>3</v>
+        <v>137513</v>
       </c>
       <c r="AN2">
-        <v>4</v>
+        <v>4006</v>
       </c>
       <c r="AO2">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="AP2">
-        <v>6</v>
+        <v>98729</v>
       </c>
       <c r="AQ2">
-        <v>7</v>
+        <v>32735</v>
       </c>
       <c r="AR2">
-        <v>8</v>
+        <v>1373</v>
       </c>
       <c r="AS2">
-        <v>9</v>
+        <v>32654</v>
       </c>
       <c r="AT2">
-        <v>10</v>
+        <v>33337</v>
       </c>
       <c r="AU2">
-        <v>11</v>
+        <v>34730</v>
       </c>
     </row>
     <row r="3" spans="1:47" x14ac:dyDescent="0.25">
@@ -31010,13 +33481,103 @@
         <v>2</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>54967</v>
+      </c>
+      <c r="N3">
+        <v>48241</v>
+      </c>
+      <c r="O3">
+        <v>345882</v>
+      </c>
+      <c r="P3">
+        <v>4239</v>
+      </c>
+      <c r="Q3">
+        <v>172</v>
+      </c>
+      <c r="R3">
+        <v>177550</v>
+      </c>
+      <c r="S3">
+        <v>177546</v>
+      </c>
+      <c r="T3">
+        <v>1444</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>163909</v>
       </c>
       <c r="Y3">
-        <v>2</v>
+        <v>48707</v>
+      </c>
+      <c r="Z3">
+        <v>46257</v>
+      </c>
+      <c r="AA3">
+        <v>150291</v>
+      </c>
+      <c r="AB3">
+        <v>3905</v>
+      </c>
+      <c r="AC3">
+        <v>47</v>
+      </c>
+      <c r="AD3">
+        <v>96375</v>
+      </c>
+      <c r="AE3">
+        <v>47635</v>
+      </c>
+      <c r="AF3">
+        <v>1394</v>
+      </c>
+      <c r="AG3">
+        <v>48738</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>49960</v>
       </c>
       <c r="AK3">
-        <v>2</v>
+        <v>54628</v>
+      </c>
+      <c r="AL3">
+        <v>46738</v>
+      </c>
+      <c r="AM3">
+        <v>143737</v>
+      </c>
+      <c r="AN3">
+        <v>3998</v>
+      </c>
+      <c r="AO3">
+        <v>28</v>
+      </c>
+      <c r="AP3">
+        <v>103341</v>
+      </c>
+      <c r="AQ3">
+        <v>34238</v>
+      </c>
+      <c r="AR3">
+        <v>1367</v>
+      </c>
+      <c r="AS3">
+        <v>34200</v>
+      </c>
+      <c r="AT3">
+        <v>34900</v>
+      </c>
+      <c r="AU3">
+        <v>36347</v>
       </c>
     </row>
     <row r="4" spans="1:47" x14ac:dyDescent="0.25">
@@ -31024,13 +33585,103 @@
         <v>3</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>50111</v>
+      </c>
+      <c r="N4">
+        <v>47249</v>
+      </c>
+      <c r="O4">
+        <v>334476</v>
+      </c>
+      <c r="P4">
+        <v>4027</v>
+      </c>
+      <c r="Q4">
+        <v>164</v>
+      </c>
+      <c r="R4">
+        <v>168940</v>
+      </c>
+      <c r="S4">
+        <v>168937</v>
+      </c>
+      <c r="T4">
+        <v>1420</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>161330</v>
       </c>
       <c r="Y4">
-        <v>3</v>
+        <v>50284</v>
+      </c>
+      <c r="Z4">
+        <v>47221</v>
+      </c>
+      <c r="AA4">
+        <v>161753</v>
+      </c>
+      <c r="AB4">
+        <v>4082</v>
+      </c>
+      <c r="AC4">
+        <v>50</v>
+      </c>
+      <c r="AD4">
+        <v>102975</v>
+      </c>
+      <c r="AE4">
+        <v>50871</v>
+      </c>
+      <c r="AF4">
+        <v>1428</v>
+      </c>
+      <c r="AG4">
+        <v>52101</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>54641</v>
       </c>
       <c r="AK4">
-        <v>3</v>
+        <v>49070</v>
+      </c>
+      <c r="AL4">
+        <v>47404</v>
+      </c>
+      <c r="AM4">
+        <v>144932</v>
+      </c>
+      <c r="AN4">
+        <v>3947</v>
+      </c>
+      <c r="AO4">
+        <v>30</v>
+      </c>
+      <c r="AP4">
+        <v>104295</v>
+      </c>
+      <c r="AQ4">
+        <v>34568</v>
+      </c>
+      <c r="AR4">
+        <v>1368</v>
+      </c>
+      <c r="AS4">
+        <v>34506</v>
+      </c>
+      <c r="AT4">
+        <v>35218</v>
+      </c>
+      <c r="AU4">
+        <v>36636</v>
       </c>
     </row>
     <row r="5" spans="1:47" x14ac:dyDescent="0.25">
@@ -31038,13 +33689,103 @@
         <v>4</v>
       </c>
       <c r="M5">
-        <v>4</v>
+        <v>52547</v>
+      </c>
+      <c r="N5">
+        <v>47483</v>
+      </c>
+      <c r="O5">
+        <v>318138</v>
+      </c>
+      <c r="P5">
+        <v>4172</v>
+      </c>
+      <c r="Q5">
+        <v>160</v>
+      </c>
+      <c r="R5">
+        <v>162104</v>
+      </c>
+      <c r="S5">
+        <v>162101</v>
+      </c>
+      <c r="T5">
+        <v>1405</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>151689</v>
       </c>
       <c r="Y5">
-        <v>4</v>
+        <v>48891</v>
+      </c>
+      <c r="Z5">
+        <v>46170</v>
+      </c>
+      <c r="AA5">
+        <v>143311</v>
+      </c>
+      <c r="AB5">
+        <v>3857</v>
+      </c>
+      <c r="AC5">
+        <v>45</v>
+      </c>
+      <c r="AD5">
+        <v>91511</v>
+      </c>
+      <c r="AE5">
+        <v>45278</v>
+      </c>
+      <c r="AF5">
+        <v>1390</v>
+      </c>
+      <c r="AG5">
+        <v>46231</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>47894</v>
       </c>
       <c r="AK5">
-        <v>4</v>
+        <v>54936</v>
+      </c>
+      <c r="AL5">
+        <v>49462</v>
+      </c>
+      <c r="AM5">
+        <v>140794</v>
+      </c>
+      <c r="AN5">
+        <v>3886</v>
+      </c>
+      <c r="AO5">
+        <v>27</v>
+      </c>
+      <c r="AP5">
+        <v>101260</v>
+      </c>
+      <c r="AQ5">
+        <v>33615</v>
+      </c>
+      <c r="AR5">
+        <v>1416</v>
+      </c>
+      <c r="AS5">
+        <v>33484</v>
+      </c>
+      <c r="AT5">
+        <v>34159</v>
+      </c>
+      <c r="AU5">
+        <v>35599</v>
       </c>
     </row>
     <row r="6" spans="1:47" x14ac:dyDescent="0.25">
@@ -31052,13 +33793,103 @@
         <v>5</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>54964</v>
+      </c>
+      <c r="N6">
+        <v>46253</v>
+      </c>
+      <c r="O6">
+        <v>309257</v>
+      </c>
+      <c r="P6">
+        <v>3939</v>
+      </c>
+      <c r="Q6">
+        <v>153</v>
+      </c>
+      <c r="R6">
+        <v>156820</v>
+      </c>
+      <c r="S6">
+        <v>156817</v>
+      </c>
+      <c r="T6">
+        <v>1359</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>148333</v>
       </c>
       <c r="Y6">
-        <v>5</v>
+        <v>49943</v>
+      </c>
+      <c r="Z6">
+        <v>46412</v>
+      </c>
+      <c r="AA6">
+        <v>144467</v>
+      </c>
+      <c r="AB6">
+        <v>3969</v>
+      </c>
+      <c r="AC6">
+        <v>45</v>
+      </c>
+      <c r="AD6">
+        <v>92477</v>
+      </c>
+      <c r="AE6">
+        <v>45732</v>
+      </c>
+      <c r="AF6">
+        <v>1403</v>
+      </c>
+      <c r="AG6">
+        <v>46743</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>47971</v>
       </c>
       <c r="AK6">
-        <v>5</v>
+        <v>49019</v>
+      </c>
+      <c r="AL6">
+        <v>46831</v>
+      </c>
+      <c r="AM6">
+        <v>155421</v>
+      </c>
+      <c r="AN6">
+        <v>3895</v>
+      </c>
+      <c r="AO6">
+        <v>31</v>
+      </c>
+      <c r="AP6">
+        <v>112357</v>
+      </c>
+      <c r="AQ6">
+        <v>37193</v>
+      </c>
+      <c r="AR6">
+        <v>1396</v>
+      </c>
+      <c r="AS6">
+        <v>37211</v>
+      </c>
+      <c r="AT6">
+        <v>37950</v>
+      </c>
+      <c r="AU6">
+        <v>39112</v>
       </c>
     </row>
     <row r="7" spans="1:47" x14ac:dyDescent="0.25">
@@ -31066,13 +33897,103 @@
         <v>6</v>
       </c>
       <c r="M7">
-        <v>6</v>
+        <v>50191</v>
+      </c>
+      <c r="N7">
+        <v>46649</v>
+      </c>
+      <c r="O7">
+        <v>307581</v>
+      </c>
+      <c r="P7">
+        <v>4554</v>
+      </c>
+      <c r="Q7">
+        <v>156</v>
+      </c>
+      <c r="R7">
+        <v>156672</v>
+      </c>
+      <c r="S7">
+        <v>156670</v>
+      </c>
+      <c r="T7">
+        <v>1420</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>146186</v>
       </c>
       <c r="Y7">
-        <v>6</v>
+        <v>48640</v>
+      </c>
+      <c r="Z7">
+        <v>46315</v>
+      </c>
+      <c r="AA7">
+        <v>140385</v>
+      </c>
+      <c r="AB7">
+        <v>3927</v>
+      </c>
+      <c r="AC7">
+        <v>43</v>
+      </c>
+      <c r="AD7">
+        <v>89682</v>
+      </c>
+      <c r="AE7">
+        <v>44405</v>
+      </c>
+      <c r="AF7">
+        <v>1477</v>
+      </c>
+      <c r="AG7">
+        <v>45275</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>46729</v>
       </c>
       <c r="AK7">
-        <v>6</v>
+        <v>55889</v>
+      </c>
+      <c r="AL7">
+        <v>46139</v>
+      </c>
+      <c r="AM7">
+        <v>137359</v>
+      </c>
+      <c r="AN7">
+        <v>3919</v>
+      </c>
+      <c r="AO7">
+        <v>27</v>
+      </c>
+      <c r="AP7">
+        <v>98617</v>
+      </c>
+      <c r="AQ7">
+        <v>32734</v>
+      </c>
+      <c r="AR7">
+        <v>1377</v>
+      </c>
+      <c r="AS7">
+        <v>32601</v>
+      </c>
+      <c r="AT7">
+        <v>33279</v>
+      </c>
+      <c r="AU7">
+        <v>34775</v>
       </c>
     </row>
     <row r="8" spans="1:47" x14ac:dyDescent="0.25">
@@ -31080,13 +34001,103 @@
         <v>7</v>
       </c>
       <c r="M8">
-        <v>7</v>
+        <v>57531</v>
+      </c>
+      <c r="N8">
+        <v>49673</v>
+      </c>
+      <c r="O8">
+        <v>316595</v>
+      </c>
+      <c r="P8">
+        <v>4451</v>
+      </c>
+      <c r="Q8">
+        <v>155</v>
+      </c>
+      <c r="R8">
+        <v>159835</v>
+      </c>
+      <c r="S8">
+        <v>159832</v>
+      </c>
+      <c r="T8">
+        <v>1471</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>152142</v>
       </c>
       <c r="Y8">
-        <v>7</v>
+        <v>51907</v>
+      </c>
+      <c r="Z8">
+        <v>47055</v>
+      </c>
+      <c r="AA8">
+        <v>146662</v>
+      </c>
+      <c r="AB8">
+        <v>4375</v>
+      </c>
+      <c r="AC8">
+        <v>45</v>
+      </c>
+      <c r="AD8">
+        <v>93689</v>
+      </c>
+      <c r="AE8">
+        <v>46347</v>
+      </c>
+      <c r="AF8">
+        <v>1451</v>
+      </c>
+      <c r="AG8">
+        <v>47340</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>48548</v>
       </c>
       <c r="AK8">
-        <v>7</v>
+        <v>48941</v>
+      </c>
+      <c r="AL8">
+        <v>46476</v>
+      </c>
+      <c r="AM8">
+        <v>137480</v>
+      </c>
+      <c r="AN8">
+        <v>3900</v>
+      </c>
+      <c r="AO8">
+        <v>28</v>
+      </c>
+      <c r="AP8">
+        <v>98786</v>
+      </c>
+      <c r="AQ8">
+        <v>32785</v>
+      </c>
+      <c r="AR8">
+        <v>1396</v>
+      </c>
+      <c r="AS8">
+        <v>32668</v>
+      </c>
+      <c r="AT8">
+        <v>33331</v>
+      </c>
+      <c r="AU8">
+        <v>34744</v>
       </c>
     </row>
     <row r="9" spans="1:47" x14ac:dyDescent="0.25">
@@ -31094,13 +34105,103 @@
         <v>8</v>
       </c>
       <c r="M9">
-        <v>8</v>
+        <v>51221</v>
+      </c>
+      <c r="N9">
+        <v>46682</v>
+      </c>
+      <c r="O9">
+        <v>312852</v>
+      </c>
+      <c r="P9">
+        <v>4057</v>
+      </c>
+      <c r="Q9">
+        <v>152</v>
+      </c>
+      <c r="R9">
+        <v>157996</v>
+      </c>
+      <c r="S9">
+        <v>157993</v>
+      </c>
+      <c r="T9">
+        <v>1398</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>150635</v>
       </c>
       <c r="Y9">
-        <v>8</v>
+        <v>49177</v>
+      </c>
+      <c r="Z9">
+        <v>47092</v>
+      </c>
+      <c r="AA9">
+        <v>146880</v>
+      </c>
+      <c r="AB9">
+        <v>3888</v>
+      </c>
+      <c r="AC9">
+        <v>48</v>
+      </c>
+      <c r="AD9">
+        <v>94204</v>
+      </c>
+      <c r="AE9">
+        <v>46556</v>
+      </c>
+      <c r="AF9">
+        <v>1383</v>
+      </c>
+      <c r="AG9">
+        <v>47646</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>48735</v>
       </c>
       <c r="AK9">
-        <v>8</v>
+        <v>55067</v>
+      </c>
+      <c r="AL9">
+        <v>49687</v>
+      </c>
+      <c r="AM9">
+        <v>147642</v>
+      </c>
+      <c r="AN9">
+        <v>4207</v>
+      </c>
+      <c r="AO9">
+        <v>28</v>
+      </c>
+      <c r="AP9">
+        <v>106223</v>
+      </c>
+      <c r="AQ9">
+        <v>35242</v>
+      </c>
+      <c r="AR9">
+        <v>1455</v>
+      </c>
+      <c r="AS9">
+        <v>35147</v>
+      </c>
+      <c r="AT9">
+        <v>35832</v>
+      </c>
+      <c r="AU9">
+        <v>37160</v>
       </c>
     </row>
     <row r="10" spans="1:47" x14ac:dyDescent="0.25">
@@ -31108,13 +34209,103 @@
         <v>9</v>
       </c>
       <c r="M10">
-        <v>9</v>
+        <v>48872</v>
+      </c>
+      <c r="N10">
+        <v>46354</v>
+      </c>
+      <c r="O10">
+        <v>322487</v>
+      </c>
+      <c r="P10">
+        <v>3898</v>
+      </c>
+      <c r="Q10">
+        <v>162</v>
+      </c>
+      <c r="R10">
+        <v>164643</v>
+      </c>
+      <c r="S10">
+        <v>164640</v>
+      </c>
+      <c r="T10">
+        <v>1393</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>153771</v>
       </c>
       <c r="Y10">
-        <v>9</v>
+        <v>51593</v>
+      </c>
+      <c r="Z10">
+        <v>46629</v>
+      </c>
+      <c r="AA10">
+        <v>150462</v>
+      </c>
+      <c r="AB10">
+        <v>4377</v>
+      </c>
+      <c r="AC10">
+        <v>47</v>
+      </c>
+      <c r="AD10">
+        <v>96078</v>
+      </c>
+      <c r="AE10">
+        <v>47510</v>
+      </c>
+      <c r="AF10">
+        <v>1413</v>
+      </c>
+      <c r="AG10">
+        <v>48566</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>49956</v>
       </c>
       <c r="AK10">
-        <v>9</v>
+        <v>54358</v>
+      </c>
+      <c r="AL10">
+        <v>46568</v>
+      </c>
+      <c r="AM10">
+        <v>140761</v>
+      </c>
+      <c r="AN10">
+        <v>3978</v>
+      </c>
+      <c r="AO10">
+        <v>28</v>
+      </c>
+      <c r="AP10">
+        <v>101224</v>
+      </c>
+      <c r="AQ10">
+        <v>33511</v>
+      </c>
+      <c r="AR10">
+        <v>1366</v>
+      </c>
+      <c r="AS10">
+        <v>33521</v>
+      </c>
+      <c r="AT10">
+        <v>34189</v>
+      </c>
+      <c r="AU10">
+        <v>35509</v>
       </c>
     </row>
     <row r="11" spans="1:47" x14ac:dyDescent="0.25">
@@ -31122,13 +34313,103 @@
         <v>10</v>
       </c>
       <c r="M11">
-        <v>10</v>
+        <v>52150</v>
+      </c>
+      <c r="N11">
+        <v>46849</v>
+      </c>
+      <c r="O11">
+        <v>328654</v>
+      </c>
+      <c r="P11">
+        <v>3948</v>
+      </c>
+      <c r="Q11">
+        <v>160</v>
+      </c>
+      <c r="R11">
+        <v>167720</v>
+      </c>
+      <c r="S11">
+        <v>167717</v>
+      </c>
+      <c r="T11">
+        <v>1358</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>156813</v>
       </c>
       <c r="Y11">
-        <v>10</v>
+        <v>49477</v>
+      </c>
+      <c r="Z11">
+        <v>46523</v>
+      </c>
+      <c r="AA11">
+        <v>148469</v>
+      </c>
+      <c r="AB11">
+        <v>4111</v>
+      </c>
+      <c r="AC11">
+        <v>46</v>
+      </c>
+      <c r="AD11">
+        <v>95123</v>
+      </c>
+      <c r="AE11">
+        <v>47000</v>
+      </c>
+      <c r="AF11">
+        <v>1400</v>
+      </c>
+      <c r="AG11">
+        <v>48121</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>49185</v>
       </c>
       <c r="AK11">
-        <v>10</v>
+        <v>48713</v>
+      </c>
+      <c r="AL11">
+        <v>47947</v>
+      </c>
+      <c r="AM11">
+        <v>170119</v>
+      </c>
+      <c r="AN11">
+        <v>3912</v>
+      </c>
+      <c r="AO11">
+        <v>32</v>
+      </c>
+      <c r="AP11">
+        <v>122806</v>
+      </c>
+      <c r="AQ11">
+        <v>40605</v>
+      </c>
+      <c r="AR11">
+        <v>1401</v>
+      </c>
+      <c r="AS11">
+        <v>40722</v>
+      </c>
+      <c r="AT11">
+        <v>41477</v>
+      </c>
+      <c r="AU11">
+        <v>43342</v>
       </c>
     </row>
     <row r="13" spans="1:47" x14ac:dyDescent="0.25">
@@ -31180,103 +34461,103 @@
         <v>11</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>53933</v>
       </c>
       <c r="N14">
-        <v>2</v>
+        <v>47327</v>
       </c>
       <c r="O14">
-        <v>3</v>
+        <v>177295</v>
       </c>
       <c r="P14">
-        <v>4</v>
+        <v>2626</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>136</v>
       </c>
       <c r="R14">
-        <v>6</v>
+        <v>95133</v>
       </c>
       <c r="S14">
-        <v>7</v>
+        <v>95130</v>
       </c>
       <c r="T14">
-        <v>8</v>
+        <v>1021</v>
       </c>
       <c r="U14">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>11</v>
+        <v>79386</v>
       </c>
       <c r="Y14">
-        <v>1</v>
+        <v>52015</v>
       </c>
       <c r="Z14">
-        <v>2</v>
+        <v>46923</v>
       </c>
       <c r="AA14">
-        <v>3</v>
+        <v>80353</v>
       </c>
       <c r="AB14">
-        <v>4</v>
+        <v>2384</v>
       </c>
       <c r="AC14">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="AD14">
-        <v>6</v>
+        <v>52008</v>
       </c>
       <c r="AE14">
-        <v>7</v>
+        <v>25386</v>
       </c>
       <c r="AF14">
-        <v>8</v>
+        <v>1001</v>
       </c>
       <c r="AG14">
-        <v>9</v>
+        <v>26620</v>
       </c>
       <c r="AH14">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AI14">
-        <v>11</v>
+        <v>25887</v>
       </c>
       <c r="AK14">
-        <v>1</v>
+        <v>49332</v>
       </c>
       <c r="AL14">
-        <v>2</v>
+        <v>46378</v>
       </c>
       <c r="AM14">
-        <v>3</v>
+        <v>75143</v>
       </c>
       <c r="AN14">
-        <v>4</v>
+        <v>2358</v>
       </c>
       <c r="AO14">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="AP14">
-        <v>6</v>
+        <v>54859</v>
       </c>
       <c r="AQ14">
-        <v>7</v>
+        <v>17941</v>
       </c>
       <c r="AR14">
-        <v>8</v>
+        <v>993</v>
       </c>
       <c r="AS14">
-        <v>9</v>
+        <v>18163</v>
       </c>
       <c r="AT14">
-        <v>10</v>
+        <v>18752</v>
       </c>
       <c r="AU14">
-        <v>11</v>
+        <v>17862</v>
       </c>
     </row>
     <row r="15" spans="1:47" x14ac:dyDescent="0.25">
@@ -31284,13 +34565,103 @@
         <v>2</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>51601</v>
+      </c>
+      <c r="N15">
+        <v>47458</v>
+      </c>
+      <c r="O15">
+        <v>179327</v>
+      </c>
+      <c r="P15">
+        <v>2410</v>
+      </c>
+      <c r="Q15">
+        <v>135</v>
+      </c>
+      <c r="R15">
+        <v>96170</v>
+      </c>
+      <c r="S15">
+        <v>96167</v>
+      </c>
+      <c r="T15">
+        <v>942</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>80597</v>
       </c>
       <c r="Y15">
-        <v>2</v>
+        <v>55590</v>
+      </c>
+      <c r="Z15">
+        <v>49704</v>
+      </c>
+      <c r="AA15">
+        <v>92317</v>
+      </c>
+      <c r="AB15">
+        <v>2486</v>
+      </c>
+      <c r="AC15">
+        <v>70</v>
+      </c>
+      <c r="AD15">
+        <v>60249</v>
+      </c>
+      <c r="AE15">
+        <v>29286</v>
+      </c>
+      <c r="AF15">
+        <v>939</v>
+      </c>
+      <c r="AG15">
+        <v>30961</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>29506</v>
       </c>
       <c r="AK15">
-        <v>2</v>
+        <v>51145</v>
+      </c>
+      <c r="AL15">
+        <v>46497</v>
+      </c>
+      <c r="AM15">
+        <v>75472</v>
+      </c>
+      <c r="AN15">
+        <v>2430</v>
+      </c>
+      <c r="AO15">
+        <v>41</v>
+      </c>
+      <c r="AP15">
+        <v>55026</v>
+      </c>
+      <c r="AQ15">
+        <v>17912</v>
+      </c>
+      <c r="AR15">
+        <v>898</v>
+      </c>
+      <c r="AS15">
+        <v>18262</v>
+      </c>
+      <c r="AT15">
+        <v>18849</v>
+      </c>
+      <c r="AU15">
+        <v>17949</v>
       </c>
     </row>
     <row r="16" spans="1:47" x14ac:dyDescent="0.25">
@@ -31298,13 +34669,103 @@
         <v>3</v>
       </c>
       <c r="M16">
-        <v>3</v>
+        <v>51645</v>
+      </c>
+      <c r="N16">
+        <v>47473</v>
+      </c>
+      <c r="O16">
+        <v>178931</v>
+      </c>
+      <c r="P16">
+        <v>2381</v>
+      </c>
+      <c r="Q16">
+        <v>135</v>
+      </c>
+      <c r="R16">
+        <v>95113</v>
+      </c>
+      <c r="S16">
+        <v>95110</v>
+      </c>
+      <c r="T16">
+        <v>944</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>81287</v>
       </c>
       <c r="Y16">
-        <v>3</v>
+        <v>51404</v>
+      </c>
+      <c r="Z16">
+        <v>46627</v>
+      </c>
+      <c r="AA16">
+        <v>83356</v>
+      </c>
+      <c r="AB16">
+        <v>2407</v>
+      </c>
+      <c r="AC16">
+        <v>68</v>
+      </c>
+      <c r="AD16">
+        <v>54776</v>
+      </c>
+      <c r="AE16">
+        <v>26687</v>
+      </c>
+      <c r="AF16">
+        <v>996</v>
+      </c>
+      <c r="AG16">
+        <v>28088</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>26100</v>
       </c>
       <c r="AK16">
-        <v>3</v>
+        <v>49145</v>
+      </c>
+      <c r="AL16">
+        <v>46833</v>
+      </c>
+      <c r="AM16">
+        <v>74845</v>
+      </c>
+      <c r="AN16">
+        <v>2524</v>
+      </c>
+      <c r="AO16">
+        <v>41</v>
+      </c>
+      <c r="AP16">
+        <v>54492</v>
+      </c>
+      <c r="AQ16">
+        <v>17834</v>
+      </c>
+      <c r="AR16">
+        <v>1013</v>
+      </c>
+      <c r="AS16">
+        <v>18035</v>
+      </c>
+      <c r="AT16">
+        <v>18620</v>
+      </c>
+      <c r="AU16">
+        <v>17760</v>
       </c>
     </row>
     <row r="17" spans="1:47" x14ac:dyDescent="0.25">
@@ -31312,13 +34773,103 @@
         <v>4</v>
       </c>
       <c r="M17">
-        <v>4</v>
+        <v>52604</v>
+      </c>
+      <c r="N17">
+        <v>49747</v>
+      </c>
+      <c r="O17">
+        <v>183565</v>
+      </c>
+      <c r="P17">
+        <v>2656</v>
+      </c>
+      <c r="Q17">
+        <v>137</v>
+      </c>
+      <c r="R17">
+        <v>98336</v>
+      </c>
+      <c r="S17">
+        <v>98333</v>
+      </c>
+      <c r="T17">
+        <v>971</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>82420</v>
       </c>
       <c r="Y17">
-        <v>4</v>
+        <v>49359</v>
+      </c>
+      <c r="Z17">
+        <v>46598</v>
+      </c>
+      <c r="AA17">
+        <v>80608</v>
+      </c>
+      <c r="AB17">
+        <v>2414</v>
+      </c>
+      <c r="AC17">
+        <v>65</v>
+      </c>
+      <c r="AD17">
+        <v>52350</v>
+      </c>
+      <c r="AE17">
+        <v>25517</v>
+      </c>
+      <c r="AF17">
+        <v>1031</v>
+      </c>
+      <c r="AG17">
+        <v>26832</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>25773</v>
       </c>
       <c r="AK17">
-        <v>4</v>
+        <v>49159</v>
+      </c>
+      <c r="AL17">
+        <v>46456</v>
+      </c>
+      <c r="AM17">
+        <v>74538</v>
+      </c>
+      <c r="AN17">
+        <v>2270</v>
+      </c>
+      <c r="AO17">
+        <v>40</v>
+      </c>
+      <c r="AP17">
+        <v>54441</v>
+      </c>
+      <c r="AQ17">
+        <v>17803</v>
+      </c>
+      <c r="AR17">
+        <v>980</v>
+      </c>
+      <c r="AS17">
+        <v>18028</v>
+      </c>
+      <c r="AT17">
+        <v>18607</v>
+      </c>
+      <c r="AU17">
+        <v>17761</v>
       </c>
     </row>
     <row r="18" spans="1:47" x14ac:dyDescent="0.25">
@@ -31326,13 +34877,103 @@
         <v>5</v>
       </c>
       <c r="M18">
-        <v>5</v>
+        <v>51247</v>
+      </c>
+      <c r="N18">
+        <v>47514</v>
+      </c>
+      <c r="O18">
+        <v>188393</v>
+      </c>
+      <c r="P18">
+        <v>2299</v>
+      </c>
+      <c r="Q18">
+        <v>139</v>
+      </c>
+      <c r="R18">
+        <v>100581</v>
+      </c>
+      <c r="S18">
+        <v>100578</v>
+      </c>
+      <c r="T18">
+        <v>994</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>85359</v>
       </c>
       <c r="Y18">
-        <v>5</v>
+        <v>48521</v>
+      </c>
+      <c r="Z18">
+        <v>46408</v>
+      </c>
+      <c r="AA18">
+        <v>76682</v>
+      </c>
+      <c r="AB18">
+        <v>2381</v>
+      </c>
+      <c r="AC18">
+        <v>65</v>
+      </c>
+      <c r="AD18">
+        <v>50212</v>
+      </c>
+      <c r="AE18">
+        <v>24493</v>
+      </c>
+      <c r="AF18">
+        <v>977</v>
+      </c>
+      <c r="AG18">
+        <v>25717</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>24019</v>
       </c>
       <c r="AK18">
-        <v>5</v>
+        <v>49075</v>
+      </c>
+      <c r="AL18">
+        <v>46450</v>
+      </c>
+      <c r="AM18">
+        <v>75349</v>
+      </c>
+      <c r="AN18">
+        <v>2341</v>
+      </c>
+      <c r="AO18">
+        <v>41</v>
+      </c>
+      <c r="AP18">
+        <v>54946</v>
+      </c>
+      <c r="AQ18">
+        <v>17966</v>
+      </c>
+      <c r="AR18">
+        <v>981</v>
+      </c>
+      <c r="AS18">
+        <v>18203</v>
+      </c>
+      <c r="AT18">
+        <v>18775</v>
+      </c>
+      <c r="AU18">
+        <v>17994</v>
       </c>
     </row>
     <row r="19" spans="1:47" x14ac:dyDescent="0.25">
@@ -31340,13 +34981,103 @@
         <v>6</v>
       </c>
       <c r="M19">
-        <v>6</v>
+        <v>51365</v>
+      </c>
+      <c r="N19">
+        <v>47047</v>
+      </c>
+      <c r="O19">
+        <v>192469</v>
+      </c>
+      <c r="P19">
+        <v>2633</v>
+      </c>
+      <c r="Q19">
+        <v>145</v>
+      </c>
+      <c r="R19">
+        <v>102893</v>
+      </c>
+      <c r="S19">
+        <v>102890</v>
+      </c>
+      <c r="T19">
+        <v>996</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>86783</v>
       </c>
       <c r="Y19">
-        <v>6</v>
+        <v>53832</v>
+      </c>
+      <c r="Z19">
+        <v>46389</v>
+      </c>
+      <c r="AA19">
+        <v>83610</v>
+      </c>
+      <c r="AB19">
+        <v>2268</v>
+      </c>
+      <c r="AC19">
+        <v>67</v>
+      </c>
+      <c r="AD19">
+        <v>55104</v>
+      </c>
+      <c r="AE19">
+        <v>26793</v>
+      </c>
+      <c r="AF19">
+        <v>974</v>
+      </c>
+      <c r="AG19">
+        <v>28310</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>26165</v>
       </c>
       <c r="AK19">
-        <v>6</v>
+        <v>48763</v>
+      </c>
+      <c r="AL19">
+        <v>46459</v>
+      </c>
+      <c r="AM19">
+        <v>74947</v>
+      </c>
+      <c r="AN19">
+        <v>2303</v>
+      </c>
+      <c r="AO19">
+        <v>41</v>
+      </c>
+      <c r="AP19">
+        <v>54735</v>
+      </c>
+      <c r="AQ19">
+        <v>17846</v>
+      </c>
+      <c r="AR19">
+        <v>933</v>
+      </c>
+      <c r="AS19">
+        <v>18151</v>
+      </c>
+      <c r="AT19">
+        <v>18735</v>
+      </c>
+      <c r="AU19">
+        <v>17843</v>
       </c>
     </row>
     <row r="20" spans="1:47" x14ac:dyDescent="0.25">
@@ -31354,13 +35085,103 @@
         <v>7</v>
       </c>
       <c r="M20">
-        <v>7</v>
+        <v>53547</v>
+      </c>
+      <c r="N20">
+        <v>46968</v>
+      </c>
+      <c r="O20">
+        <v>182020</v>
+      </c>
+      <c r="P20">
+        <v>2354</v>
+      </c>
+      <c r="Q20">
+        <v>138</v>
+      </c>
+      <c r="R20">
+        <v>96923</v>
+      </c>
+      <c r="S20">
+        <v>96920</v>
+      </c>
+      <c r="T20">
+        <v>1013</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>82590</v>
       </c>
       <c r="Y20">
-        <v>7</v>
+        <v>51864</v>
+      </c>
+      <c r="Z20">
+        <v>46682</v>
+      </c>
+      <c r="AA20">
+        <v>76536</v>
+      </c>
+      <c r="AB20">
+        <v>2438</v>
+      </c>
+      <c r="AC20">
+        <v>67</v>
+      </c>
+      <c r="AD20">
+        <v>50066</v>
+      </c>
+      <c r="AE20">
+        <v>24434</v>
+      </c>
+      <c r="AF20">
+        <v>1001</v>
+      </c>
+      <c r="AG20">
+        <v>25630</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>23958</v>
       </c>
       <c r="AK20">
-        <v>7</v>
+        <v>52920</v>
+      </c>
+      <c r="AL20">
+        <v>46462</v>
+      </c>
+      <c r="AM20">
+        <v>84895</v>
+      </c>
+      <c r="AN20">
+        <v>2401</v>
+      </c>
+      <c r="AO20">
+        <v>43</v>
+      </c>
+      <c r="AP20">
+        <v>61980</v>
+      </c>
+      <c r="AQ20">
+        <v>20210</v>
+      </c>
+      <c r="AR20">
+        <v>994</v>
+      </c>
+      <c r="AS20">
+        <v>20566</v>
+      </c>
+      <c r="AT20">
+        <v>21200</v>
+      </c>
+      <c r="AU20">
+        <v>20443</v>
       </c>
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.25">
@@ -31368,13 +35189,103 @@
         <v>8</v>
       </c>
       <c r="M21">
-        <v>8</v>
+        <v>51896</v>
+      </c>
+      <c r="N21">
+        <v>47298</v>
+      </c>
+      <c r="O21">
+        <v>177323</v>
+      </c>
+      <c r="P21">
+        <v>2461</v>
+      </c>
+      <c r="Q21">
+        <v>140</v>
+      </c>
+      <c r="R21">
+        <v>95056</v>
+      </c>
+      <c r="S21">
+        <v>95053</v>
+      </c>
+      <c r="T21">
+        <v>975</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>79651</v>
       </c>
       <c r="Y21">
-        <v>8</v>
+        <v>50066</v>
+      </c>
+      <c r="Z21">
+        <v>46438</v>
+      </c>
+      <c r="AA21">
+        <v>76773</v>
+      </c>
+      <c r="AB21">
+        <v>2395</v>
+      </c>
+      <c r="AC21">
+        <v>65</v>
+      </c>
+      <c r="AD21">
+        <v>50202</v>
+      </c>
+      <c r="AE21">
+        <v>24491</v>
+      </c>
+      <c r="AF21">
+        <v>1006</v>
+      </c>
+      <c r="AG21">
+        <v>25709</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>24105</v>
       </c>
       <c r="AK21">
-        <v>8</v>
+        <v>55792</v>
+      </c>
+      <c r="AL21">
+        <v>46512</v>
+      </c>
+      <c r="AM21">
+        <v>87637</v>
+      </c>
+      <c r="AN21">
+        <v>2348</v>
+      </c>
+      <c r="AO21">
+        <v>45</v>
+      </c>
+      <c r="AP21">
+        <v>64083</v>
+      </c>
+      <c r="AQ21">
+        <v>20815</v>
+      </c>
+      <c r="AR21">
+        <v>904</v>
+      </c>
+      <c r="AS21">
+        <v>21305</v>
+      </c>
+      <c r="AT21">
+        <v>21961</v>
+      </c>
+      <c r="AU21">
+        <v>21133</v>
       </c>
     </row>
     <row r="22" spans="1:47" x14ac:dyDescent="0.25">
@@ -31382,13 +35293,103 @@
         <v>9</v>
       </c>
       <c r="M22">
-        <v>9</v>
+        <v>51743</v>
+      </c>
+      <c r="N22">
+        <v>48324</v>
+      </c>
+      <c r="O22">
+        <v>178532</v>
+      </c>
+      <c r="P22">
+        <v>2426</v>
+      </c>
+      <c r="Q22">
+        <v>137</v>
+      </c>
+      <c r="R22">
+        <v>95822</v>
+      </c>
+      <c r="S22">
+        <v>95820</v>
+      </c>
+      <c r="T22">
+        <v>1018</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>80132</v>
       </c>
       <c r="Y22">
-        <v>9</v>
+        <v>50114</v>
+      </c>
+      <c r="Z22">
+        <v>46803</v>
+      </c>
+      <c r="AA22">
+        <v>81076</v>
+      </c>
+      <c r="AB22">
+        <v>2410</v>
+      </c>
+      <c r="AC22">
+        <v>68</v>
+      </c>
+      <c r="AD22">
+        <v>52569</v>
+      </c>
+      <c r="AE22">
+        <v>25590</v>
+      </c>
+      <c r="AF22">
+        <v>965</v>
+      </c>
+      <c r="AG22">
+        <v>26976</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>26023</v>
       </c>
       <c r="AK22">
-        <v>9</v>
+        <v>50385</v>
+      </c>
+      <c r="AL22">
+        <v>46756</v>
+      </c>
+      <c r="AM22">
+        <v>78174</v>
+      </c>
+      <c r="AN22">
+        <v>2324</v>
+      </c>
+      <c r="AO22">
+        <v>41</v>
+      </c>
+      <c r="AP22">
+        <v>57201</v>
+      </c>
+      <c r="AQ22">
+        <v>18623</v>
+      </c>
+      <c r="AR22">
+        <v>914</v>
+      </c>
+      <c r="AS22">
+        <v>18975</v>
+      </c>
+      <c r="AT22">
+        <v>19600</v>
+      </c>
+      <c r="AU22">
+        <v>18582</v>
       </c>
     </row>
     <row r="23" spans="1:47" x14ac:dyDescent="0.25">
@@ -31396,13 +35397,103 @@
         <v>10</v>
       </c>
       <c r="M23">
-        <v>10</v>
+        <v>51839</v>
+      </c>
+      <c r="N23">
+        <v>47344</v>
+      </c>
+      <c r="O23">
+        <v>182287</v>
+      </c>
+      <c r="P23">
+        <v>2532</v>
+      </c>
+      <c r="Q23">
+        <v>139</v>
+      </c>
+      <c r="R23">
+        <v>98009</v>
+      </c>
+      <c r="S23">
+        <v>98007</v>
+      </c>
+      <c r="T23">
+        <v>921</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>81591</v>
       </c>
       <c r="Y23">
-        <v>10</v>
+        <v>51765</v>
+      </c>
+      <c r="Z23">
+        <v>46554</v>
+      </c>
+      <c r="AA23">
+        <v>77434</v>
+      </c>
+      <c r="AB23">
+        <v>2505</v>
+      </c>
+      <c r="AC23">
+        <v>66</v>
+      </c>
+      <c r="AD23">
+        <v>50521</v>
+      </c>
+      <c r="AE23">
+        <v>24660</v>
+      </c>
+      <c r="AF23">
+        <v>1028</v>
+      </c>
+      <c r="AG23">
+        <v>25860</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>24336</v>
       </c>
       <c r="AK23">
-        <v>10</v>
+        <v>52811</v>
+      </c>
+      <c r="AL23">
+        <v>49996</v>
+      </c>
+      <c r="AM23">
+        <v>89161</v>
+      </c>
+      <c r="AN23">
+        <v>2616</v>
+      </c>
+      <c r="AO23">
+        <v>47</v>
+      </c>
+      <c r="AP23">
+        <v>64834</v>
+      </c>
+      <c r="AQ23">
+        <v>21081</v>
+      </c>
+      <c r="AR23">
+        <v>951</v>
+      </c>
+      <c r="AS23">
+        <v>21549</v>
+      </c>
+      <c r="AT23">
+        <v>22201</v>
+      </c>
+      <c r="AU23">
+        <v>21635</v>
       </c>
     </row>
     <row r="25" spans="1:47" x14ac:dyDescent="0.25">
@@ -31454,103 +35545,103 @@
         <v>11</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>52064</v>
       </c>
       <c r="N26">
-        <v>2</v>
+        <v>49739</v>
       </c>
       <c r="O26">
-        <v>3</v>
+        <v>109744</v>
       </c>
       <c r="P26">
-        <v>4</v>
+        <v>1178</v>
       </c>
       <c r="Q26">
-        <v>5</v>
+        <v>125</v>
       </c>
       <c r="R26">
-        <v>6</v>
+        <v>62642</v>
       </c>
       <c r="S26">
-        <v>7</v>
+        <v>62639</v>
       </c>
       <c r="T26">
-        <v>8</v>
+        <v>916</v>
       </c>
       <c r="U26">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>11</v>
+        <v>45784</v>
       </c>
       <c r="Y26">
-        <v>1</v>
+        <v>56573</v>
       </c>
       <c r="Z26">
-        <v>2</v>
+        <v>48306</v>
       </c>
       <c r="AA26">
-        <v>3</v>
+        <v>50039</v>
       </c>
       <c r="AB26">
-        <v>4</v>
+        <v>1192</v>
       </c>
       <c r="AC26">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="AD26">
-        <v>6</v>
+        <v>34082</v>
       </c>
       <c r="AE26">
-        <v>7</v>
+        <v>16363</v>
       </c>
       <c r="AF26">
-        <v>8</v>
+        <v>960</v>
       </c>
       <c r="AG26">
-        <v>9</v>
+        <v>17717</v>
       </c>
       <c r="AH26">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AI26">
-        <v>11</v>
+        <v>14702</v>
       </c>
       <c r="AK26">
-        <v>1</v>
+        <v>54247</v>
       </c>
       <c r="AL26">
-        <v>2</v>
+        <v>49556</v>
       </c>
       <c r="AM26">
-        <v>3</v>
+        <v>49299</v>
       </c>
       <c r="AN26">
-        <v>4</v>
+        <v>1235</v>
       </c>
       <c r="AO26">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="AP26">
-        <v>6</v>
+        <v>37101</v>
       </c>
       <c r="AQ26">
-        <v>7</v>
+        <v>11977</v>
       </c>
       <c r="AR26">
-        <v>8</v>
+        <v>927</v>
       </c>
       <c r="AS26">
-        <v>9</v>
+        <v>12275</v>
       </c>
       <c r="AT26">
-        <v>10</v>
+        <v>12847</v>
       </c>
       <c r="AU26">
-        <v>11</v>
+        <v>10897</v>
       </c>
     </row>
     <row r="27" spans="1:47" x14ac:dyDescent="0.25">
@@ -31558,13 +35649,103 @@
         <v>2</v>
       </c>
       <c r="M27">
-        <v>2</v>
+        <v>51457</v>
+      </c>
+      <c r="N27">
+        <v>49908</v>
+      </c>
+      <c r="O27">
+        <v>107921</v>
+      </c>
+      <c r="P27">
+        <v>1226</v>
+      </c>
+      <c r="Q27">
+        <v>126</v>
+      </c>
+      <c r="R27">
+        <v>61894</v>
+      </c>
+      <c r="S27">
+        <v>61891</v>
+      </c>
+      <c r="T27">
+        <v>910</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>44660</v>
       </c>
       <c r="Y27">
-        <v>2</v>
+        <v>53533</v>
+      </c>
+      <c r="Z27">
+        <v>49566</v>
+      </c>
+      <c r="AA27">
+        <v>51067</v>
+      </c>
+      <c r="AB27">
+        <v>1188</v>
+      </c>
+      <c r="AC27">
+        <v>52</v>
+      </c>
+      <c r="AD27">
+        <v>34788</v>
+      </c>
+      <c r="AE27">
+        <v>16628</v>
+      </c>
+      <c r="AF27">
+        <v>864</v>
+      </c>
+      <c r="AG27">
+        <v>18157</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>15033</v>
       </c>
       <c r="AK27">
-        <v>2</v>
+        <v>54590</v>
+      </c>
+      <c r="AL27">
+        <v>46675</v>
+      </c>
+      <c r="AM27">
+        <v>44648</v>
+      </c>
+      <c r="AN27">
+        <v>1286</v>
+      </c>
+      <c r="AO27">
+        <v>37</v>
+      </c>
+      <c r="AP27">
+        <v>33419</v>
+      </c>
+      <c r="AQ27">
+        <v>10800</v>
+      </c>
+      <c r="AR27">
+        <v>866</v>
+      </c>
+      <c r="AS27">
+        <v>11055</v>
+      </c>
+      <c r="AT27">
+        <v>11562</v>
+      </c>
+      <c r="AU27">
+        <v>9879</v>
       </c>
     </row>
     <row r="28" spans="1:47" x14ac:dyDescent="0.25">
@@ -31572,13 +35753,103 @@
         <v>3</v>
       </c>
       <c r="M28">
-        <v>3</v>
+        <v>53163</v>
+      </c>
+      <c r="N28">
+        <v>47467</v>
+      </c>
+      <c r="O28">
+        <v>109552</v>
+      </c>
+      <c r="P28">
+        <v>1258</v>
+      </c>
+      <c r="Q28">
+        <v>125</v>
+      </c>
+      <c r="R28">
+        <v>62249</v>
+      </c>
+      <c r="S28">
+        <v>62246</v>
+      </c>
+      <c r="T28">
+        <v>798</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>45905</v>
       </c>
       <c r="Y28">
-        <v>3</v>
+        <v>48961</v>
+      </c>
+      <c r="Z28">
+        <v>47474</v>
+      </c>
+      <c r="AA28">
+        <v>47831</v>
+      </c>
+      <c r="AB28">
+        <v>1261</v>
+      </c>
+      <c r="AC28">
+        <v>54</v>
+      </c>
+      <c r="AD28">
+        <v>32493</v>
+      </c>
+      <c r="AE28">
+        <v>15523</v>
+      </c>
+      <c r="AF28">
+        <v>755</v>
+      </c>
+      <c r="AG28">
+        <v>16968</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>14017</v>
       </c>
       <c r="AK28">
-        <v>3</v>
+        <v>49772</v>
+      </c>
+      <c r="AL28">
+        <v>46484</v>
+      </c>
+      <c r="AM28">
+        <v>44896</v>
+      </c>
+      <c r="AN28">
+        <v>1187</v>
+      </c>
+      <c r="AO28">
+        <v>40</v>
+      </c>
+      <c r="AP28">
+        <v>33742</v>
+      </c>
+      <c r="AQ28">
+        <v>10852</v>
+      </c>
+      <c r="AR28">
+        <v>826</v>
+      </c>
+      <c r="AS28">
+        <v>11182</v>
+      </c>
+      <c r="AT28">
+        <v>11705</v>
+      </c>
+      <c r="AU28">
+        <v>9902</v>
       </c>
     </row>
     <row r="29" spans="1:47" x14ac:dyDescent="0.25">
@@ -31586,13 +35857,103 @@
         <v>4</v>
       </c>
       <c r="M29">
-        <v>4</v>
+        <v>54373</v>
+      </c>
+      <c r="N29">
+        <v>49843</v>
+      </c>
+      <c r="O29">
+        <v>106423</v>
+      </c>
+      <c r="P29">
+        <v>1256</v>
+      </c>
+      <c r="Q29">
+        <v>125</v>
+      </c>
+      <c r="R29">
+        <v>60848</v>
+      </c>
+      <c r="S29">
+        <v>60845</v>
+      </c>
+      <c r="T29">
+        <v>902</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>44179</v>
       </c>
       <c r="Y29">
-        <v>4</v>
+        <v>48835</v>
+      </c>
+      <c r="Z29">
+        <v>46664</v>
+      </c>
+      <c r="AA29">
+        <v>45516</v>
+      </c>
+      <c r="AB29">
+        <v>1174</v>
+      </c>
+      <c r="AC29">
+        <v>49</v>
+      </c>
+      <c r="AD29">
+        <v>30960</v>
+      </c>
+      <c r="AE29">
+        <v>14824</v>
+      </c>
+      <c r="AF29">
+        <v>777</v>
+      </c>
+      <c r="AG29">
+        <v>16135</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>13327</v>
       </c>
       <c r="AK29">
-        <v>4</v>
+        <v>48852</v>
+      </c>
+      <c r="AL29">
+        <v>46536</v>
+      </c>
+      <c r="AM29">
+        <v>44552</v>
+      </c>
+      <c r="AN29">
+        <v>1163</v>
+      </c>
+      <c r="AO29">
+        <v>36</v>
+      </c>
+      <c r="AP29">
+        <v>33468</v>
+      </c>
+      <c r="AQ29">
+        <v>10747</v>
+      </c>
+      <c r="AR29">
+        <v>794</v>
+      </c>
+      <c r="AS29">
+        <v>11099</v>
+      </c>
+      <c r="AT29">
+        <v>11619</v>
+      </c>
+      <c r="AU29">
+        <v>9859</v>
       </c>
     </row>
     <row r="30" spans="1:47" x14ac:dyDescent="0.25">
@@ -31600,13 +35961,103 @@
         <v>5</v>
       </c>
       <c r="M30">
-        <v>5</v>
+        <v>53888</v>
+      </c>
+      <c r="N30">
+        <v>47542</v>
+      </c>
+      <c r="O30">
+        <v>108114</v>
+      </c>
+      <c r="P30">
+        <v>1252</v>
+      </c>
+      <c r="Q30">
+        <v>120</v>
+      </c>
+      <c r="R30">
+        <v>61743</v>
+      </c>
+      <c r="S30">
+        <v>61740</v>
+      </c>
+      <c r="T30">
+        <v>874</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>44983</v>
       </c>
       <c r="Y30">
-        <v>5</v>
+        <v>49140</v>
+      </c>
+      <c r="Z30">
+        <v>46705</v>
+      </c>
+      <c r="AA30">
+        <v>50959</v>
+      </c>
+      <c r="AB30">
+        <v>1134</v>
+      </c>
+      <c r="AC30">
+        <v>53</v>
+      </c>
+      <c r="AD30">
+        <v>34632</v>
+      </c>
+      <c r="AE30">
+        <v>16609</v>
+      </c>
+      <c r="AF30">
+        <v>883</v>
+      </c>
+      <c r="AG30">
+        <v>18020</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>15135</v>
       </c>
       <c r="AK30">
-        <v>5</v>
+        <v>49177</v>
+      </c>
+      <c r="AL30">
+        <v>46571</v>
+      </c>
+      <c r="AM30">
+        <v>46811</v>
+      </c>
+      <c r="AN30">
+        <v>1202</v>
+      </c>
+      <c r="AO30">
+        <v>38</v>
+      </c>
+      <c r="AP30">
+        <v>35166</v>
+      </c>
+      <c r="AQ30">
+        <v>11247</v>
+      </c>
+      <c r="AR30">
+        <v>775</v>
+      </c>
+      <c r="AS30">
+        <v>11687</v>
+      </c>
+      <c r="AT30">
+        <v>12229</v>
+      </c>
+      <c r="AU30">
+        <v>10379</v>
       </c>
     </row>
     <row r="31" spans="1:47" x14ac:dyDescent="0.25">
@@ -31614,13 +36065,103 @@
         <v>6</v>
       </c>
       <c r="M31">
-        <v>6</v>
+        <v>56319</v>
+      </c>
+      <c r="N31">
+        <v>49463</v>
+      </c>
+      <c r="O31">
+        <v>108646</v>
+      </c>
+      <c r="P31">
+        <v>1225</v>
+      </c>
+      <c r="Q31">
+        <v>122</v>
+      </c>
+      <c r="R31">
+        <v>62056</v>
+      </c>
+      <c r="S31">
+        <v>62053</v>
+      </c>
+      <c r="T31">
+        <v>888</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>45227</v>
       </c>
       <c r="Y31">
-        <v>6</v>
+        <v>56914</v>
+      </c>
+      <c r="Z31">
+        <v>46459</v>
+      </c>
+      <c r="AA31">
+        <v>46221</v>
+      </c>
+      <c r="AB31">
+        <v>1227</v>
+      </c>
+      <c r="AC31">
+        <v>52</v>
+      </c>
+      <c r="AD31">
+        <v>31548</v>
+      </c>
+      <c r="AE31">
+        <v>15086</v>
+      </c>
+      <c r="AF31">
+        <v>802</v>
+      </c>
+      <c r="AG31">
+        <v>16460</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>13389</v>
       </c>
       <c r="AK31">
-        <v>6</v>
+        <v>49001</v>
+      </c>
+      <c r="AL31">
+        <v>46655</v>
+      </c>
+      <c r="AM31">
+        <v>47361</v>
+      </c>
+      <c r="AN31">
+        <v>1307</v>
+      </c>
+      <c r="AO31">
+        <v>39</v>
+      </c>
+      <c r="AP31">
+        <v>35317</v>
+      </c>
+      <c r="AQ31">
+        <v>11357</v>
+      </c>
+      <c r="AR31">
+        <v>810</v>
+      </c>
+      <c r="AS31">
+        <v>11722</v>
+      </c>
+      <c r="AT31">
+        <v>12235</v>
+      </c>
+      <c r="AU31">
+        <v>10672</v>
       </c>
     </row>
     <row r="32" spans="1:47" x14ac:dyDescent="0.25">
@@ -31628,55 +36169,415 @@
         <v>7</v>
       </c>
       <c r="M32">
-        <v>7</v>
+        <v>52256</v>
+      </c>
+      <c r="N32">
+        <v>47504</v>
+      </c>
+      <c r="O32">
+        <v>105727</v>
+      </c>
+      <c r="P32">
+        <v>1331</v>
+      </c>
+      <c r="Q32">
+        <v>126</v>
+      </c>
+      <c r="R32">
+        <v>60371</v>
+      </c>
+      <c r="S32">
+        <v>60368</v>
+      </c>
+      <c r="T32">
+        <v>894</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>43883</v>
       </c>
       <c r="Y32">
-        <v>7</v>
+        <v>51090</v>
+      </c>
+      <c r="Z32">
+        <v>49724</v>
+      </c>
+      <c r="AA32">
+        <v>51339</v>
+      </c>
+      <c r="AB32">
+        <v>1252</v>
+      </c>
+      <c r="AC32">
+        <v>52</v>
+      </c>
+      <c r="AD32">
+        <v>35070</v>
+      </c>
+      <c r="AE32">
+        <v>16863</v>
+      </c>
+      <c r="AF32">
+        <v>962</v>
+      </c>
+      <c r="AG32">
+        <v>18206</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>14959</v>
       </c>
       <c r="AK32">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+        <v>51643</v>
+      </c>
+      <c r="AL32">
+        <v>46534</v>
+      </c>
+      <c r="AM32">
+        <v>47128</v>
+      </c>
+      <c r="AN32">
+        <v>1240</v>
+      </c>
+      <c r="AO32">
+        <v>39</v>
+      </c>
+      <c r="AP32">
+        <v>35360</v>
+      </c>
+      <c r="AQ32">
+        <v>11384</v>
+      </c>
+      <c r="AR32">
+        <v>893</v>
+      </c>
+      <c r="AS32">
+        <v>11709</v>
+      </c>
+      <c r="AT32">
+        <v>12264</v>
+      </c>
+      <c r="AU32">
+        <v>10462</v>
+      </c>
+    </row>
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8</v>
       </c>
       <c r="M33">
-        <v>8</v>
+        <v>53967</v>
+      </c>
+      <c r="N33">
+        <v>47284</v>
+      </c>
+      <c r="O33">
+        <v>109305</v>
+      </c>
+      <c r="P33">
+        <v>1153</v>
+      </c>
+      <c r="Q33">
+        <v>125</v>
+      </c>
+      <c r="R33">
+        <v>62142</v>
+      </c>
+      <c r="S33">
+        <v>62139</v>
+      </c>
+      <c r="T33">
+        <v>820</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>45870</v>
       </c>
       <c r="Y33">
-        <v>8</v>
+        <v>54234</v>
+      </c>
+      <c r="Z33">
+        <v>46591</v>
+      </c>
+      <c r="AA33">
+        <v>49898</v>
+      </c>
+      <c r="AB33">
+        <v>1213</v>
+      </c>
+      <c r="AC33">
+        <v>52</v>
+      </c>
+      <c r="AD33">
+        <v>33820</v>
+      </c>
+      <c r="AE33">
+        <v>16165</v>
+      </c>
+      <c r="AF33">
+        <v>774</v>
+      </c>
+      <c r="AG33">
+        <v>17653</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>14807</v>
       </c>
       <c r="AK33">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+        <v>55958</v>
+      </c>
+      <c r="AL33">
+        <v>49943</v>
+      </c>
+      <c r="AM33">
+        <v>47294</v>
+      </c>
+      <c r="AN33">
+        <v>1294</v>
+      </c>
+      <c r="AO33">
+        <v>39</v>
+      </c>
+      <c r="AP33">
+        <v>35468</v>
+      </c>
+      <c r="AQ33">
+        <v>11520</v>
+      </c>
+      <c r="AR33">
+        <v>987</v>
+      </c>
+      <c r="AS33">
+        <v>11719</v>
+      </c>
+      <c r="AT33">
+        <v>12226</v>
+      </c>
+      <c r="AU33">
+        <v>10466</v>
+      </c>
+    </row>
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
       <c r="M34">
-        <v>9</v>
+        <v>58738</v>
+      </c>
+      <c r="N34">
+        <v>47741</v>
+      </c>
+      <c r="O34">
+        <v>110477</v>
+      </c>
+      <c r="P34">
+        <v>1289</v>
+      </c>
+      <c r="Q34">
+        <v>130</v>
+      </c>
+      <c r="R34">
+        <v>63549</v>
+      </c>
+      <c r="S34">
+        <v>63546</v>
+      </c>
+      <c r="T34">
+        <v>854</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>45494</v>
       </c>
       <c r="Y34">
-        <v>9</v>
+        <v>50499</v>
+      </c>
+      <c r="Z34">
+        <v>46361</v>
+      </c>
+      <c r="AA34">
+        <v>46220</v>
+      </c>
+      <c r="AB34">
+        <v>1191</v>
+      </c>
+      <c r="AC34">
+        <v>48</v>
+      </c>
+      <c r="AD34">
+        <v>31417</v>
+      </c>
+      <c r="AE34">
+        <v>15044</v>
+      </c>
+      <c r="AF34">
+        <v>786</v>
+      </c>
+      <c r="AG34">
+        <v>16370</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>13559</v>
       </c>
       <c r="AK34">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+        <v>49042</v>
+      </c>
+      <c r="AL34">
+        <v>46643</v>
+      </c>
+      <c r="AM34">
+        <v>46441</v>
+      </c>
+      <c r="AN34">
+        <v>1279</v>
+      </c>
+      <c r="AO34">
+        <v>37</v>
+      </c>
+      <c r="AP34">
+        <v>34835</v>
+      </c>
+      <c r="AQ34">
+        <v>11257</v>
+      </c>
+      <c r="AR34">
+        <v>888</v>
+      </c>
+      <c r="AS34">
+        <v>11526</v>
+      </c>
+      <c r="AT34">
+        <v>12049</v>
+      </c>
+      <c r="AU34">
+        <v>10264</v>
+      </c>
+    </row>
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10</v>
       </c>
       <c r="M35">
-        <v>10</v>
+        <v>52968</v>
+      </c>
+      <c r="N35">
+        <v>47270</v>
+      </c>
+      <c r="O35">
+        <v>108397</v>
+      </c>
+      <c r="P35">
+        <v>1199</v>
+      </c>
+      <c r="Q35">
+        <v>129</v>
+      </c>
+      <c r="R35">
+        <v>62399</v>
+      </c>
+      <c r="S35">
+        <v>62396</v>
+      </c>
+      <c r="T35">
+        <v>860</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>44655</v>
       </c>
       <c r="Y35">
-        <v>10</v>
+        <v>48965</v>
+      </c>
+      <c r="Z35">
+        <v>46468</v>
+      </c>
+      <c r="AA35">
+        <v>48061</v>
+      </c>
+      <c r="AB35">
+        <v>1256</v>
+      </c>
+      <c r="AC35">
+        <v>51</v>
+      </c>
+      <c r="AD35">
+        <v>32705</v>
+      </c>
+      <c r="AE35">
+        <v>15644</v>
+      </c>
+      <c r="AF35">
+        <v>775</v>
+      </c>
+      <c r="AG35">
+        <v>17059</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>14043</v>
       </c>
       <c r="AK35">
-        <v>10</v>
+        <v>48978</v>
+      </c>
+      <c r="AL35">
+        <v>46541</v>
+      </c>
+      <c r="AM35">
+        <v>44805</v>
+      </c>
+      <c r="AN35">
+        <v>1314</v>
+      </c>
+      <c r="AO35">
+        <v>37</v>
+      </c>
+      <c r="AP35">
+        <v>33559</v>
+      </c>
+      <c r="AQ35">
+        <v>10796</v>
+      </c>
+      <c r="AR35">
+        <v>820</v>
+      </c>
+      <c r="AS35">
+        <v>11119</v>
+      </c>
+      <c r="AT35">
+        <v>11642</v>
+      </c>
+      <c r="AU35">
+        <v>9868</v>
       </c>
     </row>
   </sheetData>

--- a/trim/scaling.xlsx
+++ b/trim/scaling.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="59">
   <si>
     <t>T1-C1</t>
   </si>
@@ -199,6 +199,18 @@
   <si>
     <t>LiveJ</t>
   </si>
+  <si>
+    <t>C8T0</t>
+  </si>
+  <si>
+    <t>C8T1</t>
+  </si>
+  <si>
+    <t>C8T2</t>
+  </si>
+  <si>
+    <t>C8T3</t>
+  </si>
 </sst>
 </file>
 
@@ -233,8 +245,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -292,7 +305,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -650,11 +662,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="381804640"/>
-        <c:axId val="381805424"/>
+        <c:axId val="386042168"/>
+        <c:axId val="386042560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="381804640"/>
+        <c:axId val="386042168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -697,7 +709,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381805424"/>
+        <c:crossAx val="386042560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -705,7 +717,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="381805424"/>
+        <c:axId val="386042560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -756,7 +768,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381804640"/>
+        <c:crossAx val="386042168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -770,7 +782,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -884,7 +895,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1242,11 +1252,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="381806208"/>
-        <c:axId val="381806600"/>
+        <c:axId val="99496120"/>
+        <c:axId val="387273584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="381806208"/>
+        <c:axId val="99496120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1289,7 +1299,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381806600"/>
+        <c:crossAx val="387273584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1297,7 +1307,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="381806600"/>
+        <c:axId val="387273584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1348,7 +1358,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381806208"/>
+        <c:crossAx val="99496120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1362,7 +1372,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1476,7 +1485,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1834,11 +1842,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="383627240"/>
-        <c:axId val="383627632"/>
+        <c:axId val="387274368"/>
+        <c:axId val="387274760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="383627240"/>
+        <c:axId val="387274368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1881,7 +1889,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383627632"/>
+        <c:crossAx val="387274760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1889,7 +1897,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="383627632"/>
+        <c:axId val="387274760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1940,7 +1948,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383627240"/>
+        <c:crossAx val="387274368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1954,7 +1962,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2318,6 +2325,69 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Performance!$B$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>T0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>T2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>T3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Performance!$B$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>57.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2328,11 +2398,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="383630376"/>
-        <c:axId val="384793104"/>
+        <c:axId val="386044544"/>
+        <c:axId val="386044936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="383630376"/>
+        <c:axId val="386044544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2375,7 +2445,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384793104"/>
+        <c:crossAx val="386044936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2383,7 +2453,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="384793104"/>
+        <c:axId val="386044936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2434,7 +2504,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383630376"/>
+        <c:crossAx val="386044544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2604,7 +2674,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$A$7</c:f>
+              <c:f>Performance!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2625,7 +2695,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Performance!$B$6:$E$6</c:f>
+              <c:f>Performance!$B$7:$E$7</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2645,7 +2715,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Performance!$B$7:$E$7</c:f>
+              <c:f>Performance!$B$8:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2675,7 +2745,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$A$8</c:f>
+              <c:f>Performance!$A$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2696,7 +2766,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Performance!$B$6:$E$6</c:f>
+              <c:f>Performance!$B$7:$E$7</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2716,7 +2786,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Performance!$B$8:$E$8</c:f>
+              <c:f>Performance!$B$9:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2746,7 +2816,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$A$9</c:f>
+              <c:f>Performance!$A$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2767,7 +2837,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Performance!$B$6:$E$6</c:f>
+              <c:f>Performance!$B$7:$E$7</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -2787,7 +2857,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Performance!$B$9:$E$9</c:f>
+              <c:f>Performance!$B$10:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2812,6 +2882,69 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Performance!$B$7:$E$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>T0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>T2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>T3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Performance!$B$11:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
+                  <c:v>1333.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1941.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2795.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2822,11 +2955,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="384793888"/>
-        <c:axId val="384794280"/>
+        <c:axId val="386047288"/>
+        <c:axId val="386047680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="384793888"/>
+        <c:axId val="386047288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2869,7 +3002,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384794280"/>
+        <c:crossAx val="386047680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2877,7 +3010,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="384794280"/>
+        <c:axId val="386047680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2928,7 +3061,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384793888"/>
+        <c:crossAx val="386047288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3098,7 +3231,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$A$12</c:f>
+              <c:f>Performance!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3119,7 +3252,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Performance!$C$11:$E$11</c:f>
+              <c:f>Performance!$C$13:$E$13</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3136,7 +3269,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Performance!$C$12:$E$12</c:f>
+              <c:f>Performance!$C$14:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3163,7 +3296,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$A$13</c:f>
+              <c:f>Performance!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3184,7 +3317,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Performance!$C$11:$E$11</c:f>
+              <c:f>Performance!$C$13:$E$13</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3201,7 +3334,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Performance!$C$13:$E$13</c:f>
+              <c:f>Performance!$C$15:$E$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3228,7 +3361,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$A$14</c:f>
+              <c:f>Performance!$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3249,7 +3382,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Performance!$C$11:$E$11</c:f>
+              <c:f>Performance!$C$13:$E$13</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3266,7 +3399,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Performance!$C$14:$E$14</c:f>
+              <c:f>Performance!$C$16:$E$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3288,6 +3421,66 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Performance!$C$13:$E$13</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>T1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>T3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Performance!$C$17:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7850</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9502.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12146</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3298,11 +3491,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="384369440"/>
-        <c:axId val="384369832"/>
+        <c:axId val="387780680"/>
+        <c:axId val="387781072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="384369440"/>
+        <c:axId val="387780680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3345,7 +3538,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384369832"/>
+        <c:crossAx val="387781072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3353,7 +3546,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="384369832"/>
+        <c:axId val="387781072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3404,7 +3597,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384369440"/>
+        <c:crossAx val="387780680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3574,7 +3767,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$A$17</c:f>
+              <c:f>Performance!$A$20</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3595,7 +3788,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Performance!$C$16:$E$16</c:f>
+              <c:f>Performance!$C$19:$E$19</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3612,7 +3805,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Performance!$C$17:$E$17</c:f>
+              <c:f>Performance!$C$20:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3639,7 +3832,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$A$18</c:f>
+              <c:f>Performance!$A$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3660,7 +3853,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Performance!$C$16:$E$16</c:f>
+              <c:f>Performance!$C$19:$E$19</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3677,7 +3870,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Performance!$C$18:$E$18</c:f>
+              <c:f>Performance!$C$21:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3704,7 +3897,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$A$19</c:f>
+              <c:f>Performance!$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3725,7 +3918,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Performance!$C$16:$E$16</c:f>
+              <c:f>Performance!$C$19:$E$19</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3742,7 +3935,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Performance!$C$19:$E$19</c:f>
+              <c:f>Performance!$C$22:$E$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3764,6 +3957,66 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Performance!$C$19:$E$19</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>T1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>T3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Performance!$C$23:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2428</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>940</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>893.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3774,11 +4027,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="384370616"/>
-        <c:axId val="384371008"/>
+        <c:axId val="387781856"/>
+        <c:axId val="387782248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="384370616"/>
+        <c:axId val="387781856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3821,7 +4074,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384371008"/>
+        <c:crossAx val="387782248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3829,7 +4082,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="384371008"/>
+        <c:axId val="387782248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3880,7 +4133,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384370616"/>
+        <c:crossAx val="387781856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4050,7 +4303,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$A$22</c:f>
+              <c:f>Performance!$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4071,7 +4324,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Performance!$C$21:$E$21</c:f>
+              <c:f>Performance!$C$25:$E$25</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4088,7 +4341,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Performance!$C$22:$E$22</c:f>
+              <c:f>Performance!$C$26:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4115,7 +4368,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$A$23</c:f>
+              <c:f>Performance!$A$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4136,7 +4389,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Performance!$C$21:$E$21</c:f>
+              <c:f>Performance!$C$25:$E$25</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4153,7 +4406,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Performance!$C$23:$E$23</c:f>
+              <c:f>Performance!$C$27:$E$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4180,7 +4433,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Performance!$A$24</c:f>
+              <c:f>Performance!$A$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4201,7 +4454,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Performance!$C$21:$E$21</c:f>
+              <c:f>Performance!$C$25:$E$25</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -4218,7 +4471,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Performance!$C$24:$E$24</c:f>
+              <c:f>Performance!$C$28:$E$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4240,6 +4493,66 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Performance!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Performance!$C$25:$E$25</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>T1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>T2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>T3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Performance!$C$29:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>65095</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29891.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28728.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -4250,11 +4563,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="384796632"/>
-        <c:axId val="384796240"/>
+        <c:axId val="387783032"/>
+        <c:axId val="387783424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="384796632"/>
+        <c:axId val="387783032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4297,7 +4610,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384796240"/>
+        <c:crossAx val="387783424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4305,7 +4618,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="384796240"/>
+        <c:axId val="387783424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4356,7 +4669,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384796632"/>
+        <c:crossAx val="387783032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8808,7 +9121,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEDE3A8D-C7C7-4D9F-9C25-679ED225B3B3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEDE3A8D-C7C7-4D9F-9C25-679ED225B3B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8844,7 +9157,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{35EB3EBF-4C04-40BF-8E50-0133D4A275B1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35EB3EBF-4C04-40BF-8E50-0133D4A275B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8882,7 +9195,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83A3B5C3-5257-411F-A2F7-DA1DC10798FD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83A3B5C3-5257-411F-A2F7-DA1DC10798FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8925,7 +9238,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95FE8CA5-B481-4DFD-949F-4DE2B32B5EBB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95FE8CA5-B481-4DFD-949F-4DE2B32B5EBB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8961,7 +9274,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7AED9833-EE27-464F-8F0E-4A7A5B8AC131}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AED9833-EE27-464F-8F0E-4A7A5B8AC131}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8999,7 +9312,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1CE99168-969F-488F-B46C-12861414FEB8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CE99168-969F-488F-B46C-12861414FEB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9037,7 +9350,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2CEBFD2-E8BF-46B5-A41F-41453D2CF9FB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2CEBFD2-E8BF-46B5-A41F-41453D2CF9FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9062,20 +9375,20 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E334DA48-AEB9-4729-86FD-60A3FF7F167A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E334DA48-AEB9-4729-86FD-60A3FF7F167A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12113,10 +12426,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="U28" sqref="U28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12201,284 +12514,370 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="1">
+        <f>MEDIAN(Slashdot!O$38:O$47)</f>
+        <v>57.5</v>
+      </c>
+      <c r="D5" s="1">
+        <f>MEDIAN(Slashdot!AA$38:AA$47)</f>
+        <v>39</v>
+      </c>
+      <c r="E5" s="1">
+        <f>MEDIAN(Slashdot!AM$38:AM$47)</f>
+        <v>40.5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <f>MEDIAN(Stanford!C$2:C$11)</f>
         <v>14002</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <f>MEDIAN(Stanford!O$2:O$11)</f>
         <v>7231.5</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <f>MEDIAN(Stanford!AA$2:AA$11)</f>
         <v>11133.5</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <f>MEDIAN(Stanford!AM$2:AM$11)</f>
         <v>15988</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <f>MEDIAN(Stanford!C$14:C$23)</f>
         <v>8193.5</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <f>MEDIAN(Stanford!O$14:O$23)</f>
         <v>3898.5</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <f>MEDIAN(Stanford!AA$14:AA$23)</f>
         <v>6102.5</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <f>MEDIAN(Stanford!AM$14:AM$23)</f>
         <v>8982.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <f>MEDIAN(Stanford!C$26:C$35)</f>
         <v>5024</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <f>MEDIAN(Stanford!O$26:O$35)</f>
         <v>2264.5</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <f>MEDIAN(Stanford!AA$26:AA$35)</f>
         <v>3446.5</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <f>MEDIAN(Stanford!AM$26:AM$35)</f>
         <v>5154.5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11">
+        <f>MEDIAN(Stanford!O$38:O$47)</f>
+        <v>1333.5</v>
+      </c>
+      <c r="D11">
+        <f>MEDIAN(Stanford!AA$38:AA$47)</f>
+        <v>1941.5</v>
+      </c>
+      <c r="E11">
+        <f>MEDIAN(Stanford!AM$38:AM$47)</f>
+        <v>2795.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>52</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D13" t="s">
         <v>29</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>21</v>
       </c>
-      <c r="C12">
+      <c r="C14">
         <f>MEDIAN(Google!O$2:O$11)</f>
         <v>44883.5</v>
       </c>
-      <c r="D12">
+      <c r="D14">
         <f>MEDIAN(Google!AA$2:AA$11)</f>
         <v>53479</v>
       </c>
-      <c r="E12">
+      <c r="E14">
         <f>MEDIAN(Google!AM$2:AM$11)</f>
         <v>60233.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="C13">
+      <c r="C15">
         <f>MEDIAN(Google!O$14:O$23)</f>
         <v>24203.5</v>
       </c>
-      <c r="D13">
+      <c r="D15">
         <f>MEDIAN(Google!AA$14:AA$23)</f>
         <v>25884.5</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <f>MEDIAN(Google!AM$14:AM$23)</f>
         <v>32279.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="C14">
+      <c r="C16">
         <f>MEDIAN(Google!O$26:O$35)</f>
         <v>12995</v>
       </c>
-      <c r="D14">
+      <c r="D16">
         <f>MEDIAN(Google!AA$26:AA$35)</f>
         <v>15408</v>
       </c>
-      <c r="E14">
+      <c r="E16">
         <f>MEDIAN(Google!AM$26:AM$35)</f>
         <v>20082.5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <f>MEDIAN(Google!O$38:O$47)</f>
+        <v>7850</v>
+      </c>
+      <c r="D17">
+        <f>MEDIAN(Google!AA$38:AA$47)</f>
+        <v>9502.5</v>
+      </c>
+      <c r="E17">
+        <f>MEDIAN(Google!AM$38:AM$47)</f>
+        <v>12146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="C17">
+      <c r="C20">
         <f>MEDIAN(Pokec!O$2:O$11)</f>
         <v>10508</v>
       </c>
-      <c r="D17">
+      <c r="D20">
         <f>MEDIAN(Pokec!AA$2:AA$11)</f>
         <v>2833</v>
       </c>
-      <c r="E17">
+      <c r="E20">
         <f>MEDIAN(Pokec!AM$2:AM$11)</f>
         <v>2507.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="C18">
+      <c r="C21">
         <f>MEDIAN(Pokec!O$14:O$23)</f>
         <v>5827</v>
       </c>
-      <c r="D18">
+      <c r="D21">
         <f>MEDIAN(Pokec!AA$14:AA$23)</f>
         <v>1682.5</v>
       </c>
-      <c r="E18">
+      <c r="E21">
         <f>MEDIAN(Pokec!AM$14:AM$23)</f>
         <v>1499.5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="C19">
+      <c r="C22">
         <f>MEDIAN(Pokec!O$26:O$35)</f>
         <v>3354</v>
       </c>
-      <c r="D19">
+      <c r="D22">
         <f>MEDIAN(Pokec!AA$26:AA$35)</f>
         <v>989.5</v>
       </c>
-      <c r="E19">
+      <c r="E22">
         <f>MEDIAN(Pokec!AM$26:AM$35)</f>
         <v>913.5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23">
+        <f>MEDIAN(Pokec!O$38:O$47)</f>
+        <v>2428</v>
+      </c>
+      <c r="D23">
+        <f>MEDIAN(Pokec!AA$38:AA$47)</f>
+        <v>940</v>
+      </c>
+      <c r="E23">
+        <f>MEDIAN(Pokec!AM$38:AM$47)</f>
+        <v>893.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>54</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C25" t="s">
         <v>28</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D25" t="s">
         <v>29</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>21</v>
       </c>
-      <c r="C22">
+      <c r="C26">
         <f>MEDIAN(LiveJ!O$2:O$11)</f>
         <v>317366.5</v>
       </c>
-      <c r="D22">
+      <c r="D26">
         <f>MEDIAN(LiveJ!AA$2:AA$11)</f>
         <v>146771</v>
       </c>
-      <c r="E22">
+      <c r="E26">
         <f>MEDIAN(LiveJ!AM$2:AM$11)</f>
         <v>142265.5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>22</v>
       </c>
-      <c r="C23">
+      <c r="C27">
         <f>MEDIAN(LiveJ!O$14:O$23)</f>
         <v>180673.5</v>
       </c>
-      <c r="D23">
+      <c r="D27">
         <f>MEDIAN(LiveJ!AA$14:AA$23)</f>
         <v>80480.5</v>
       </c>
-      <c r="E23">
+      <c r="E27">
         <f>MEDIAN(LiveJ!AM$14:AM$23)</f>
         <v>75410.5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>23</v>
       </c>
-      <c r="C24">
+      <c r="C28">
         <f>MEDIAN(LiveJ!O$26:O$35)</f>
         <v>108521.5</v>
       </c>
-      <c r="D24">
+      <c r="D28">
         <f>MEDIAN(LiveJ!AA$26:AA$35)</f>
         <v>48979.5</v>
       </c>
-      <c r="E24">
+      <c r="E28">
         <f>MEDIAN(LiveJ!AM$26:AM$35)</f>
         <v>46626</v>
       </c>
     </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <f>MEDIAN(LiveJ!O$38:O$47)</f>
+        <v>65095</v>
+      </c>
+      <c r="D29">
+        <f>MEDIAN(LiveJ!AA$38:AA$47)</f>
+        <v>29891.5</v>
+      </c>
+      <c r="E29">
+        <f>MEDIAN(LiveJ!AM$38:AM$47)</f>
+        <v>28728.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -18486,10 +18885,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU35"/>
+  <dimension ref="A1:AU47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AY18" sqref="AY18"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22583,6 +22982,1030 @@
         <v>1</v>
       </c>
     </row>
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="M37" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <v>409</v>
+      </c>
+      <c r="N38">
+        <v>305</v>
+      </c>
+      <c r="O38">
+        <v>57</v>
+      </c>
+      <c r="P38">
+        <v>5</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>40</v>
+      </c>
+      <c r="S38">
+        <v>40</v>
+      </c>
+      <c r="T38">
+        <v>30</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>11</v>
+      </c>
+      <c r="Y38">
+        <v>376</v>
+      </c>
+      <c r="Z38">
+        <v>297</v>
+      </c>
+      <c r="AA38">
+        <v>39</v>
+      </c>
+      <c r="AB38">
+        <v>6</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>30</v>
+      </c>
+      <c r="AE38">
+        <v>29</v>
+      </c>
+      <c r="AF38">
+        <v>28</v>
+      </c>
+      <c r="AG38">
+        <v>1</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>1</v>
+      </c>
+      <c r="AK38">
+        <v>426</v>
+      </c>
+      <c r="AL38">
+        <v>298</v>
+      </c>
+      <c r="AM38">
+        <v>34</v>
+      </c>
+      <c r="AN38">
+        <v>6</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AP38">
+        <v>27</v>
+      </c>
+      <c r="AQ38">
+        <v>26</v>
+      </c>
+      <c r="AR38">
+        <v>25</v>
+      </c>
+      <c r="AS38">
+        <v>0</v>
+      </c>
+      <c r="AT38">
+        <v>0</v>
+      </c>
+      <c r="AU38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <v>423</v>
+      </c>
+      <c r="N39">
+        <v>305</v>
+      </c>
+      <c r="O39">
+        <v>56</v>
+      </c>
+      <c r="P39">
+        <v>6</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>34</v>
+      </c>
+      <c r="S39">
+        <v>34</v>
+      </c>
+      <c r="T39">
+        <v>25</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>13</v>
+      </c>
+      <c r="Y39">
+        <v>403</v>
+      </c>
+      <c r="Z39">
+        <v>293</v>
+      </c>
+      <c r="AA39">
+        <v>37</v>
+      </c>
+      <c r="AB39">
+        <v>5</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>29</v>
+      </c>
+      <c r="AE39">
+        <v>28</v>
+      </c>
+      <c r="AF39">
+        <v>27</v>
+      </c>
+      <c r="AG39">
+        <v>1</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>1</v>
+      </c>
+      <c r="AK39">
+        <v>372</v>
+      </c>
+      <c r="AL39">
+        <v>306</v>
+      </c>
+      <c r="AM39">
+        <v>48</v>
+      </c>
+      <c r="AN39">
+        <v>5</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AP39">
+        <v>41</v>
+      </c>
+      <c r="AQ39">
+        <v>40</v>
+      </c>
+      <c r="AR39">
+        <v>40</v>
+      </c>
+      <c r="AS39">
+        <v>0</v>
+      </c>
+      <c r="AT39">
+        <v>0</v>
+      </c>
+      <c r="AU39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>409</v>
+      </c>
+      <c r="N40">
+        <v>318</v>
+      </c>
+      <c r="O40">
+        <v>57</v>
+      </c>
+      <c r="P40">
+        <v>6</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>37</v>
+      </c>
+      <c r="S40">
+        <v>37</v>
+      </c>
+      <c r="T40">
+        <v>26</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>13</v>
+      </c>
+      <c r="Y40">
+        <v>403</v>
+      </c>
+      <c r="Z40">
+        <v>300</v>
+      </c>
+      <c r="AA40">
+        <v>38</v>
+      </c>
+      <c r="AB40">
+        <v>8</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>28</v>
+      </c>
+      <c r="AE40">
+        <v>26</v>
+      </c>
+      <c r="AF40">
+        <v>25</v>
+      </c>
+      <c r="AG40">
+        <v>1</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>1</v>
+      </c>
+      <c r="AK40">
+        <v>389</v>
+      </c>
+      <c r="AL40">
+        <v>295</v>
+      </c>
+      <c r="AM40">
+        <v>39</v>
+      </c>
+      <c r="AN40">
+        <v>8</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>29</v>
+      </c>
+      <c r="AQ40">
+        <v>28</v>
+      </c>
+      <c r="AR40">
+        <v>28</v>
+      </c>
+      <c r="AS40">
+        <v>0</v>
+      </c>
+      <c r="AT40">
+        <v>0</v>
+      </c>
+      <c r="AU40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <v>410</v>
+      </c>
+      <c r="N41">
+        <v>305</v>
+      </c>
+      <c r="O41">
+        <v>58</v>
+      </c>
+      <c r="P41">
+        <v>6</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>37</v>
+      </c>
+      <c r="S41">
+        <v>37</v>
+      </c>
+      <c r="T41">
+        <v>28</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>14</v>
+      </c>
+      <c r="Y41">
+        <v>420</v>
+      </c>
+      <c r="Z41">
+        <v>315</v>
+      </c>
+      <c r="AA41">
+        <v>39</v>
+      </c>
+      <c r="AB41">
+        <v>6</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>31</v>
+      </c>
+      <c r="AE41">
+        <v>29</v>
+      </c>
+      <c r="AF41">
+        <v>28</v>
+      </c>
+      <c r="AG41">
+        <v>1</v>
+      </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>1</v>
+      </c>
+      <c r="AK41">
+        <v>387</v>
+      </c>
+      <c r="AL41">
+        <v>297</v>
+      </c>
+      <c r="AM41">
+        <v>42</v>
+      </c>
+      <c r="AN41">
+        <v>5</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>35</v>
+      </c>
+      <c r="AQ41">
+        <v>34</v>
+      </c>
+      <c r="AR41">
+        <v>34</v>
+      </c>
+      <c r="AS41">
+        <v>0</v>
+      </c>
+      <c r="AT41">
+        <v>0</v>
+      </c>
+      <c r="AU41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <v>363</v>
+      </c>
+      <c r="N42">
+        <v>295</v>
+      </c>
+      <c r="O42">
+        <v>61</v>
+      </c>
+      <c r="P42">
+        <v>5</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>41</v>
+      </c>
+      <c r="S42">
+        <v>41</v>
+      </c>
+      <c r="T42">
+        <v>29</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>13</v>
+      </c>
+      <c r="Y42">
+        <v>392</v>
+      </c>
+      <c r="Z42">
+        <v>328</v>
+      </c>
+      <c r="AA42">
+        <v>39</v>
+      </c>
+      <c r="AB42">
+        <v>6</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>31</v>
+      </c>
+      <c r="AE42">
+        <v>29</v>
+      </c>
+      <c r="AF42">
+        <v>28</v>
+      </c>
+      <c r="AG42">
+        <v>1</v>
+      </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>1</v>
+      </c>
+      <c r="AK42">
+        <v>397</v>
+      </c>
+      <c r="AL42">
+        <v>300</v>
+      </c>
+      <c r="AM42">
+        <v>39</v>
+      </c>
+      <c r="AN42">
+        <v>6</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+      <c r="AP42">
+        <v>32</v>
+      </c>
+      <c r="AQ42">
+        <v>31</v>
+      </c>
+      <c r="AR42">
+        <v>30</v>
+      </c>
+      <c r="AS42">
+        <v>0</v>
+      </c>
+      <c r="AT42">
+        <v>0</v>
+      </c>
+      <c r="AU42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <v>362</v>
+      </c>
+      <c r="N43">
+        <v>303</v>
+      </c>
+      <c r="O43">
+        <v>68</v>
+      </c>
+      <c r="P43">
+        <v>6</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>46</v>
+      </c>
+      <c r="S43">
+        <v>45</v>
+      </c>
+      <c r="T43">
+        <v>34</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>15</v>
+      </c>
+      <c r="Y43">
+        <v>384</v>
+      </c>
+      <c r="Z43">
+        <v>296</v>
+      </c>
+      <c r="AA43">
+        <v>39</v>
+      </c>
+      <c r="AB43">
+        <v>6</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>30</v>
+      </c>
+      <c r="AE43">
+        <v>29</v>
+      </c>
+      <c r="AF43">
+        <v>28</v>
+      </c>
+      <c r="AG43">
+        <v>1</v>
+      </c>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>1</v>
+      </c>
+      <c r="AK43">
+        <v>409</v>
+      </c>
+      <c r="AL43">
+        <v>301</v>
+      </c>
+      <c r="AM43">
+        <v>38</v>
+      </c>
+      <c r="AN43">
+        <v>8</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>28</v>
+      </c>
+      <c r="AQ43">
+        <v>27</v>
+      </c>
+      <c r="AR43">
+        <v>27</v>
+      </c>
+      <c r="AS43">
+        <v>0</v>
+      </c>
+      <c r="AT43">
+        <v>0</v>
+      </c>
+      <c r="AU43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <v>382</v>
+      </c>
+      <c r="N44">
+        <v>321</v>
+      </c>
+      <c r="O44">
+        <v>63</v>
+      </c>
+      <c r="P44">
+        <v>7</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>43</v>
+      </c>
+      <c r="S44">
+        <v>43</v>
+      </c>
+      <c r="T44">
+        <v>34</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>11</v>
+      </c>
+      <c r="Y44">
+        <v>373</v>
+      </c>
+      <c r="Z44">
+        <v>296</v>
+      </c>
+      <c r="AA44">
+        <v>42</v>
+      </c>
+      <c r="AB44">
+        <v>5</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>34</v>
+      </c>
+      <c r="AE44">
+        <v>33</v>
+      </c>
+      <c r="AF44">
+        <v>32</v>
+      </c>
+      <c r="AG44">
+        <v>1</v>
+      </c>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>1</v>
+      </c>
+      <c r="AK44">
+        <v>372</v>
+      </c>
+      <c r="AL44">
+        <v>297</v>
+      </c>
+      <c r="AM44">
+        <v>44</v>
+      </c>
+      <c r="AN44">
+        <v>5</v>
+      </c>
+      <c r="AO44">
+        <v>0</v>
+      </c>
+      <c r="AP44">
+        <v>37</v>
+      </c>
+      <c r="AQ44">
+        <v>36</v>
+      </c>
+      <c r="AR44">
+        <v>36</v>
+      </c>
+      <c r="AS44">
+        <v>0</v>
+      </c>
+      <c r="AT44">
+        <v>0</v>
+      </c>
+      <c r="AU44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <v>412</v>
+      </c>
+      <c r="N45">
+        <v>306</v>
+      </c>
+      <c r="O45">
+        <v>57</v>
+      </c>
+      <c r="P45">
+        <v>6</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>39</v>
+      </c>
+      <c r="S45">
+        <v>39</v>
+      </c>
+      <c r="T45">
+        <v>30</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>11</v>
+      </c>
+      <c r="Y45">
+        <v>414</v>
+      </c>
+      <c r="Z45">
+        <v>301</v>
+      </c>
+      <c r="AA45">
+        <v>42</v>
+      </c>
+      <c r="AB45">
+        <v>5</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>34</v>
+      </c>
+      <c r="AE45">
+        <v>33</v>
+      </c>
+      <c r="AF45">
+        <v>32</v>
+      </c>
+      <c r="AG45">
+        <v>1</v>
+      </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>1</v>
+      </c>
+      <c r="AK45">
+        <v>377</v>
+      </c>
+      <c r="AL45">
+        <v>294</v>
+      </c>
+      <c r="AM45">
+        <v>38</v>
+      </c>
+      <c r="AN45">
+        <v>5</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+      <c r="AP45">
+        <v>32</v>
+      </c>
+      <c r="AQ45">
+        <v>31</v>
+      </c>
+      <c r="AR45">
+        <v>30</v>
+      </c>
+      <c r="AS45">
+        <v>0</v>
+      </c>
+      <c r="AT45">
+        <v>0</v>
+      </c>
+      <c r="AU45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <v>415</v>
+      </c>
+      <c r="N46">
+        <v>336</v>
+      </c>
+      <c r="O46">
+        <v>59</v>
+      </c>
+      <c r="P46">
+        <v>6</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>41</v>
+      </c>
+      <c r="S46">
+        <v>41</v>
+      </c>
+      <c r="T46">
+        <v>32</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>11</v>
+      </c>
+      <c r="Y46">
+        <v>414</v>
+      </c>
+      <c r="Z46">
+        <v>334</v>
+      </c>
+      <c r="AA46">
+        <v>54</v>
+      </c>
+      <c r="AB46">
+        <v>5</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>46</v>
+      </c>
+      <c r="AE46">
+        <v>45</v>
+      </c>
+      <c r="AF46">
+        <v>44</v>
+      </c>
+      <c r="AG46">
+        <v>1</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>1</v>
+      </c>
+      <c r="AK46">
+        <v>384</v>
+      </c>
+      <c r="AL46">
+        <v>303</v>
+      </c>
+      <c r="AM46">
+        <v>43</v>
+      </c>
+      <c r="AN46">
+        <v>8</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>34</v>
+      </c>
+      <c r="AQ46">
+        <v>33</v>
+      </c>
+      <c r="AR46">
+        <v>32</v>
+      </c>
+      <c r="AS46">
+        <v>0</v>
+      </c>
+      <c r="AT46">
+        <v>0</v>
+      </c>
+      <c r="AU46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <v>410</v>
+      </c>
+      <c r="N47">
+        <v>310</v>
+      </c>
+      <c r="O47">
+        <v>57</v>
+      </c>
+      <c r="P47">
+        <v>6</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>37</v>
+      </c>
+      <c r="S47">
+        <v>37</v>
+      </c>
+      <c r="T47">
+        <v>26</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>13</v>
+      </c>
+      <c r="Y47">
+        <v>414</v>
+      </c>
+      <c r="Z47">
+        <v>300</v>
+      </c>
+      <c r="AA47">
+        <v>41</v>
+      </c>
+      <c r="AB47">
+        <v>5</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <v>33</v>
+      </c>
+      <c r="AE47">
+        <v>32</v>
+      </c>
+      <c r="AF47">
+        <v>31</v>
+      </c>
+      <c r="AG47">
+        <v>1</v>
+      </c>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>1</v>
+      </c>
+      <c r="AK47">
+        <v>403</v>
+      </c>
+      <c r="AL47">
+        <v>336</v>
+      </c>
+      <c r="AM47">
+        <v>49</v>
+      </c>
+      <c r="AN47">
+        <v>8</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <v>40</v>
+      </c>
+      <c r="AQ47">
+        <v>39</v>
+      </c>
+      <c r="AR47">
+        <v>38</v>
+      </c>
+      <c r="AS47">
+        <v>0</v>
+      </c>
+      <c r="AT47">
+        <v>0</v>
+      </c>
+      <c r="AU47">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22590,10 +24013,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU35"/>
+  <dimension ref="A1:AU47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y37" sqref="Y37"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="AM37" sqref="AM37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26693,6 +28116,1030 @@
         <v>605</v>
       </c>
     </row>
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="M37" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <v>8903</v>
+      </c>
+      <c r="N38">
+        <v>1985</v>
+      </c>
+      <c r="O38">
+        <v>1310</v>
+      </c>
+      <c r="P38">
+        <v>67</v>
+      </c>
+      <c r="Q38">
+        <v>35</v>
+      </c>
+      <c r="R38">
+        <v>728</v>
+      </c>
+      <c r="S38">
+        <v>727</v>
+      </c>
+      <c r="T38">
+        <v>34</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>477</v>
+      </c>
+      <c r="Y38">
+        <v>8310</v>
+      </c>
+      <c r="Z38">
+        <v>1941</v>
+      </c>
+      <c r="AA38">
+        <v>1946</v>
+      </c>
+      <c r="AB38">
+        <v>71</v>
+      </c>
+      <c r="AC38">
+        <v>33</v>
+      </c>
+      <c r="AD38">
+        <v>1478</v>
+      </c>
+      <c r="AE38">
+        <v>639</v>
+      </c>
+      <c r="AF38">
+        <v>36</v>
+      </c>
+      <c r="AG38">
+        <v>838</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>361</v>
+      </c>
+      <c r="AK38">
+        <v>8853</v>
+      </c>
+      <c r="AL38">
+        <v>1852</v>
+      </c>
+      <c r="AM38">
+        <v>2819</v>
+      </c>
+      <c r="AN38">
+        <v>70</v>
+      </c>
+      <c r="AO38">
+        <v>30</v>
+      </c>
+      <c r="AP38">
+        <v>2373</v>
+      </c>
+      <c r="AQ38">
+        <v>608</v>
+      </c>
+      <c r="AR38">
+        <v>42</v>
+      </c>
+      <c r="AS38">
+        <v>782</v>
+      </c>
+      <c r="AT38">
+        <v>982</v>
+      </c>
+      <c r="AU38">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <v>8556</v>
+      </c>
+      <c r="N39">
+        <v>1984</v>
+      </c>
+      <c r="O39">
+        <v>1306</v>
+      </c>
+      <c r="P39">
+        <v>67</v>
+      </c>
+      <c r="Q39">
+        <v>36</v>
+      </c>
+      <c r="R39">
+        <v>724</v>
+      </c>
+      <c r="S39">
+        <v>724</v>
+      </c>
+      <c r="T39">
+        <v>35</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>476</v>
+      </c>
+      <c r="Y39">
+        <v>8250</v>
+      </c>
+      <c r="Z39">
+        <v>1938</v>
+      </c>
+      <c r="AA39">
+        <v>1901</v>
+      </c>
+      <c r="AB39">
+        <v>62</v>
+      </c>
+      <c r="AC39">
+        <v>33</v>
+      </c>
+      <c r="AD39">
+        <v>1441</v>
+      </c>
+      <c r="AE39">
+        <v>626</v>
+      </c>
+      <c r="AF39">
+        <v>39</v>
+      </c>
+      <c r="AG39">
+        <v>813</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>362</v>
+      </c>
+      <c r="AK39">
+        <v>8576</v>
+      </c>
+      <c r="AL39">
+        <v>1992</v>
+      </c>
+      <c r="AM39">
+        <v>2744</v>
+      </c>
+      <c r="AN39">
+        <v>51</v>
+      </c>
+      <c r="AO39">
+        <v>29</v>
+      </c>
+      <c r="AP39">
+        <v>2323</v>
+      </c>
+      <c r="AQ39">
+        <v>589</v>
+      </c>
+      <c r="AR39">
+        <v>35</v>
+      </c>
+      <c r="AS39">
+        <v>768</v>
+      </c>
+      <c r="AT39">
+        <v>964</v>
+      </c>
+      <c r="AU39">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>8697</v>
+      </c>
+      <c r="N40">
+        <v>1957</v>
+      </c>
+      <c r="O40">
+        <v>1326</v>
+      </c>
+      <c r="P40">
+        <v>76</v>
+      </c>
+      <c r="Q40">
+        <v>35</v>
+      </c>
+      <c r="R40">
+        <v>737</v>
+      </c>
+      <c r="S40">
+        <v>736</v>
+      </c>
+      <c r="T40">
+        <v>35</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>474</v>
+      </c>
+      <c r="Y40">
+        <v>8530</v>
+      </c>
+      <c r="Z40">
+        <v>1887</v>
+      </c>
+      <c r="AA40">
+        <v>1898</v>
+      </c>
+      <c r="AB40">
+        <v>56</v>
+      </c>
+      <c r="AC40">
+        <v>33</v>
+      </c>
+      <c r="AD40">
+        <v>1445</v>
+      </c>
+      <c r="AE40">
+        <v>625</v>
+      </c>
+      <c r="AF40">
+        <v>37</v>
+      </c>
+      <c r="AG40">
+        <v>818</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>362</v>
+      </c>
+      <c r="AK40">
+        <v>8674</v>
+      </c>
+      <c r="AL40">
+        <v>2110</v>
+      </c>
+      <c r="AM40">
+        <v>2798</v>
+      </c>
+      <c r="AN40">
+        <v>61</v>
+      </c>
+      <c r="AO40">
+        <v>30</v>
+      </c>
+      <c r="AP40">
+        <v>2368</v>
+      </c>
+      <c r="AQ40">
+        <v>603</v>
+      </c>
+      <c r="AR40">
+        <v>37</v>
+      </c>
+      <c r="AS40">
+        <v>788</v>
+      </c>
+      <c r="AT40">
+        <v>975</v>
+      </c>
+      <c r="AU40">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <v>8603</v>
+      </c>
+      <c r="N41">
+        <v>1943</v>
+      </c>
+      <c r="O41">
+        <v>1349</v>
+      </c>
+      <c r="P41">
+        <v>69</v>
+      </c>
+      <c r="Q41">
+        <v>34</v>
+      </c>
+      <c r="R41">
+        <v>761</v>
+      </c>
+      <c r="S41">
+        <v>760</v>
+      </c>
+      <c r="T41">
+        <v>40</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>482</v>
+      </c>
+      <c r="Y41">
+        <v>8538</v>
+      </c>
+      <c r="Z41">
+        <v>1908</v>
+      </c>
+      <c r="AA41">
+        <v>1975</v>
+      </c>
+      <c r="AB41">
+        <v>72</v>
+      </c>
+      <c r="AC41">
+        <v>33</v>
+      </c>
+      <c r="AD41">
+        <v>1503</v>
+      </c>
+      <c r="AE41">
+        <v>648</v>
+      </c>
+      <c r="AF41">
+        <v>41</v>
+      </c>
+      <c r="AG41">
+        <v>854</v>
+      </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>364</v>
+      </c>
+      <c r="AK41">
+        <v>8599</v>
+      </c>
+      <c r="AL41">
+        <v>1987</v>
+      </c>
+      <c r="AM41">
+        <v>2847</v>
+      </c>
+      <c r="AN41">
+        <v>72</v>
+      </c>
+      <c r="AO41">
+        <v>30</v>
+      </c>
+      <c r="AP41">
+        <v>2400</v>
+      </c>
+      <c r="AQ41">
+        <v>610</v>
+      </c>
+      <c r="AR41">
+        <v>41</v>
+      </c>
+      <c r="AS41">
+        <v>795</v>
+      </c>
+      <c r="AT41">
+        <v>993</v>
+      </c>
+      <c r="AU41">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <v>8628</v>
+      </c>
+      <c r="N42">
+        <v>1986</v>
+      </c>
+      <c r="O42">
+        <v>1492</v>
+      </c>
+      <c r="P42">
+        <v>79</v>
+      </c>
+      <c r="Q42">
+        <v>34</v>
+      </c>
+      <c r="R42">
+        <v>809</v>
+      </c>
+      <c r="S42">
+        <v>808</v>
+      </c>
+      <c r="T42">
+        <v>35</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>567</v>
+      </c>
+      <c r="Y42">
+        <v>8505</v>
+      </c>
+      <c r="Z42">
+        <v>2034</v>
+      </c>
+      <c r="AA42">
+        <v>1911</v>
+      </c>
+      <c r="AB42">
+        <v>66</v>
+      </c>
+      <c r="AC42">
+        <v>33</v>
+      </c>
+      <c r="AD42">
+        <v>1444</v>
+      </c>
+      <c r="AE42">
+        <v>628</v>
+      </c>
+      <c r="AF42">
+        <v>40</v>
+      </c>
+      <c r="AG42">
+        <v>814</v>
+      </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>366</v>
+      </c>
+      <c r="AK42">
+        <v>8592</v>
+      </c>
+      <c r="AL42">
+        <v>1984</v>
+      </c>
+      <c r="AM42">
+        <v>2716</v>
+      </c>
+      <c r="AN42">
+        <v>70</v>
+      </c>
+      <c r="AO42">
+        <v>30</v>
+      </c>
+      <c r="AP42">
+        <v>2279</v>
+      </c>
+      <c r="AQ42">
+        <v>581</v>
+      </c>
+      <c r="AR42">
+        <v>38</v>
+      </c>
+      <c r="AS42">
+        <v>756</v>
+      </c>
+      <c r="AT42">
+        <v>940</v>
+      </c>
+      <c r="AU42">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <v>8633</v>
+      </c>
+      <c r="N43">
+        <v>1960</v>
+      </c>
+      <c r="O43">
+        <v>1382</v>
+      </c>
+      <c r="P43">
+        <v>74</v>
+      </c>
+      <c r="Q43">
+        <v>37</v>
+      </c>
+      <c r="R43">
+        <v>767</v>
+      </c>
+      <c r="S43">
+        <v>766</v>
+      </c>
+      <c r="T43">
+        <v>36</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>500</v>
+      </c>
+      <c r="Y43">
+        <v>8491</v>
+      </c>
+      <c r="Z43">
+        <v>1930</v>
+      </c>
+      <c r="AA43">
+        <v>1960</v>
+      </c>
+      <c r="AB43">
+        <v>73</v>
+      </c>
+      <c r="AC43">
+        <v>32</v>
+      </c>
+      <c r="AD43">
+        <v>1489</v>
+      </c>
+      <c r="AE43">
+        <v>648</v>
+      </c>
+      <c r="AF43">
+        <v>48</v>
+      </c>
+      <c r="AG43">
+        <v>840</v>
+      </c>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>362</v>
+      </c>
+      <c r="AK43">
+        <v>8570</v>
+      </c>
+      <c r="AL43">
+        <v>1986</v>
+      </c>
+      <c r="AM43">
+        <v>2672</v>
+      </c>
+      <c r="AN43">
+        <v>56</v>
+      </c>
+      <c r="AO43">
+        <v>29</v>
+      </c>
+      <c r="AP43">
+        <v>2250</v>
+      </c>
+      <c r="AQ43">
+        <v>574</v>
+      </c>
+      <c r="AR43">
+        <v>33</v>
+      </c>
+      <c r="AS43">
+        <v>746</v>
+      </c>
+      <c r="AT43">
+        <v>929</v>
+      </c>
+      <c r="AU43">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <v>8826</v>
+      </c>
+      <c r="N44">
+        <v>2019</v>
+      </c>
+      <c r="O44">
+        <v>1337</v>
+      </c>
+      <c r="P44">
+        <v>67</v>
+      </c>
+      <c r="Q44">
+        <v>35</v>
+      </c>
+      <c r="R44">
+        <v>753</v>
+      </c>
+      <c r="S44">
+        <v>752</v>
+      </c>
+      <c r="T44">
+        <v>44</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>478</v>
+      </c>
+      <c r="Y44">
+        <v>8505</v>
+      </c>
+      <c r="Z44">
+        <v>1871</v>
+      </c>
+      <c r="AA44">
+        <v>1937</v>
+      </c>
+      <c r="AB44">
+        <v>47</v>
+      </c>
+      <c r="AC44">
+        <v>35</v>
+      </c>
+      <c r="AD44">
+        <v>1483</v>
+      </c>
+      <c r="AE44">
+        <v>645</v>
+      </c>
+      <c r="AF44">
+        <v>39</v>
+      </c>
+      <c r="AG44">
+        <v>837</v>
+      </c>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>370</v>
+      </c>
+      <c r="AK44">
+        <v>8554</v>
+      </c>
+      <c r="AL44">
+        <v>1966</v>
+      </c>
+      <c r="AM44">
+        <v>2793</v>
+      </c>
+      <c r="AN44">
+        <v>69</v>
+      </c>
+      <c r="AO44">
+        <v>29</v>
+      </c>
+      <c r="AP44">
+        <v>2356</v>
+      </c>
+      <c r="AQ44">
+        <v>604</v>
+      </c>
+      <c r="AR44">
+        <v>43</v>
+      </c>
+      <c r="AS44">
+        <v>777</v>
+      </c>
+      <c r="AT44">
+        <v>972</v>
+      </c>
+      <c r="AU44">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <v>9144</v>
+      </c>
+      <c r="N45">
+        <v>1955</v>
+      </c>
+      <c r="O45">
+        <v>1570</v>
+      </c>
+      <c r="P45">
+        <v>71</v>
+      </c>
+      <c r="Q45">
+        <v>35</v>
+      </c>
+      <c r="R45">
+        <v>838</v>
+      </c>
+      <c r="S45">
+        <v>837</v>
+      </c>
+      <c r="T45">
+        <v>39</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>622</v>
+      </c>
+      <c r="Y45">
+        <v>8562</v>
+      </c>
+      <c r="Z45">
+        <v>1868</v>
+      </c>
+      <c r="AA45">
+        <v>1898</v>
+      </c>
+      <c r="AB45">
+        <v>70</v>
+      </c>
+      <c r="AC45">
+        <v>32</v>
+      </c>
+      <c r="AD45">
+        <v>1433</v>
+      </c>
+      <c r="AE45">
+        <v>631</v>
+      </c>
+      <c r="AF45">
+        <v>50</v>
+      </c>
+      <c r="AG45">
+        <v>801</v>
+      </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>361</v>
+      </c>
+      <c r="AK45">
+        <v>8681</v>
+      </c>
+      <c r="AL45">
+        <v>1999</v>
+      </c>
+      <c r="AM45">
+        <v>2802</v>
+      </c>
+      <c r="AN45">
+        <v>67</v>
+      </c>
+      <c r="AO45">
+        <v>30</v>
+      </c>
+      <c r="AP45">
+        <v>2366</v>
+      </c>
+      <c r="AQ45">
+        <v>602</v>
+      </c>
+      <c r="AR45">
+        <v>42</v>
+      </c>
+      <c r="AS45">
+        <v>788</v>
+      </c>
+      <c r="AT45">
+        <v>973</v>
+      </c>
+      <c r="AU45">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <v>8922</v>
+      </c>
+      <c r="N46">
+        <v>1889</v>
+      </c>
+      <c r="O46">
+        <v>1330</v>
+      </c>
+      <c r="P46">
+        <v>70</v>
+      </c>
+      <c r="Q46">
+        <v>35</v>
+      </c>
+      <c r="R46">
+        <v>746</v>
+      </c>
+      <c r="S46">
+        <v>746</v>
+      </c>
+      <c r="T46">
+        <v>41</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>476</v>
+      </c>
+      <c r="Y46">
+        <v>8293</v>
+      </c>
+      <c r="Z46">
+        <v>1965</v>
+      </c>
+      <c r="AA46">
+        <v>1948</v>
+      </c>
+      <c r="AB46">
+        <v>49</v>
+      </c>
+      <c r="AC46">
+        <v>33</v>
+      </c>
+      <c r="AD46">
+        <v>1495</v>
+      </c>
+      <c r="AE46">
+        <v>644</v>
+      </c>
+      <c r="AF46">
+        <v>34</v>
+      </c>
+      <c r="AG46">
+        <v>850</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>369</v>
+      </c>
+      <c r="AK46">
+        <v>8560</v>
+      </c>
+      <c r="AL46">
+        <v>2088</v>
+      </c>
+      <c r="AM46">
+        <v>2805</v>
+      </c>
+      <c r="AN46">
+        <v>66</v>
+      </c>
+      <c r="AO46">
+        <v>30</v>
+      </c>
+      <c r="AP46">
+        <v>2371</v>
+      </c>
+      <c r="AQ46">
+        <v>602</v>
+      </c>
+      <c r="AR46">
+        <v>36</v>
+      </c>
+      <c r="AS46">
+        <v>789</v>
+      </c>
+      <c r="AT46">
+        <v>978</v>
+      </c>
+      <c r="AU46">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <v>8617</v>
+      </c>
+      <c r="N47">
+        <v>1898</v>
+      </c>
+      <c r="O47">
+        <v>1330</v>
+      </c>
+      <c r="P47">
+        <v>65</v>
+      </c>
+      <c r="Q47">
+        <v>34</v>
+      </c>
+      <c r="R47">
+        <v>746</v>
+      </c>
+      <c r="S47">
+        <v>745</v>
+      </c>
+      <c r="T47">
+        <v>45</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>481</v>
+      </c>
+      <c r="Y47">
+        <v>8363</v>
+      </c>
+      <c r="Z47">
+        <v>1896</v>
+      </c>
+      <c r="AA47">
+        <v>1968</v>
+      </c>
+      <c r="AB47">
+        <v>64</v>
+      </c>
+      <c r="AC47">
+        <v>33</v>
+      </c>
+      <c r="AD47">
+        <v>1497</v>
+      </c>
+      <c r="AE47">
+        <v>652</v>
+      </c>
+      <c r="AF47">
+        <v>35</v>
+      </c>
+      <c r="AG47">
+        <v>844</v>
+      </c>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>372</v>
+      </c>
+      <c r="AK47">
+        <v>8528</v>
+      </c>
+      <c r="AL47">
+        <v>2001</v>
+      </c>
+      <c r="AM47">
+        <v>2767</v>
+      </c>
+      <c r="AN47">
+        <v>51</v>
+      </c>
+      <c r="AO47">
+        <v>29</v>
+      </c>
+      <c r="AP47">
+        <v>2343</v>
+      </c>
+      <c r="AQ47">
+        <v>597</v>
+      </c>
+      <c r="AR47">
+        <v>35</v>
+      </c>
+      <c r="AS47">
+        <v>775</v>
+      </c>
+      <c r="AT47">
+        <v>970</v>
+      </c>
+      <c r="AU47">
+        <v>337</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26700,10 +29147,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU35"/>
+  <dimension ref="A1:AU47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="AJ36" sqref="AJ36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29992,6 +32439,1030 @@
         <v>3195</v>
       </c>
     </row>
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="M37" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <v>3555</v>
+      </c>
+      <c r="N38">
+        <v>8023</v>
+      </c>
+      <c r="O38">
+        <v>10816</v>
+      </c>
+      <c r="P38">
+        <v>44</v>
+      </c>
+      <c r="Q38">
+        <v>74</v>
+      </c>
+      <c r="R38">
+        <v>6138</v>
+      </c>
+      <c r="S38">
+        <v>6137</v>
+      </c>
+      <c r="T38">
+        <v>390</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>4552</v>
+      </c>
+      <c r="Y38">
+        <v>3732</v>
+      </c>
+      <c r="Z38">
+        <v>8070</v>
+      </c>
+      <c r="AA38">
+        <v>9388</v>
+      </c>
+      <c r="AB38">
+        <v>42</v>
+      </c>
+      <c r="AC38">
+        <v>66</v>
+      </c>
+      <c r="AD38">
+        <v>7139</v>
+      </c>
+      <c r="AE38">
+        <v>3158</v>
+      </c>
+      <c r="AF38">
+        <v>405</v>
+      </c>
+      <c r="AG38">
+        <v>3978</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>2133</v>
+      </c>
+      <c r="AK38">
+        <v>3843</v>
+      </c>
+      <c r="AL38">
+        <v>8371</v>
+      </c>
+      <c r="AM38">
+        <v>12184</v>
+      </c>
+      <c r="AN38">
+        <v>40</v>
+      </c>
+      <c r="AO38">
+        <v>66</v>
+      </c>
+      <c r="AP38">
+        <v>10093</v>
+      </c>
+      <c r="AQ38">
+        <v>2922</v>
+      </c>
+      <c r="AR38">
+        <v>393</v>
+      </c>
+      <c r="AS38">
+        <v>3657</v>
+      </c>
+      <c r="AT38">
+        <v>3510</v>
+      </c>
+      <c r="AU38">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <v>3648</v>
+      </c>
+      <c r="N39">
+        <v>8286</v>
+      </c>
+      <c r="O39">
+        <v>7760</v>
+      </c>
+      <c r="P39">
+        <v>44</v>
+      </c>
+      <c r="Q39">
+        <v>75</v>
+      </c>
+      <c r="R39">
+        <v>4545</v>
+      </c>
+      <c r="S39">
+        <v>4544</v>
+      </c>
+      <c r="T39">
+        <v>410</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>3087</v>
+      </c>
+      <c r="Y39">
+        <v>3714</v>
+      </c>
+      <c r="Z39">
+        <v>8331</v>
+      </c>
+      <c r="AA39">
+        <v>9435</v>
+      </c>
+      <c r="AB39">
+        <v>35</v>
+      </c>
+      <c r="AC39">
+        <v>68</v>
+      </c>
+      <c r="AD39">
+        <v>7178</v>
+      </c>
+      <c r="AE39">
+        <v>3157</v>
+      </c>
+      <c r="AF39">
+        <v>380</v>
+      </c>
+      <c r="AG39">
+        <v>4018</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>2146</v>
+      </c>
+      <c r="AK39">
+        <v>3822</v>
+      </c>
+      <c r="AL39">
+        <v>8152</v>
+      </c>
+      <c r="AM39">
+        <v>12136</v>
+      </c>
+      <c r="AN39">
+        <v>42</v>
+      </c>
+      <c r="AO39">
+        <v>62</v>
+      </c>
+      <c r="AP39">
+        <v>10060</v>
+      </c>
+      <c r="AQ39">
+        <v>2894</v>
+      </c>
+      <c r="AR39">
+        <v>384</v>
+      </c>
+      <c r="AS39">
+        <v>3646</v>
+      </c>
+      <c r="AT39">
+        <v>3516</v>
+      </c>
+      <c r="AU39">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>3688</v>
+      </c>
+      <c r="N40">
+        <v>8344</v>
+      </c>
+      <c r="O40">
+        <v>9535</v>
+      </c>
+      <c r="P40">
+        <v>44</v>
+      </c>
+      <c r="Q40">
+        <v>75</v>
+      </c>
+      <c r="R40">
+        <v>5286</v>
+      </c>
+      <c r="S40">
+        <v>5285</v>
+      </c>
+      <c r="T40">
+        <v>360</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>4120</v>
+      </c>
+      <c r="Y40">
+        <v>3639</v>
+      </c>
+      <c r="Z40">
+        <v>8175</v>
+      </c>
+      <c r="AA40">
+        <v>9472</v>
+      </c>
+      <c r="AB40">
+        <v>42</v>
+      </c>
+      <c r="AC40">
+        <v>68</v>
+      </c>
+      <c r="AD40">
+        <v>7216</v>
+      </c>
+      <c r="AE40">
+        <v>3182</v>
+      </c>
+      <c r="AF40">
+        <v>395</v>
+      </c>
+      <c r="AG40">
+        <v>4031</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>2139</v>
+      </c>
+      <c r="AK40">
+        <v>3813</v>
+      </c>
+      <c r="AL40">
+        <v>8147</v>
+      </c>
+      <c r="AM40">
+        <v>12493</v>
+      </c>
+      <c r="AN40">
+        <v>49</v>
+      </c>
+      <c r="AO40">
+        <v>63</v>
+      </c>
+      <c r="AP40">
+        <v>10395</v>
+      </c>
+      <c r="AQ40">
+        <v>2987</v>
+      </c>
+      <c r="AR40">
+        <v>390</v>
+      </c>
+      <c r="AS40">
+        <v>3776</v>
+      </c>
+      <c r="AT40">
+        <v>3629</v>
+      </c>
+      <c r="AU40">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <v>3692</v>
+      </c>
+      <c r="N41">
+        <v>7907</v>
+      </c>
+      <c r="O41">
+        <v>7889</v>
+      </c>
+      <c r="P41">
+        <v>47</v>
+      </c>
+      <c r="Q41">
+        <v>74</v>
+      </c>
+      <c r="R41">
+        <v>4659</v>
+      </c>
+      <c r="S41">
+        <v>4657</v>
+      </c>
+      <c r="T41">
+        <v>409</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>3099</v>
+      </c>
+      <c r="Y41">
+        <v>3693</v>
+      </c>
+      <c r="Z41">
+        <v>8109</v>
+      </c>
+      <c r="AA41">
+        <v>9598</v>
+      </c>
+      <c r="AB41">
+        <v>43</v>
+      </c>
+      <c r="AC41">
+        <v>66</v>
+      </c>
+      <c r="AD41">
+        <v>7336</v>
+      </c>
+      <c r="AE41">
+        <v>3207</v>
+      </c>
+      <c r="AF41">
+        <v>394</v>
+      </c>
+      <c r="AG41">
+        <v>4126</v>
+      </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>2146</v>
+      </c>
+      <c r="AK41">
+        <v>3611</v>
+      </c>
+      <c r="AL41">
+        <v>8306</v>
+      </c>
+      <c r="AM41">
+        <v>11980</v>
+      </c>
+      <c r="AN41">
+        <v>35</v>
+      </c>
+      <c r="AO41">
+        <v>67</v>
+      </c>
+      <c r="AP41">
+        <v>9916</v>
+      </c>
+      <c r="AQ41">
+        <v>2862</v>
+      </c>
+      <c r="AR41">
+        <v>381</v>
+      </c>
+      <c r="AS41">
+        <v>3597</v>
+      </c>
+      <c r="AT41">
+        <v>3452</v>
+      </c>
+      <c r="AU41">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <v>3583</v>
+      </c>
+      <c r="N42">
+        <v>8282</v>
+      </c>
+      <c r="O42">
+        <v>7811</v>
+      </c>
+      <c r="P42">
+        <v>44</v>
+      </c>
+      <c r="Q42">
+        <v>77</v>
+      </c>
+      <c r="R42">
+        <v>4591</v>
+      </c>
+      <c r="S42">
+        <v>4589</v>
+      </c>
+      <c r="T42">
+        <v>421</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>3090</v>
+      </c>
+      <c r="Y42">
+        <v>3677</v>
+      </c>
+      <c r="Z42">
+        <v>8375</v>
+      </c>
+      <c r="AA42">
+        <v>9580</v>
+      </c>
+      <c r="AB42">
+        <v>48</v>
+      </c>
+      <c r="AC42">
+        <v>67</v>
+      </c>
+      <c r="AD42">
+        <v>7311</v>
+      </c>
+      <c r="AE42">
+        <v>3202</v>
+      </c>
+      <c r="AF42">
+        <v>390</v>
+      </c>
+      <c r="AG42">
+        <v>4106</v>
+      </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>2148</v>
+      </c>
+      <c r="AK42">
+        <v>3694</v>
+      </c>
+      <c r="AL42">
+        <v>8093</v>
+      </c>
+      <c r="AM42">
+        <v>12263</v>
+      </c>
+      <c r="AN42">
+        <v>44</v>
+      </c>
+      <c r="AO42">
+        <v>65</v>
+      </c>
+      <c r="AP42">
+        <v>10168</v>
+      </c>
+      <c r="AQ42">
+        <v>2931</v>
+      </c>
+      <c r="AR42">
+        <v>390</v>
+      </c>
+      <c r="AS42">
+        <v>3692</v>
+      </c>
+      <c r="AT42">
+        <v>3540</v>
+      </c>
+      <c r="AU42">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <v>3689</v>
+      </c>
+      <c r="N43">
+        <v>8145</v>
+      </c>
+      <c r="O43">
+        <v>7849</v>
+      </c>
+      <c r="P43">
+        <v>43</v>
+      </c>
+      <c r="Q43">
+        <v>73</v>
+      </c>
+      <c r="R43">
+        <v>4623</v>
+      </c>
+      <c r="S43">
+        <v>4621</v>
+      </c>
+      <c r="T43">
+        <v>385</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>3100</v>
+      </c>
+      <c r="Y43">
+        <v>3708</v>
+      </c>
+      <c r="Z43">
+        <v>8267</v>
+      </c>
+      <c r="AA43">
+        <v>9552</v>
+      </c>
+      <c r="AB43">
+        <v>44</v>
+      </c>
+      <c r="AC43">
+        <v>69</v>
+      </c>
+      <c r="AD43">
+        <v>7289</v>
+      </c>
+      <c r="AE43">
+        <v>3187</v>
+      </c>
+      <c r="AF43">
+        <v>397</v>
+      </c>
+      <c r="AG43">
+        <v>4100</v>
+      </c>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>2143</v>
+      </c>
+      <c r="AK43">
+        <v>3558</v>
+      </c>
+      <c r="AL43">
+        <v>8152</v>
+      </c>
+      <c r="AM43">
+        <v>12002</v>
+      </c>
+      <c r="AN43">
+        <v>43</v>
+      </c>
+      <c r="AO43">
+        <v>63</v>
+      </c>
+      <c r="AP43">
+        <v>9914</v>
+      </c>
+      <c r="AQ43">
+        <v>2882</v>
+      </c>
+      <c r="AR43">
+        <v>394</v>
+      </c>
+      <c r="AS43">
+        <v>3589</v>
+      </c>
+      <c r="AT43">
+        <v>3439</v>
+      </c>
+      <c r="AU43">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <v>3770</v>
+      </c>
+      <c r="N44">
+        <v>8111</v>
+      </c>
+      <c r="O44">
+        <v>7773</v>
+      </c>
+      <c r="P44">
+        <v>41</v>
+      </c>
+      <c r="Q44">
+        <v>74</v>
+      </c>
+      <c r="R44">
+        <v>4562</v>
+      </c>
+      <c r="S44">
+        <v>4560</v>
+      </c>
+      <c r="T44">
+        <v>412</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>3086</v>
+      </c>
+      <c r="Y44">
+        <v>3713</v>
+      </c>
+      <c r="Z44">
+        <v>8333</v>
+      </c>
+      <c r="AA44">
+        <v>9491</v>
+      </c>
+      <c r="AB44">
+        <v>50</v>
+      </c>
+      <c r="AC44">
+        <v>70</v>
+      </c>
+      <c r="AD44">
+        <v>7220</v>
+      </c>
+      <c r="AE44">
+        <v>3171</v>
+      </c>
+      <c r="AF44">
+        <v>403</v>
+      </c>
+      <c r="AG44">
+        <v>4046</v>
+      </c>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>2142</v>
+      </c>
+      <c r="AK44">
+        <v>3661</v>
+      </c>
+      <c r="AL44">
+        <v>8341</v>
+      </c>
+      <c r="AM44">
+        <v>12340</v>
+      </c>
+      <c r="AN44">
+        <v>43</v>
+      </c>
+      <c r="AO44">
+        <v>64</v>
+      </c>
+      <c r="AP44">
+        <v>10251</v>
+      </c>
+      <c r="AQ44">
+        <v>2975</v>
+      </c>
+      <c r="AR44">
+        <v>409</v>
+      </c>
+      <c r="AS44">
+        <v>3714</v>
+      </c>
+      <c r="AT44">
+        <v>3558</v>
+      </c>
+      <c r="AU44">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <v>3860</v>
+      </c>
+      <c r="N45">
+        <v>8245</v>
+      </c>
+      <c r="O45">
+        <v>10324</v>
+      </c>
+      <c r="P45">
+        <v>48</v>
+      </c>
+      <c r="Q45">
+        <v>74</v>
+      </c>
+      <c r="R45">
+        <v>5957</v>
+      </c>
+      <c r="S45">
+        <v>5956</v>
+      </c>
+      <c r="T45">
+        <v>394</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>4236</v>
+      </c>
+      <c r="Y45">
+        <v>3820</v>
+      </c>
+      <c r="Z45">
+        <v>8327</v>
+      </c>
+      <c r="AA45">
+        <v>9514</v>
+      </c>
+      <c r="AB45">
+        <v>41</v>
+      </c>
+      <c r="AC45">
+        <v>65</v>
+      </c>
+      <c r="AD45">
+        <v>7253</v>
+      </c>
+      <c r="AE45">
+        <v>3170</v>
+      </c>
+      <c r="AF45">
+        <v>379</v>
+      </c>
+      <c r="AG45">
+        <v>4081</v>
+      </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>2147</v>
+      </c>
+      <c r="AK45">
+        <v>3472</v>
+      </c>
+      <c r="AL45">
+        <v>8001</v>
+      </c>
+      <c r="AM45">
+        <v>12084</v>
+      </c>
+      <c r="AN45">
+        <v>45</v>
+      </c>
+      <c r="AO45">
+        <v>71</v>
+      </c>
+      <c r="AP45">
+        <v>9981</v>
+      </c>
+      <c r="AQ45">
+        <v>2911</v>
+      </c>
+      <c r="AR45">
+        <v>397</v>
+      </c>
+      <c r="AS45">
+        <v>3604</v>
+      </c>
+      <c r="AT45">
+        <v>3463</v>
+      </c>
+      <c r="AU45">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <v>3655</v>
+      </c>
+      <c r="N46">
+        <v>8211</v>
+      </c>
+      <c r="O46">
+        <v>7851</v>
+      </c>
+      <c r="P46">
+        <v>45</v>
+      </c>
+      <c r="Q46">
+        <v>73</v>
+      </c>
+      <c r="R46">
+        <v>4609</v>
+      </c>
+      <c r="S46">
+        <v>4608</v>
+      </c>
+      <c r="T46">
+        <v>381</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>3114</v>
+      </c>
+      <c r="Y46">
+        <v>3734</v>
+      </c>
+      <c r="Z46">
+        <v>8187</v>
+      </c>
+      <c r="AA46">
+        <v>9440</v>
+      </c>
+      <c r="AB46">
+        <v>39</v>
+      </c>
+      <c r="AC46">
+        <v>68</v>
+      </c>
+      <c r="AD46">
+        <v>7189</v>
+      </c>
+      <c r="AE46">
+        <v>3162</v>
+      </c>
+      <c r="AF46">
+        <v>387</v>
+      </c>
+      <c r="AG46">
+        <v>4024</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>2136</v>
+      </c>
+      <c r="AK46">
+        <v>3445</v>
+      </c>
+      <c r="AL46">
+        <v>7897</v>
+      </c>
+      <c r="AM46">
+        <v>12156</v>
+      </c>
+      <c r="AN46">
+        <v>43</v>
+      </c>
+      <c r="AO46">
+        <v>64</v>
+      </c>
+      <c r="AP46">
+        <v>10066</v>
+      </c>
+      <c r="AQ46">
+        <v>2900</v>
+      </c>
+      <c r="AR46">
+        <v>377</v>
+      </c>
+      <c r="AS46">
+        <v>3652</v>
+      </c>
+      <c r="AT46">
+        <v>3510</v>
+      </c>
+      <c r="AU46">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <v>3652</v>
+      </c>
+      <c r="N47">
+        <v>8376</v>
+      </c>
+      <c r="O47">
+        <v>7807</v>
+      </c>
+      <c r="P47">
+        <v>41</v>
+      </c>
+      <c r="Q47">
+        <v>74</v>
+      </c>
+      <c r="R47">
+        <v>4568</v>
+      </c>
+      <c r="S47">
+        <v>4566</v>
+      </c>
+      <c r="T47">
+        <v>395</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>3115</v>
+      </c>
+      <c r="Y47">
+        <v>3849</v>
+      </c>
+      <c r="Z47">
+        <v>8330</v>
+      </c>
+      <c r="AA47">
+        <v>11661</v>
+      </c>
+      <c r="AB47">
+        <v>42</v>
+      </c>
+      <c r="AC47">
+        <v>66</v>
+      </c>
+      <c r="AD47">
+        <v>8636</v>
+      </c>
+      <c r="AE47">
+        <v>3855</v>
+      </c>
+      <c r="AF47">
+        <v>393</v>
+      </c>
+      <c r="AG47">
+        <v>4779</v>
+      </c>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>2909</v>
+      </c>
+      <c r="AK47">
+        <v>3635</v>
+      </c>
+      <c r="AL47">
+        <v>8291</v>
+      </c>
+      <c r="AM47">
+        <v>11892</v>
+      </c>
+      <c r="AN47">
+        <v>39</v>
+      </c>
+      <c r="AO47">
+        <v>68</v>
+      </c>
+      <c r="AP47">
+        <v>9813</v>
+      </c>
+      <c r="AQ47">
+        <v>2863</v>
+      </c>
+      <c r="AR47">
+        <v>401</v>
+      </c>
+      <c r="AS47">
+        <v>3545</v>
+      </c>
+      <c r="AT47">
+        <v>3401</v>
+      </c>
+      <c r="AU47">
+        <v>1941</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29999,10 +33470,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU35"/>
+  <dimension ref="A1:AU47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AW7" sqref="AW7"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="AL36" sqref="AL36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33282,6 +36753,1030 @@
         <v>48</v>
       </c>
     </row>
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="M37" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <v>22382</v>
+      </c>
+      <c r="N38">
+        <v>18871</v>
+      </c>
+      <c r="O38">
+        <v>2412</v>
+      </c>
+      <c r="P38">
+        <v>215</v>
+      </c>
+      <c r="Q38">
+        <v>4</v>
+      </c>
+      <c r="R38">
+        <v>1366</v>
+      </c>
+      <c r="S38">
+        <v>1366</v>
+      </c>
+      <c r="T38">
+        <v>533</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>823</v>
+      </c>
+      <c r="Y38">
+        <v>21517</v>
+      </c>
+      <c r="Z38">
+        <v>18623</v>
+      </c>
+      <c r="AA38">
+        <v>929</v>
+      </c>
+      <c r="AB38">
+        <v>238</v>
+      </c>
+      <c r="AC38">
+        <v>0</v>
+      </c>
+      <c r="AD38">
+        <v>629</v>
+      </c>
+      <c r="AE38">
+        <v>585</v>
+      </c>
+      <c r="AF38">
+        <v>541</v>
+      </c>
+      <c r="AG38">
+        <v>44</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>61</v>
+      </c>
+      <c r="AK38">
+        <v>20149</v>
+      </c>
+      <c r="AL38">
+        <v>18381</v>
+      </c>
+      <c r="AM38">
+        <v>895</v>
+      </c>
+      <c r="AN38">
+        <v>235</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AP38">
+        <v>628</v>
+      </c>
+      <c r="AQ38">
+        <v>586</v>
+      </c>
+      <c r="AR38">
+        <v>564</v>
+      </c>
+      <c r="AS38">
+        <v>21</v>
+      </c>
+      <c r="AT38">
+        <v>20</v>
+      </c>
+      <c r="AU38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <v>21839</v>
+      </c>
+      <c r="N39">
+        <v>18787</v>
+      </c>
+      <c r="O39">
+        <v>2445</v>
+      </c>
+      <c r="P39">
+        <v>236</v>
+      </c>
+      <c r="Q39">
+        <v>5</v>
+      </c>
+      <c r="R39">
+        <v>1411</v>
+      </c>
+      <c r="S39">
+        <v>1411</v>
+      </c>
+      <c r="T39">
+        <v>594</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>791</v>
+      </c>
+      <c r="Y39">
+        <v>20324</v>
+      </c>
+      <c r="Z39">
+        <v>18321</v>
+      </c>
+      <c r="AA39">
+        <v>958</v>
+      </c>
+      <c r="AB39">
+        <v>233</v>
+      </c>
+      <c r="AC39">
+        <v>0</v>
+      </c>
+      <c r="AD39">
+        <v>663</v>
+      </c>
+      <c r="AE39">
+        <v>617</v>
+      </c>
+      <c r="AF39">
+        <v>573</v>
+      </c>
+      <c r="AG39">
+        <v>45</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>61</v>
+      </c>
+      <c r="AK39">
+        <v>22761</v>
+      </c>
+      <c r="AL39">
+        <v>18310</v>
+      </c>
+      <c r="AM39">
+        <v>907</v>
+      </c>
+      <c r="AN39">
+        <v>230</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AP39">
+        <v>644</v>
+      </c>
+      <c r="AQ39">
+        <v>602</v>
+      </c>
+      <c r="AR39">
+        <v>580</v>
+      </c>
+      <c r="AS39">
+        <v>21</v>
+      </c>
+      <c r="AT39">
+        <v>20</v>
+      </c>
+      <c r="AU39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>21101</v>
+      </c>
+      <c r="N40">
+        <v>18639</v>
+      </c>
+      <c r="O40">
+        <v>2385</v>
+      </c>
+      <c r="P40">
+        <v>228</v>
+      </c>
+      <c r="Q40">
+        <v>5</v>
+      </c>
+      <c r="R40">
+        <v>1367</v>
+      </c>
+      <c r="S40">
+        <v>1367</v>
+      </c>
+      <c r="T40">
+        <v>557</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>782</v>
+      </c>
+      <c r="Y40">
+        <v>21567</v>
+      </c>
+      <c r="Z40">
+        <v>18719</v>
+      </c>
+      <c r="AA40">
+        <v>941</v>
+      </c>
+      <c r="AB40">
+        <v>233</v>
+      </c>
+      <c r="AC40">
+        <v>0</v>
+      </c>
+      <c r="AD40">
+        <v>646</v>
+      </c>
+      <c r="AE40">
+        <v>601</v>
+      </c>
+      <c r="AF40">
+        <v>558</v>
+      </c>
+      <c r="AG40">
+        <v>44</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>60</v>
+      </c>
+      <c r="AK40">
+        <v>20110</v>
+      </c>
+      <c r="AL40">
+        <v>18458</v>
+      </c>
+      <c r="AM40">
+        <v>865</v>
+      </c>
+      <c r="AN40">
+        <v>220</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>613</v>
+      </c>
+      <c r="AQ40">
+        <v>572</v>
+      </c>
+      <c r="AR40">
+        <v>551</v>
+      </c>
+      <c r="AS40">
+        <v>20</v>
+      </c>
+      <c r="AT40">
+        <v>20</v>
+      </c>
+      <c r="AU40">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <v>21684</v>
+      </c>
+      <c r="N41">
+        <v>18699</v>
+      </c>
+      <c r="O41">
+        <v>2427</v>
+      </c>
+      <c r="P41">
+        <v>223</v>
+      </c>
+      <c r="Q41">
+        <v>5</v>
+      </c>
+      <c r="R41">
+        <v>1408</v>
+      </c>
+      <c r="S41">
+        <v>1408</v>
+      </c>
+      <c r="T41">
+        <v>591</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>788</v>
+      </c>
+      <c r="Y41">
+        <v>22360</v>
+      </c>
+      <c r="Z41">
+        <v>18968</v>
+      </c>
+      <c r="AA41">
+        <v>939</v>
+      </c>
+      <c r="AB41">
+        <v>222</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>654</v>
+      </c>
+      <c r="AE41">
+        <v>609</v>
+      </c>
+      <c r="AF41">
+        <v>564</v>
+      </c>
+      <c r="AG41">
+        <v>45</v>
+      </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>62</v>
+      </c>
+      <c r="AK41">
+        <v>19945</v>
+      </c>
+      <c r="AL41">
+        <v>18338</v>
+      </c>
+      <c r="AM41">
+        <v>913</v>
+      </c>
+      <c r="AN41">
+        <v>255</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>626</v>
+      </c>
+      <c r="AQ41">
+        <v>584</v>
+      </c>
+      <c r="AR41">
+        <v>562</v>
+      </c>
+      <c r="AS41">
+        <v>21</v>
+      </c>
+      <c r="AT41">
+        <v>20</v>
+      </c>
+      <c r="AU41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <v>21652</v>
+      </c>
+      <c r="N42">
+        <v>18710</v>
+      </c>
+      <c r="O42">
+        <v>3080</v>
+      </c>
+      <c r="P42">
+        <v>248</v>
+      </c>
+      <c r="Q42">
+        <v>8</v>
+      </c>
+      <c r="R42">
+        <v>1619</v>
+      </c>
+      <c r="S42">
+        <v>1619</v>
+      </c>
+      <c r="T42">
+        <v>550</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>1202</v>
+      </c>
+      <c r="Y42">
+        <v>21559</v>
+      </c>
+      <c r="Z42">
+        <v>18620</v>
+      </c>
+      <c r="AA42">
+        <v>924</v>
+      </c>
+      <c r="AB42">
+        <v>222</v>
+      </c>
+      <c r="AC42">
+        <v>0</v>
+      </c>
+      <c r="AD42">
+        <v>641</v>
+      </c>
+      <c r="AE42">
+        <v>597</v>
+      </c>
+      <c r="AF42">
+        <v>553</v>
+      </c>
+      <c r="AG42">
+        <v>43</v>
+      </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>60</v>
+      </c>
+      <c r="AK42">
+        <v>19953</v>
+      </c>
+      <c r="AL42">
+        <v>18307</v>
+      </c>
+      <c r="AM42">
+        <v>876</v>
+      </c>
+      <c r="AN42">
+        <v>233</v>
+      </c>
+      <c r="AO42">
+        <v>0</v>
+      </c>
+      <c r="AP42">
+        <v>611</v>
+      </c>
+      <c r="AQ42">
+        <v>568</v>
+      </c>
+      <c r="AR42">
+        <v>547</v>
+      </c>
+      <c r="AS42">
+        <v>21</v>
+      </c>
+      <c r="AT42">
+        <v>20</v>
+      </c>
+      <c r="AU42">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <v>21642</v>
+      </c>
+      <c r="N43">
+        <v>18683</v>
+      </c>
+      <c r="O43">
+        <v>2482</v>
+      </c>
+      <c r="P43">
+        <v>219</v>
+      </c>
+      <c r="Q43">
+        <v>5</v>
+      </c>
+      <c r="R43">
+        <v>1420</v>
+      </c>
+      <c r="S43">
+        <v>1420</v>
+      </c>
+      <c r="T43">
+        <v>574</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>835</v>
+      </c>
+      <c r="Y43">
+        <v>21403</v>
+      </c>
+      <c r="Z43">
+        <v>19230</v>
+      </c>
+      <c r="AA43">
+        <v>942</v>
+      </c>
+      <c r="AB43">
+        <v>231</v>
+      </c>
+      <c r="AC43">
+        <v>0</v>
+      </c>
+      <c r="AD43">
+        <v>649</v>
+      </c>
+      <c r="AE43">
+        <v>604</v>
+      </c>
+      <c r="AF43">
+        <v>560</v>
+      </c>
+      <c r="AG43">
+        <v>44</v>
+      </c>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>61</v>
+      </c>
+      <c r="AK43">
+        <v>20012</v>
+      </c>
+      <c r="AL43">
+        <v>18434</v>
+      </c>
+      <c r="AM43">
+        <v>900</v>
+      </c>
+      <c r="AN43">
+        <v>244</v>
+      </c>
+      <c r="AO43">
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <v>624</v>
+      </c>
+      <c r="AQ43">
+        <v>582</v>
+      </c>
+      <c r="AR43">
+        <v>560</v>
+      </c>
+      <c r="AS43">
+        <v>21</v>
+      </c>
+      <c r="AT43">
+        <v>20</v>
+      </c>
+      <c r="AU43">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <v>21517</v>
+      </c>
+      <c r="N44">
+        <v>18940</v>
+      </c>
+      <c r="O44">
+        <v>2429</v>
+      </c>
+      <c r="P44">
+        <v>231</v>
+      </c>
+      <c r="Q44">
+        <v>5</v>
+      </c>
+      <c r="R44">
+        <v>1400</v>
+      </c>
+      <c r="S44">
+        <v>1399</v>
+      </c>
+      <c r="T44">
+        <v>557</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>791</v>
+      </c>
+      <c r="Y44">
+        <v>22250</v>
+      </c>
+      <c r="Z44">
+        <v>19319</v>
+      </c>
+      <c r="AA44">
+        <v>928</v>
+      </c>
+      <c r="AB44">
+        <v>256</v>
+      </c>
+      <c r="AC44">
+        <v>0</v>
+      </c>
+      <c r="AD44">
+        <v>609</v>
+      </c>
+      <c r="AE44">
+        <v>564</v>
+      </c>
+      <c r="AF44">
+        <v>519</v>
+      </c>
+      <c r="AG44">
+        <v>45</v>
+      </c>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>61</v>
+      </c>
+      <c r="AK44">
+        <v>19948</v>
+      </c>
+      <c r="AL44">
+        <v>18329</v>
+      </c>
+      <c r="AM44">
+        <v>887</v>
+      </c>
+      <c r="AN44">
+        <v>227</v>
+      </c>
+      <c r="AO44">
+        <v>0</v>
+      </c>
+      <c r="AP44">
+        <v>628</v>
+      </c>
+      <c r="AQ44">
+        <v>586</v>
+      </c>
+      <c r="AR44">
+        <v>565</v>
+      </c>
+      <c r="AS44">
+        <v>21</v>
+      </c>
+      <c r="AT44">
+        <v>20</v>
+      </c>
+      <c r="AU44">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <v>21532</v>
+      </c>
+      <c r="N45">
+        <v>18685</v>
+      </c>
+      <c r="O45">
+        <v>2385</v>
+      </c>
+      <c r="P45">
+        <v>248</v>
+      </c>
+      <c r="Q45">
+        <v>5</v>
+      </c>
+      <c r="R45">
+        <v>1344</v>
+      </c>
+      <c r="S45">
+        <v>1344</v>
+      </c>
+      <c r="T45">
+        <v>538</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>785</v>
+      </c>
+      <c r="Y45">
+        <v>22532</v>
+      </c>
+      <c r="Z45">
+        <v>19059</v>
+      </c>
+      <c r="AA45">
+        <v>988</v>
+      </c>
+      <c r="AB45">
+        <v>225</v>
+      </c>
+      <c r="AC45">
+        <v>0</v>
+      </c>
+      <c r="AD45">
+        <v>701</v>
+      </c>
+      <c r="AE45">
+        <v>658</v>
+      </c>
+      <c r="AF45">
+        <v>614</v>
+      </c>
+      <c r="AG45">
+        <v>43</v>
+      </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>60</v>
+      </c>
+      <c r="AK45">
+        <v>20168</v>
+      </c>
+      <c r="AL45">
+        <v>18323</v>
+      </c>
+      <c r="AM45">
+        <v>884</v>
+      </c>
+      <c r="AN45">
+        <v>240</v>
+      </c>
+      <c r="AO45">
+        <v>0</v>
+      </c>
+      <c r="AP45">
+        <v>612</v>
+      </c>
+      <c r="AQ45">
+        <v>570</v>
+      </c>
+      <c r="AR45">
+        <v>548</v>
+      </c>
+      <c r="AS45">
+        <v>21</v>
+      </c>
+      <c r="AT45">
+        <v>20</v>
+      </c>
+      <c r="AU45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <v>21466</v>
+      </c>
+      <c r="N46">
+        <v>19086</v>
+      </c>
+      <c r="O46">
+        <v>2346</v>
+      </c>
+      <c r="P46">
+        <v>217</v>
+      </c>
+      <c r="Q46">
+        <v>5</v>
+      </c>
+      <c r="R46">
+        <v>1336</v>
+      </c>
+      <c r="S46">
+        <v>1336</v>
+      </c>
+      <c r="T46">
+        <v>527</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>784</v>
+      </c>
+      <c r="Y46">
+        <v>23426</v>
+      </c>
+      <c r="Z46">
+        <v>19520</v>
+      </c>
+      <c r="AA46">
+        <v>915</v>
+      </c>
+      <c r="AB46">
+        <v>228</v>
+      </c>
+      <c r="AC46">
+        <v>0</v>
+      </c>
+      <c r="AD46">
+        <v>626</v>
+      </c>
+      <c r="AE46">
+        <v>582</v>
+      </c>
+      <c r="AF46">
+        <v>539</v>
+      </c>
+      <c r="AG46">
+        <v>43</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>60</v>
+      </c>
+      <c r="AK46">
+        <v>19919</v>
+      </c>
+      <c r="AL46">
+        <v>18294</v>
+      </c>
+      <c r="AM46">
+        <v>892</v>
+      </c>
+      <c r="AN46">
+        <v>260</v>
+      </c>
+      <c r="AO46">
+        <v>0</v>
+      </c>
+      <c r="AP46">
+        <v>600</v>
+      </c>
+      <c r="AQ46">
+        <v>558</v>
+      </c>
+      <c r="AR46">
+        <v>536</v>
+      </c>
+      <c r="AS46">
+        <v>21</v>
+      </c>
+      <c r="AT46">
+        <v>20</v>
+      </c>
+      <c r="AU46">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <v>21695</v>
+      </c>
+      <c r="N47">
+        <v>18663</v>
+      </c>
+      <c r="O47">
+        <v>2464</v>
+      </c>
+      <c r="P47">
+        <v>243</v>
+      </c>
+      <c r="Q47">
+        <v>5</v>
+      </c>
+      <c r="R47">
+        <v>1402</v>
+      </c>
+      <c r="S47">
+        <v>1402</v>
+      </c>
+      <c r="T47">
+        <v>557</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>811</v>
+      </c>
+      <c r="Y47">
+        <v>22631</v>
+      </c>
+      <c r="Z47">
+        <v>18435</v>
+      </c>
+      <c r="AA47">
+        <v>971</v>
+      </c>
+      <c r="AB47">
+        <v>230</v>
+      </c>
+      <c r="AC47">
+        <v>0</v>
+      </c>
+      <c r="AD47">
+        <v>679</v>
+      </c>
+      <c r="AE47">
+        <v>635</v>
+      </c>
+      <c r="AF47">
+        <v>592</v>
+      </c>
+      <c r="AG47">
+        <v>43</v>
+      </c>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>60</v>
+      </c>
+      <c r="AK47">
+        <v>21958</v>
+      </c>
+      <c r="AL47">
+        <v>19390</v>
+      </c>
+      <c r="AM47">
+        <v>934</v>
+      </c>
+      <c r="AN47">
+        <v>238</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <v>665</v>
+      </c>
+      <c r="AQ47">
+        <v>624</v>
+      </c>
+      <c r="AR47">
+        <v>604</v>
+      </c>
+      <c r="AS47">
+        <v>20</v>
+      </c>
+      <c r="AT47">
+        <v>19</v>
+      </c>
+      <c r="AU47">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33289,10 +37784,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU35"/>
+  <dimension ref="A1:AU47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AJ14" sqref="AJ14"/>
+    <sheetView topLeftCell="F20" workbookViewId="0">
+      <selection activeCell="AK38" sqref="AK38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36580,6 +41075,1030 @@
         <v>9868</v>
       </c>
     </row>
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="M37" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <v>51834</v>
+      </c>
+      <c r="N38">
+        <v>49889</v>
+      </c>
+      <c r="O38">
+        <v>65841</v>
+      </c>
+      <c r="P38">
+        <v>640</v>
+      </c>
+      <c r="Q38">
+        <v>109</v>
+      </c>
+      <c r="R38">
+        <v>40102</v>
+      </c>
+      <c r="S38">
+        <v>40099</v>
+      </c>
+      <c r="T38">
+        <v>1424</v>
+      </c>
+      <c r="U38">
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>24974</v>
+      </c>
+      <c r="Y38">
+        <v>50275</v>
+      </c>
+      <c r="Z38">
+        <v>46816</v>
+      </c>
+      <c r="AA38">
+        <v>29863</v>
+      </c>
+      <c r="AB38">
+        <v>647</v>
+      </c>
+      <c r="AC38">
+        <v>53</v>
+      </c>
+      <c r="AD38">
+        <v>21191</v>
+      </c>
+      <c r="AE38">
+        <v>10458</v>
+      </c>
+      <c r="AF38">
+        <v>1518</v>
+      </c>
+      <c r="AG38">
+        <v>10732</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>7966</v>
+      </c>
+      <c r="AK38">
+        <v>48632</v>
+      </c>
+      <c r="AL38">
+        <v>46459</v>
+      </c>
+      <c r="AM38">
+        <v>29279</v>
+      </c>
+      <c r="AN38">
+        <v>702</v>
+      </c>
+      <c r="AO38">
+        <v>39</v>
+      </c>
+      <c r="AP38">
+        <v>22619</v>
+      </c>
+      <c r="AQ38">
+        <v>7661</v>
+      </c>
+      <c r="AR38">
+        <v>1388</v>
+      </c>
+      <c r="AS38">
+        <v>7257</v>
+      </c>
+      <c r="AT38">
+        <v>7699</v>
+      </c>
+      <c r="AU38">
+        <v>5891</v>
+      </c>
+    </row>
+    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <v>50284</v>
+      </c>
+      <c r="N39">
+        <v>46764</v>
+      </c>
+      <c r="O39">
+        <v>65907</v>
+      </c>
+      <c r="P39">
+        <v>658</v>
+      </c>
+      <c r="Q39">
+        <v>125</v>
+      </c>
+      <c r="R39">
+        <v>39826</v>
+      </c>
+      <c r="S39">
+        <v>39823</v>
+      </c>
+      <c r="T39">
+        <v>1436</v>
+      </c>
+      <c r="U39">
+        <v>0</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>25282</v>
+      </c>
+      <c r="Y39">
+        <v>52463</v>
+      </c>
+      <c r="Z39">
+        <v>49775</v>
+      </c>
+      <c r="AA39">
+        <v>29451</v>
+      </c>
+      <c r="AB39">
+        <v>641</v>
+      </c>
+      <c r="AC39">
+        <v>46</v>
+      </c>
+      <c r="AD39">
+        <v>20895</v>
+      </c>
+      <c r="AE39">
+        <v>10216</v>
+      </c>
+      <c r="AF39">
+        <v>1380</v>
+      </c>
+      <c r="AG39">
+        <v>10676</v>
+      </c>
+      <c r="AH39">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>7864</v>
+      </c>
+      <c r="AK39">
+        <v>52084</v>
+      </c>
+      <c r="AL39">
+        <v>49724</v>
+      </c>
+      <c r="AM39">
+        <v>28580</v>
+      </c>
+      <c r="AN39">
+        <v>615</v>
+      </c>
+      <c r="AO39">
+        <v>42</v>
+      </c>
+      <c r="AP39">
+        <v>22101</v>
+      </c>
+      <c r="AQ39">
+        <v>7508</v>
+      </c>
+      <c r="AR39">
+        <v>1369</v>
+      </c>
+      <c r="AS39">
+        <v>7075</v>
+      </c>
+      <c r="AT39">
+        <v>7516</v>
+      </c>
+      <c r="AU39">
+        <v>5793</v>
+      </c>
+    </row>
+    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>50612</v>
+      </c>
+      <c r="N40">
+        <v>46575</v>
+      </c>
+      <c r="O40">
+        <v>65229</v>
+      </c>
+      <c r="P40">
+        <v>595</v>
+      </c>
+      <c r="Q40">
+        <v>110</v>
+      </c>
+      <c r="R40">
+        <v>39377</v>
+      </c>
+      <c r="S40">
+        <v>39374</v>
+      </c>
+      <c r="T40">
+        <v>1436</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>25130</v>
+      </c>
+      <c r="Y40">
+        <v>54233</v>
+      </c>
+      <c r="Z40">
+        <v>47646</v>
+      </c>
+      <c r="AA40">
+        <v>30196</v>
+      </c>
+      <c r="AB40">
+        <v>657</v>
+      </c>
+      <c r="AC40">
+        <v>49</v>
+      </c>
+      <c r="AD40">
+        <v>21447</v>
+      </c>
+      <c r="AE40">
+        <v>10516</v>
+      </c>
+      <c r="AF40">
+        <v>1451</v>
+      </c>
+      <c r="AG40">
+        <v>10929</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>8039</v>
+      </c>
+      <c r="AK40">
+        <v>49391</v>
+      </c>
+      <c r="AL40">
+        <v>46384</v>
+      </c>
+      <c r="AM40">
+        <v>27978</v>
+      </c>
+      <c r="AN40">
+        <v>652</v>
+      </c>
+      <c r="AO40">
+        <v>43</v>
+      </c>
+      <c r="AP40">
+        <v>21592</v>
+      </c>
+      <c r="AQ40">
+        <v>7332</v>
+      </c>
+      <c r="AR40">
+        <v>1339</v>
+      </c>
+      <c r="AS40">
+        <v>6918</v>
+      </c>
+      <c r="AT40">
+        <v>7339</v>
+      </c>
+      <c r="AU40">
+        <v>5663</v>
+      </c>
+    </row>
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <v>50500</v>
+      </c>
+      <c r="N41">
+        <v>46427</v>
+      </c>
+      <c r="O41">
+        <v>64657</v>
+      </c>
+      <c r="P41">
+        <v>595</v>
+      </c>
+      <c r="Q41">
+        <v>112</v>
+      </c>
+      <c r="R41">
+        <v>39187</v>
+      </c>
+      <c r="S41">
+        <v>39184</v>
+      </c>
+      <c r="T41">
+        <v>1460</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>24747</v>
+      </c>
+      <c r="Y41">
+        <v>56617</v>
+      </c>
+      <c r="Z41">
+        <v>49706</v>
+      </c>
+      <c r="AA41">
+        <v>29774</v>
+      </c>
+      <c r="AB41">
+        <v>641</v>
+      </c>
+      <c r="AC41">
+        <v>50</v>
+      </c>
+      <c r="AD41">
+        <v>21139</v>
+      </c>
+      <c r="AE41">
+        <v>10344</v>
+      </c>
+      <c r="AF41">
+        <v>1387</v>
+      </c>
+      <c r="AG41">
+        <v>10792</v>
+      </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+      <c r="AI41">
+        <v>7938</v>
+      </c>
+      <c r="AK41">
+        <v>48590</v>
+      </c>
+      <c r="AL41">
+        <v>46201</v>
+      </c>
+      <c r="AM41">
+        <v>28323</v>
+      </c>
+      <c r="AN41">
+        <v>656</v>
+      </c>
+      <c r="AO41">
+        <v>38</v>
+      </c>
+      <c r="AP41">
+        <v>21854</v>
+      </c>
+      <c r="AQ41">
+        <v>7386</v>
+      </c>
+      <c r="AR41">
+        <v>1312</v>
+      </c>
+      <c r="AS41">
+        <v>7011</v>
+      </c>
+      <c r="AT41">
+        <v>7454</v>
+      </c>
+      <c r="AU41">
+        <v>5747</v>
+      </c>
+    </row>
+    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <v>52397</v>
+      </c>
+      <c r="N42">
+        <v>46818</v>
+      </c>
+      <c r="O42">
+        <v>64986</v>
+      </c>
+      <c r="P42">
+        <v>650</v>
+      </c>
+      <c r="Q42">
+        <v>118</v>
+      </c>
+      <c r="R42">
+        <v>39144</v>
+      </c>
+      <c r="S42">
+        <v>39141</v>
+      </c>
+      <c r="T42">
+        <v>1317</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>25058</v>
+      </c>
+      <c r="Y42">
+        <v>56716</v>
+      </c>
+      <c r="Z42">
+        <v>46860</v>
+      </c>
+      <c r="AA42">
+        <v>30035</v>
+      </c>
+      <c r="AB42">
+        <v>614</v>
+      </c>
+      <c r="AC42">
+        <v>51</v>
+      </c>
+      <c r="AD42">
+        <v>21299</v>
+      </c>
+      <c r="AE42">
+        <v>10517</v>
+      </c>
+      <c r="AF42">
+        <v>1519</v>
+      </c>
+      <c r="AG42">
+        <v>10780</v>
+      </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+      <c r="AI42">
+        <v>8065</v>
+      </c>
+      <c r="AK42">
+        <v>54353</v>
+      </c>
+      <c r="AL42">
+        <v>46484</v>
+      </c>
+      <c r="AM42">
+        <v>28793</v>
+      </c>
+      <c r="AN42">
+        <v>638</v>
+      </c>
+      <c r="AO42">
+        <v>38</v>
+      </c>
+      <c r="AP42">
+        <v>22298</v>
+      </c>
+      <c r="AQ42">
+        <v>7633</v>
+      </c>
+      <c r="AR42">
+        <v>1474</v>
+      </c>
+      <c r="AS42">
+        <v>7111</v>
+      </c>
+      <c r="AT42">
+        <v>7552</v>
+      </c>
+      <c r="AU42">
+        <v>5791</v>
+      </c>
+    </row>
+    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <v>50712</v>
+      </c>
+      <c r="N43">
+        <v>46703</v>
+      </c>
+      <c r="O43">
+        <v>64730</v>
+      </c>
+      <c r="P43">
+        <v>677</v>
+      </c>
+      <c r="Q43">
+        <v>112</v>
+      </c>
+      <c r="R43">
+        <v>39049</v>
+      </c>
+      <c r="S43">
+        <v>39045</v>
+      </c>
+      <c r="T43">
+        <v>1335</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>24876</v>
+      </c>
+      <c r="Y43">
+        <v>50355</v>
+      </c>
+      <c r="Z43">
+        <v>46633</v>
+      </c>
+      <c r="AA43">
+        <v>29972</v>
+      </c>
+      <c r="AB43">
+        <v>642</v>
+      </c>
+      <c r="AC43">
+        <v>52</v>
+      </c>
+      <c r="AD43">
+        <v>21246</v>
+      </c>
+      <c r="AE43">
+        <v>10376</v>
+      </c>
+      <c r="AF43">
+        <v>1346</v>
+      </c>
+      <c r="AG43">
+        <v>10868</v>
+      </c>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+      <c r="AI43">
+        <v>8027</v>
+      </c>
+      <c r="AK43">
+        <v>54742</v>
+      </c>
+      <c r="AL43">
+        <v>49560</v>
+      </c>
+      <c r="AM43">
+        <v>28746</v>
+      </c>
+      <c r="AN43">
+        <v>657</v>
+      </c>
+      <c r="AO43">
+        <v>41</v>
+      </c>
+      <c r="AP43">
+        <v>22282</v>
+      </c>
+      <c r="AQ43">
+        <v>7594</v>
+      </c>
+      <c r="AR43">
+        <v>1448</v>
+      </c>
+      <c r="AS43">
+        <v>7122</v>
+      </c>
+      <c r="AT43">
+        <v>7564</v>
+      </c>
+      <c r="AU43">
+        <v>5739</v>
+      </c>
+    </row>
+    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <v>55006</v>
+      </c>
+      <c r="N44">
+        <v>49607</v>
+      </c>
+      <c r="O44">
+        <v>65173</v>
+      </c>
+      <c r="P44">
+        <v>617</v>
+      </c>
+      <c r="Q44">
+        <v>120</v>
+      </c>
+      <c r="R44">
+        <v>39468</v>
+      </c>
+      <c r="S44">
+        <v>39464</v>
+      </c>
+      <c r="T44">
+        <v>1562</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>24953</v>
+      </c>
+      <c r="Y44">
+        <v>53993</v>
+      </c>
+      <c r="Z44">
+        <v>47236</v>
+      </c>
+      <c r="AA44">
+        <v>30260</v>
+      </c>
+      <c r="AB44">
+        <v>708</v>
+      </c>
+      <c r="AC44">
+        <v>50</v>
+      </c>
+      <c r="AD44">
+        <v>21444</v>
+      </c>
+      <c r="AE44">
+        <v>10507</v>
+      </c>
+      <c r="AF44">
+        <v>1433</v>
+      </c>
+      <c r="AG44">
+        <v>10935</v>
+      </c>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+      <c r="AI44">
+        <v>8052</v>
+      </c>
+      <c r="AK44">
+        <v>48635</v>
+      </c>
+      <c r="AL44">
+        <v>46579</v>
+      </c>
+      <c r="AM44">
+        <v>29118</v>
+      </c>
+      <c r="AN44">
+        <v>673</v>
+      </c>
+      <c r="AO44">
+        <v>40</v>
+      </c>
+      <c r="AP44">
+        <v>22604</v>
+      </c>
+      <c r="AQ44">
+        <v>7678</v>
+      </c>
+      <c r="AR44">
+        <v>1444</v>
+      </c>
+      <c r="AS44">
+        <v>7229</v>
+      </c>
+      <c r="AT44">
+        <v>7693</v>
+      </c>
+      <c r="AU44">
+        <v>5774</v>
+      </c>
+    </row>
+    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <v>56855</v>
+      </c>
+      <c r="N45">
+        <v>49657</v>
+      </c>
+      <c r="O45">
+        <v>64703</v>
+      </c>
+      <c r="P45">
+        <v>602</v>
+      </c>
+      <c r="Q45">
+        <v>111</v>
+      </c>
+      <c r="R45">
+        <v>39183</v>
+      </c>
+      <c r="S45">
+        <v>39180</v>
+      </c>
+      <c r="T45">
+        <v>1408</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>24791</v>
+      </c>
+      <c r="Y45">
+        <v>55457</v>
+      </c>
+      <c r="Z45">
+        <v>47685</v>
+      </c>
+      <c r="AA45">
+        <v>29649</v>
+      </c>
+      <c r="AB45">
+        <v>623</v>
+      </c>
+      <c r="AC45">
+        <v>55</v>
+      </c>
+      <c r="AD45">
+        <v>21032</v>
+      </c>
+      <c r="AE45">
+        <v>10364</v>
+      </c>
+      <c r="AF45">
+        <v>1475</v>
+      </c>
+      <c r="AG45">
+        <v>10667</v>
+      </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AI45">
+        <v>7933</v>
+      </c>
+      <c r="AK45">
+        <v>48538</v>
+      </c>
+      <c r="AL45">
+        <v>46049</v>
+      </c>
+      <c r="AM45">
+        <v>28711</v>
+      </c>
+      <c r="AN45">
+        <v>663</v>
+      </c>
+      <c r="AO45">
+        <v>41</v>
+      </c>
+      <c r="AP45">
+        <v>22196</v>
+      </c>
+      <c r="AQ45">
+        <v>7622</v>
+      </c>
+      <c r="AR45">
+        <v>1500</v>
+      </c>
+      <c r="AS45">
+        <v>7068</v>
+      </c>
+      <c r="AT45">
+        <v>7504</v>
+      </c>
+      <c r="AU45">
+        <v>5783</v>
+      </c>
+    </row>
+    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <v>53107</v>
+      </c>
+      <c r="N46">
+        <v>49928</v>
+      </c>
+      <c r="O46">
+        <v>65251</v>
+      </c>
+      <c r="P46">
+        <v>625</v>
+      </c>
+      <c r="Q46">
+        <v>114</v>
+      </c>
+      <c r="R46">
+        <v>39363</v>
+      </c>
+      <c r="S46">
+        <v>39360</v>
+      </c>
+      <c r="T46">
+        <v>1364</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>25134</v>
+      </c>
+      <c r="Y46">
+        <v>56982</v>
+      </c>
+      <c r="Z46">
+        <v>47468</v>
+      </c>
+      <c r="AA46">
+        <v>29656</v>
+      </c>
+      <c r="AB46">
+        <v>638</v>
+      </c>
+      <c r="AC46">
+        <v>48</v>
+      </c>
+      <c r="AD46">
+        <v>20987</v>
+      </c>
+      <c r="AE46">
+        <v>10264</v>
+      </c>
+      <c r="AF46">
+        <v>1340</v>
+      </c>
+      <c r="AG46">
+        <v>10721</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+      <c r="AI46">
+        <v>7977</v>
+      </c>
+      <c r="AK46">
+        <v>48681</v>
+      </c>
+      <c r="AL46">
+        <v>46188</v>
+      </c>
+      <c r="AM46">
+        <v>28985</v>
+      </c>
+      <c r="AN46">
+        <v>662</v>
+      </c>
+      <c r="AO46">
+        <v>43</v>
+      </c>
+      <c r="AP46">
+        <v>22530</v>
+      </c>
+      <c r="AQ46">
+        <v>7651</v>
+      </c>
+      <c r="AR46">
+        <v>1473</v>
+      </c>
+      <c r="AS46">
+        <v>7214</v>
+      </c>
+      <c r="AT46">
+        <v>7663</v>
+      </c>
+      <c r="AU46">
+        <v>5722</v>
+      </c>
+    </row>
+    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <v>50654</v>
+      </c>
+      <c r="N47">
+        <v>47075</v>
+      </c>
+      <c r="O47">
+        <v>65017</v>
+      </c>
+      <c r="P47">
+        <v>700</v>
+      </c>
+      <c r="Q47">
+        <v>116</v>
+      </c>
+      <c r="R47">
+        <v>39263</v>
+      </c>
+      <c r="S47">
+        <v>39260</v>
+      </c>
+      <c r="T47">
+        <v>1347</v>
+      </c>
+      <c r="U47">
+        <v>0</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>24922</v>
+      </c>
+      <c r="Y47">
+        <v>52319</v>
+      </c>
+      <c r="Z47">
+        <v>47377</v>
+      </c>
+      <c r="AA47">
+        <v>29920</v>
+      </c>
+      <c r="AB47">
+        <v>644</v>
+      </c>
+      <c r="AC47">
+        <v>59</v>
+      </c>
+      <c r="AD47">
+        <v>21238</v>
+      </c>
+      <c r="AE47">
+        <v>10386</v>
+      </c>
+      <c r="AF47">
+        <v>1380</v>
+      </c>
+      <c r="AG47">
+        <v>10850</v>
+      </c>
+      <c r="AH47">
+        <v>0</v>
+      </c>
+      <c r="AI47">
+        <v>7973</v>
+      </c>
+      <c r="AK47">
+        <v>48594</v>
+      </c>
+      <c r="AL47">
+        <v>46188</v>
+      </c>
+      <c r="AM47">
+        <v>28711</v>
+      </c>
+      <c r="AN47">
+        <v>676</v>
+      </c>
+      <c r="AO47">
+        <v>38</v>
+      </c>
+      <c r="AP47">
+        <v>22190</v>
+      </c>
+      <c r="AQ47">
+        <v>7486</v>
+      </c>
+      <c r="AR47">
+        <v>1317</v>
+      </c>
+      <c r="AS47">
+        <v>7124</v>
+      </c>
+      <c r="AT47">
+        <v>7577</v>
+      </c>
+      <c r="AU47">
+        <v>5778</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trim/scaling.xlsx
+++ b/trim/scaling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="100k" sheetId="1" r:id="rId1"/>
@@ -305,6 +305,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -662,11 +663,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="386042168"/>
-        <c:axId val="386042560"/>
+        <c:axId val="295913760"/>
+        <c:axId val="295913368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="386042168"/>
+        <c:axId val="295913760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -709,7 +710,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="386042560"/>
+        <c:crossAx val="295913368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -717,7 +718,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="386042560"/>
+        <c:axId val="295913368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -768,7 +769,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="386042168"/>
+        <c:crossAx val="295913760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -782,6 +783,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -895,6 +897,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1252,11 +1255,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99496120"/>
-        <c:axId val="387273584"/>
+        <c:axId val="295914544"/>
+        <c:axId val="295914936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99496120"/>
+        <c:axId val="295914544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1299,7 +1302,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387273584"/>
+        <c:crossAx val="295914936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1307,7 +1310,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="387273584"/>
+        <c:axId val="295914936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1358,7 +1361,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="99496120"/>
+        <c:crossAx val="295914544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1372,6 +1375,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1485,6 +1489,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1842,11 +1847,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="387274368"/>
-        <c:axId val="387274760"/>
+        <c:axId val="295915720"/>
+        <c:axId val="295916112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="387274368"/>
+        <c:axId val="295915720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1889,7 +1894,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387274760"/>
+        <c:crossAx val="295916112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1897,7 +1902,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="387274760"/>
+        <c:axId val="295916112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1948,7 +1953,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387274368"/>
+        <c:crossAx val="295915720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1962,6 +1967,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2398,11 +2404,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="386044544"/>
-        <c:axId val="386044936"/>
+        <c:axId val="378452344"/>
+        <c:axId val="378452736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="386044544"/>
+        <c:axId val="378452344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2445,7 +2451,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="386044936"/>
+        <c:crossAx val="378452736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2453,7 +2459,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="386044936"/>
+        <c:axId val="378452736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2504,7 +2510,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="386044544"/>
+        <c:crossAx val="378452344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2955,11 +2961,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="386047288"/>
-        <c:axId val="386047680"/>
+        <c:axId val="378455480"/>
+        <c:axId val="378455872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="386047288"/>
+        <c:axId val="378455480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3002,7 +3008,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="386047680"/>
+        <c:crossAx val="378455872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3010,7 +3016,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="386047680"/>
+        <c:axId val="378455872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3061,7 +3067,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="386047288"/>
+        <c:crossAx val="378455480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3491,11 +3497,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="387780680"/>
-        <c:axId val="387781072"/>
+        <c:axId val="378456656"/>
+        <c:axId val="378457048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="387780680"/>
+        <c:axId val="378456656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3538,7 +3544,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387781072"/>
+        <c:crossAx val="378457048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3546,7 +3552,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="387781072"/>
+        <c:axId val="378457048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3597,7 +3603,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387780680"/>
+        <c:crossAx val="378456656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4027,11 +4033,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="387781856"/>
-        <c:axId val="387782248"/>
+        <c:axId val="378457832"/>
+        <c:axId val="378458224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="387781856"/>
+        <c:axId val="378457832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4074,7 +4080,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387782248"/>
+        <c:crossAx val="378458224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4082,7 +4088,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="387782248"/>
+        <c:axId val="378458224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4133,7 +4139,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387781856"/>
+        <c:crossAx val="378457832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4563,11 +4569,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="387783032"/>
-        <c:axId val="387783424"/>
+        <c:axId val="378459008"/>
+        <c:axId val="379158912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="387783032"/>
+        <c:axId val="378459008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4610,7 +4616,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387783424"/>
+        <c:crossAx val="379158912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4618,7 +4624,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="387783424"/>
+        <c:axId val="379158912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4669,7 +4675,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387783032"/>
+        <c:crossAx val="378459008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9121,7 +9127,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEDE3A8D-C7C7-4D9F-9C25-679ED225B3B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEDE3A8D-C7C7-4D9F-9C25-679ED225B3B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9157,7 +9163,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35EB3EBF-4C04-40BF-8E50-0133D4A275B1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{35EB3EBF-4C04-40BF-8E50-0133D4A275B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9195,7 +9201,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83A3B5C3-5257-411F-A2F7-DA1DC10798FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83A3B5C3-5257-411F-A2F7-DA1DC10798FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9238,7 +9244,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95FE8CA5-B481-4DFD-949F-4DE2B32B5EBB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{95FE8CA5-B481-4DFD-949F-4DE2B32B5EBB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9274,7 +9280,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AED9833-EE27-464F-8F0E-4A7A5B8AC131}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7AED9833-EE27-464F-8F0E-4A7A5B8AC131}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9312,7 +9318,7 @@
         <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CE99168-969F-488F-B46C-12861414FEB8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1CE99168-969F-488F-B46C-12861414FEB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9350,7 +9356,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2CEBFD2-E8BF-46B5-A41F-41453D2CF9FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E2CEBFD2-E8BF-46B5-A41F-41453D2CF9FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9388,7 +9394,7 @@
         <xdr:cNvPr id="7" name="Chart 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E334DA48-AEB9-4729-86FD-60A3FF7F167A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E334DA48-AEB9-4729-86FD-60A3FF7F167A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12428,8 +12434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18389,7 +18395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
@@ -37786,8 +37792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU47"/>
   <sheetViews>
-    <sheetView topLeftCell="F20" workbookViewId="0">
-      <selection activeCell="AK38" sqref="AK38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AX11" sqref="AX11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
